--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -112,7 +112,31 @@
     <t xml:space="preserve">revisione documento, discussione palette e mock up</t>
   </si>
   <si>
+    <t xml:space="preserve">18/10/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usecase</t>
+  </si>
+  <si>
     <t xml:space="preserve">revisione ultimi dettagli documento 1 da consegnare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/10/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisione diagrammi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagrammi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/10/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riorganizzazione + diagrammi</t>
   </si>
 </sst>
 </file>
@@ -273,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,16 +374,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -445,11 +465,11 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.7"/>
@@ -462,7 +482,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="11.63"/>
@@ -852,13 +872,13 @@
       <c r="A8" s="18" t="n">
         <v>44783</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -871,10 +891,18 @@
         <v>14</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+      <c r="J8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="13"/>
@@ -898,14 +926,14 @@
       <c r="A9" s="18" t="n">
         <v>44814</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>30</v>
+      <c r="D9" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>14</v>
@@ -940,14 +968,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -976,7 +1018,7 @@
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -991,12 +1033,27 @@
       <c r="R11" s="13"/>
       <c r="S11" s="14"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="I12" s="4"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1008,41 +1065,307 @@
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="V12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="I13" s="21"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2017,7 +2340,7 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="U1:U12"/>
+    <mergeCell ref="U1:U19"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Y2"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -142,22 +142,44 @@
     <t xml:space="preserve">diagrammi</t>
   </si>
   <si>
+    <t xml:space="preserve">03/11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagrammi D2 (diagramma 3 e 4)</t>
+  </si>
+  <si>
     <t xml:space="preserve">20/10/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Riorganizzazione + diagrammi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report per il diagramma 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documento guida per diagramma 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componenti per db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="dd/mm"/>
     <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -383,16 +405,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -472,22 +494,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y15" activeCellId="0" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="11.59"/>
@@ -918,7 +940,7 @@
       <c r="C8" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -972,7 +994,7 @@
       <c r="C9" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -1018,7 +1040,7 @@
       <c r="C10" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -1058,13 +1080,13 @@
       <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="20" t="n">
+      <c r="B11" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -1101,13 +1123,27 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1120,7 +1156,7 @@
       <c r="S12" s="14"/>
       <c r="U12" s="7"/>
       <c r="V12" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W12" s="13" t="n">
         <v>1</v>
@@ -1129,43 +1165,71 @@
         <v>0</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
+      <c r="V13" s="20" t="n">
+        <v>44891</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
+      <c r="V14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -1177,9 +1241,9 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1191,9 +1255,9 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1205,9 +1269,9 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1219,9 +1283,9 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -1233,81 +1297,81 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1316,7 +1380,7 @@
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1325,7 +1389,7 @@
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -1334,7 +1398,7 @@
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -1343,7 +1407,7 @@
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -1352,7 +1416,7 @@
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -1361,7 +1425,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -1370,7 +1434,7 @@
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -1379,7 +1443,7 @@
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -1388,7 +1452,7 @@
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -1397,7 +1461,7 @@
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -1406,7 +1470,7 @@
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -1415,7 +1479,7 @@
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -2401,7 +2465,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B123C055D3C47FC54B49CBDEB63E1FBC50BA46DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68FF8708-A447-433F-B7CC-DA6B217EC8C3}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_B123C055D3C47FC54B49CBDEB63E1FBC50BA46DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17A14B59-89B0-4255-A706-8284BF0E2989}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>DATA</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>tabella rnf, diagramma contesto</t>
+  </si>
+  <si>
+    <t>diagramma contesto</t>
   </si>
 </sst>
 </file>
@@ -306,32 +309,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,6 +349,33 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -780,976 +786,992 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="11" t="s">
+      <c r="M2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="12" t="s">
+      <c r="S2" s="15"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="14"/>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="16">
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="8">
         <v>44833</v>
       </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
         <v>20</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="17">
+      <c r="O3" s="18"/>
+      <c r="P3" s="9">
         <v>44836</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="5">
         <v>3</v>
       </c>
-      <c r="R3" s="13">
-        <v>0</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="16"/>
+      <c r="V3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="5">
         <v>1</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="5">
         <v>30</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="16">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="8">
         <v>44839</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="17">
+      <c r="O4" s="18"/>
+      <c r="P4" s="9">
         <v>44840</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="5">
         <v>3</v>
       </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="18">
+      <c r="U4" s="16"/>
+      <c r="V4" s="10">
         <v>44602</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="5">
         <v>4</v>
       </c>
-      <c r="X4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14" t="s">
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="A5" s="10">
         <v>44571</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="16">
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="8">
         <v>44842</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="5">
         <v>2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="5">
         <v>20</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="17">
+      <c r="O5" s="18"/>
+      <c r="P5" s="9">
         <v>44842</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14" t="s">
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="18">
+      <c r="U5" s="16"/>
+      <c r="V5" s="10">
         <v>44630</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="5">
         <v>1</v>
       </c>
-      <c r="X5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14" t="s">
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="A6" s="10">
         <v>44630</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="18">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="10">
         <v>44843</v>
       </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>30</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="17">
+      <c r="O6" s="18"/>
+      <c r="P6" s="9">
         <v>44843</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="5">
         <v>2</v>
       </c>
-      <c r="R6" s="13">
-        <v>0</v>
-      </c>
-      <c r="S6" s="14" t="s">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="18">
+      <c r="U6" s="16"/>
+      <c r="V6" s="10">
         <v>44661</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="5">
         <v>1</v>
       </c>
-      <c r="X6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="14" t="s">
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
+      <c r="A7" s="10">
         <v>44722</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="18">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="10">
         <v>44844</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="18">
+      <c r="O7" s="18"/>
+      <c r="P7" s="10">
         <v>44856</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="5">
         <v>2</v>
       </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="18">
+      <c r="U7" s="16"/>
+      <c r="V7" s="10">
         <v>44840</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="5">
         <v>2</v>
       </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14" t="s">
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
+      <c r="A8" s="10">
         <v>44783</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="18" t="s">
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="18">
+      <c r="O8" s="18"/>
+      <c r="P8" s="10">
         <v>44871</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="5">
         <v>2</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="5">
         <v>30</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="16">
+      <c r="U8" s="16"/>
+      <c r="V8" s="8">
         <v>44841</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="5">
         <v>2</v>
       </c>
-      <c r="X8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14" t="s">
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="A9" s="10">
         <v>44814</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>40</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="16">
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="10">
+        <v>44872</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>30</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="8">
         <v>44842</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="5">
         <v>6</v>
       </c>
-      <c r="X9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="14" t="s">
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="16">
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="22">
+        <v>44873</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>30</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="8">
         <v>44843</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="5">
         <v>4</v>
       </c>
-      <c r="X10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14" t="s">
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="16" t="s">
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="5">
         <v>1</v>
       </c>
-      <c r="X11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14" t="s">
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="16" t="s">
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="5">
         <v>1</v>
       </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14" t="s">
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
         <v>18</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="20">
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="12">
         <v>44891</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="6">
         <v>1</v>
       </c>
-      <c r="X13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14" t="s">
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="14" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14">
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
         <v>30</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="6"/>
     </row>
     <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="6"/>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2713,22 +2735,22 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:I12"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O12"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="U1:U19"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:I12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -121,6 +121,9 @@
     <t xml:space="preserve">usecase</t>
   </si>
   <si>
+    <t xml:space="preserve">06/11/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">tabella rnf, diagramma contesto</t>
   </si>
   <si>
@@ -164,6 +167,12 @@
   </si>
   <si>
     <t xml:space="preserve">documento guida per diagramma 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/11/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review diagramma 3 e diagramma 4</t>
   </si>
   <si>
     <t xml:space="preserve">3/11/2022</t>
@@ -505,20 +514,20 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="11.59"/>
@@ -975,8 +984,8 @@
         <v>32</v>
       </c>
       <c r="O8" s="5"/>
-      <c r="P8" s="18" t="n">
-        <v>44871</v>
+      <c r="P8" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="Q8" s="13" t="n">
         <v>2</v>
@@ -985,7 +994,7 @@
         <v>30</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="16" t="n">
@@ -1012,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>14</v>
@@ -1024,7 +1033,9 @@
         <v>14</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
@@ -1049,7 +1060,7 @@
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>1</v>
@@ -1058,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>14</v>
@@ -1095,7 +1106,7 @@
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>3</v>
@@ -1104,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>14</v>
@@ -1127,7 +1138,7 @@
       <c r="S11" s="14"/>
       <c r="U11" s="7"/>
       <c r="V11" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" s="13" t="n">
         <v>1</v>
@@ -1136,12 +1147,12 @@
         <v>0</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>1</v>
@@ -1150,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>14</v>
@@ -1173,7 +1184,7 @@
       <c r="S12" s="14"/>
       <c r="U12" s="7"/>
       <c r="V12" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W12" s="13" t="n">
         <v>1</v>
@@ -1182,12 +1193,12 @@
         <v>0</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>0</v>
@@ -1195,8 +1206,8 @@
       <c r="C13" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>46</v>
+      <c r="D13" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="15" t="s">
@@ -1217,20 +1228,34 @@
         <v>0</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W14" s="14" t="n">
         <v>0</v>
@@ -1239,14 +1264,14 @@
         <v>30</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -1261,20 +1286,20 @@
         <v>30</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="U16" s="7"/>
       <c r="V16" s="16" t="n">
-        <v>37568</v>
+        <v>44873</v>
       </c>
       <c r="W16" s="13" t="n">
         <v>2</v>
@@ -1283,28 +1308,36 @@
         <v>30</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="14"/>
+      <c r="V17" s="16" t="n">
+        <v>44874</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1318,7 +1351,7 @@
       <c r="A19" s="18"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -1332,7 +1365,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1341,7 +1374,7 @@
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1350,7 +1383,7 @@
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1359,7 +1392,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1368,7 +1401,7 @@
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -1377,7 +1410,7 @@
       <c r="A25" s="18"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -1386,7 +1419,7 @@
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1395,7 +1428,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1404,7 +1437,7 @@
       <c r="A28" s="18"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Impostazione D2, use case </t>
   </si>
   <si>
-    <t xml:space="preserve">13/10/2022</t>
+    <t xml:space="preserve">14/10/2022</t>
   </si>
   <si>
     <t xml:space="preserve">revisione diagrammi</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">05/11/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">report per il diagramma 4</t>
+    <t xml:space="preserve">review del diagramma 4</t>
   </si>
   <si>
     <t xml:space="preserve">Sistemazione D1, D2 + diagramma componenti</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">15/11/2002</t>
   </si>
   <si>
-    <t xml:space="preserve">fine review diagramma 3 e divisione lavoro diagramma 4</t>
+    <t xml:space="preserve">fine review diagramma 3 e divisione lavoro deliverable 4</t>
   </si>
   <si>
     <t xml:space="preserve">review doc + lavoro a diagramma 4</t>
@@ -540,10 +540,10 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15:G15"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.74"/>
@@ -556,11 +556,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.75"/>
   </cols>
   <sheetData>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">review doc + lavoro a diagramma 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagramma 4</t>
+    <t xml:space="preserve">diagramma classi</t>
   </si>
 </sst>
 </file>
@@ -539,11 +539,11 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z21" activeCellId="0" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.74"/>
@@ -1441,10 +1441,18 @@
       <c r="G18" s="18"/>
       <c r="I18" s="4"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="14"/>
+      <c r="V18" s="16" t="n">
+        <v>44881</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
@@ -1456,10 +1464,18 @@
       <c r="G19" s="18"/>
       <c r="I19" s="4"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="14"/>
+      <c r="V19" s="16" t="n">
+        <v>44886</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB1D309-FC03-40CF-AB50-2E0A30F7A85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A78E50-27F1-4F18-8E88-952268D02D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
   <si>
     <t>DATA</t>
   </si>
@@ -349,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,12 +426,25 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color rgb="FF505050"/>
       </left>
       <right style="hair">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -445,9 +458,7 @@
       <top style="hair">
         <color rgb="FF505050"/>
       </top>
-      <bottom style="hair">
-        <color rgb="FF505050"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -497,35 +508,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,22 +544,27 @@
     <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -936,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="K8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -962,70 +975,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="I1" s="19" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="26" t="s">
+      <c r="P1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1035,33 +1048,33 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="16"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="22"/>
+      <c r="M2" s="28"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="20"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="21"/>
       <c r="W2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="20"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1085,7 +1098,7 @@
       <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="8">
         <v>44833</v>
       </c>
@@ -1098,7 +1111,7 @@
       <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="24"/>
+      <c r="O3" s="32"/>
       <c r="P3" s="15">
         <v>44836</v>
       </c>
@@ -1111,7 +1124,7 @@
       <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="28"/>
+      <c r="U3" s="27"/>
       <c r="V3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1158,7 @@
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="8">
         <v>44839</v>
       </c>
@@ -1158,7 +1171,7 @@
       <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="24"/>
+      <c r="O4" s="32"/>
       <c r="P4" s="15">
         <v>44840</v>
       </c>
@@ -1171,7 +1184,7 @@
       <c r="S4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="28"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="9">
         <v>44602</v>
       </c>
@@ -1207,7 +1220,7 @@
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="8">
         <v>44842</v>
       </c>
@@ -1220,7 +1233,7 @@
       <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="24"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="15">
         <v>44842</v>
       </c>
@@ -1233,7 +1246,7 @@
       <c r="S5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="28"/>
+      <c r="U5" s="27"/>
       <c r="V5" s="9">
         <v>44630</v>
       </c>
@@ -1269,7 +1282,7 @@
       <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="9">
         <v>44843</v>
       </c>
@@ -1282,7 +1295,7 @@
       <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="24"/>
+      <c r="O6" s="32"/>
       <c r="P6" s="15">
         <v>44843</v>
       </c>
@@ -1295,7 +1308,7 @@
       <c r="S6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
+      <c r="U6" s="27"/>
       <c r="V6" s="9">
         <v>44661</v>
       </c>
@@ -1331,7 +1344,7 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="9">
         <v>44844</v>
       </c>
@@ -1344,7 +1357,7 @@
       <c r="M7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="24"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="15">
         <v>44856</v>
       </c>
@@ -1358,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="28"/>
+      <c r="U7" s="27"/>
       <c r="V7" s="9">
         <v>44840</v>
       </c>
@@ -1394,7 +1407,7 @@
       <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="9" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1420,7 @@
       <c r="M8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="24"/>
+      <c r="O8" s="32"/>
       <c r="P8" s="15" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1433,7 @@
       <c r="S8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="28"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="8">
         <v>44841</v>
       </c>
@@ -1456,7 +1469,7 @@
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="9">
         <v>44854</v>
       </c>
@@ -1469,7 +1482,7 @@
       <c r="M9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="24"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="15">
         <v>44753</v>
       </c>
@@ -1482,7 +1495,7 @@
       <c r="S9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="28"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="8">
         <v>44842</v>
       </c>
@@ -1518,7 +1531,7 @@
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="10">
         <v>44857</v>
       </c>
@@ -1531,7 +1544,7 @@
       <c r="M10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="24"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="15">
         <v>44873</v>
       </c>
@@ -1544,7 +1557,7 @@
       <c r="S10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="27"/>
       <c r="V10" s="8">
         <v>44843</v>
       </c>
@@ -1580,7 +1593,7 @@
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="10">
         <v>44859</v>
       </c>
@@ -1593,7 +1606,7 @@
       <c r="M11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="24"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="15">
         <v>44885</v>
       </c>
@@ -1606,7 +1619,7 @@
       <c r="S11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="28"/>
+      <c r="U11" s="27"/>
       <c r="V11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1642,7 +1655,7 @@
       <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="8">
         <v>44870</v>
       </c>
@@ -1655,20 +1668,20 @@
       <c r="M12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="29">
+      <c r="O12" s="32"/>
+      <c r="P12" s="16">
         <v>44887</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="17">
         <v>1</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="17">
         <v>30</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="28"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1702,7 +1715,7 @@
       <c r="G13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="8">
         <v>44871</v>
       </c>
@@ -1715,19 +1728,20 @@
       <c r="M13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="32">
+      <c r="O13" s="32"/>
+      <c r="P13" s="19">
         <v>44888</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="20">
         <v>2</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="20">
         <v>30</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="28"/>
+      <c r="U13" s="27"/>
       <c r="V13" s="11">
         <v>44891</v>
       </c>
@@ -1763,7 +1777,7 @@
       <c r="G14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="8">
         <v>44872</v>
       </c>
@@ -1776,11 +1790,20 @@
       <c r="M14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="U14" s="28"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="19">
+        <v>44893</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>2</v>
+      </c>
+      <c r="R14" s="20">
+        <v>30</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="27"/>
       <c r="V14" s="6" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +1839,7 @@
       <c r="G15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="8">
         <v>44881</v>
       </c>
@@ -1829,11 +1852,12 @@
       <c r="M15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="U15" s="28"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="8">
         <v>44872</v>
       </c>
@@ -1869,7 +1893,7 @@
       <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="8">
         <v>44882</v>
       </c>
@@ -1882,11 +1906,12 @@
       <c r="M16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="34"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
-      <c r="U16" s="28"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="8">
         <v>44873</v>
       </c>
@@ -1922,7 +1947,7 @@
       <c r="G17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="8">
         <v>44883</v>
       </c>
@@ -1935,7 +1960,12 @@
       <c r="M17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="U17" s="28"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="8">
         <v>44874</v>
       </c>
@@ -1950,14 +1980,28 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="19"/>
+      <c r="A18" s="15">
+        <v>44893</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="22"/>
       <c r="J18" s="8">
         <v>44884</v>
       </c>
@@ -1970,7 +2014,12 @@
       <c r="M18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="U18" s="28"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="8">
         <v>44881</v>
       </c>
@@ -1992,7 +2041,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="8">
         <v>44888</v>
       </c>
@@ -2005,7 +2054,12 @@
       <c r="M19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U19" s="28"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="8">
         <v>44886</v>
       </c>
@@ -2027,12 +2081,17 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="8"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
-      <c r="U20" s="28"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -2046,12 +2105,17 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="8"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
-      <c r="U21" s="28"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2065,12 +2129,17 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="8"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
-      <c r="U22" s="28"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="U22" s="27"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2084,12 +2153,17 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="8"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
-      <c r="U23" s="28"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="U23" s="27"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2103,12 +2177,17 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="8"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
-      <c r="U24" s="28"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="U24" s="27"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -2122,12 +2201,17 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="8"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
-      <c r="U25" s="28"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -2141,29 +2225,34 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="8"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
-      <c r="U26" s="28"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I27" s="19"/>
-      <c r="U27" s="28"/>
+      <c r="I27" s="22"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I28" s="19"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="12"/>
-      <c r="U28" s="28"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="8"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -2177,8 +2266,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="I29" s="19"/>
-      <c r="U29" s="28"/>
+      <c r="I29" s="22"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="8"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
@@ -2192,8 +2281,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="I30" s="19"/>
-      <c r="U30" s="28"/>
+      <c r="I30" s="22"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="8"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -2207,8 +2296,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="I31" s="19"/>
-      <c r="U31" s="28"/>
+      <c r="I31" s="22"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="8"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -2222,8 +2311,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="I32" s="19"/>
-      <c r="U32" s="28"/>
+      <c r="I32" s="22"/>
+      <c r="U32" s="27"/>
       <c r="V32" s="8"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -2237,7 +2326,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
@@ -2247,7 +2336,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
@@ -2257,7 +2346,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
@@ -2267,7 +2356,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
@@ -2277,7 +2366,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
@@ -3385,10 +3474,14 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:I12"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="I13:I37"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O12"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="U1:U32"/>
@@ -3397,11 +3490,7 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:I12"/>
+    <mergeCell ref="O1:O26"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">descrzioni OCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagramma estrazione delle risorse e modello API</t>
   </si>
 </sst>
 </file>
@@ -682,11 +685,11 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y25" activeCellId="0" sqref="Y25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W26" activeCellId="0" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.74"/>
@@ -694,7 +697,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.63"/>
@@ -703,7 +706,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.75"/>
   </cols>
   <sheetData>
@@ -2028,7 +2031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2055,10 +2058,18 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="14"/>
+      <c r="V25" s="16" t="n">
+        <v>44903</v>
+      </c>
+      <c r="W25" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_830F5AEB968636E4F948CBDEB67D3F7E45C418BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56BE93A-C56C-43F1-BB8A-441B24B776B4}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_830F5AEB968636E4F948CBDEB67D3F7E45C418BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C8BC33B-3EFB-4F15-B555-C80F6C9EBF43}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t>DATA</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>API</t>
+  </si>
+  <si>
+    <t>diagrammi api</t>
+  </si>
+  <si>
+    <t>divisione api</t>
+  </si>
+  <si>
+    <t>divisione sviluppo</t>
   </si>
 </sst>
 </file>
@@ -474,32 +483,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,6 +547,34 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -946,13 +959,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.921875" customWidth="1"/>
+    <col min="1" max="1" width="10.921875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="10.921875" customWidth="1"/>
     <col min="4" max="4" width="25.75390625" customWidth="1"/>
     <col min="5" max="5" width="12.80859375" customWidth="1"/>
     <col min="6" max="8" width="11.59375" customWidth="1"/>
@@ -972,1692 +986,1748 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="11" t="s">
+      <c r="M2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="12" t="s">
+      <c r="S2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="23"/>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="16">
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="8">
         <v>44833</v>
       </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
         <v>20</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="17">
+      <c r="O3" s="28"/>
+      <c r="P3" s="9">
         <v>44836</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="5">
         <v>3</v>
       </c>
-      <c r="R3" s="13">
-        <v>0</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="26"/>
+      <c r="V3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="5">
         <v>1</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="5">
         <v>30</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="16">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="8">
         <v>44839</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="17">
+      <c r="O4" s="28"/>
+      <c r="P4" s="9">
         <v>44840</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="5">
         <v>3</v>
       </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="18">
+      <c r="U4" s="26"/>
+      <c r="V4" s="10">
         <v>44602</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="5">
         <v>4</v>
       </c>
-      <c r="X4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14" t="s">
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="A5" s="9">
         <v>44571</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="16">
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="8">
         <v>44842</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="5">
         <v>2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="5">
         <v>20</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="17">
+      <c r="O5" s="28"/>
+      <c r="P5" s="9">
         <v>44842</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14" t="s">
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="18">
+      <c r="U5" s="26"/>
+      <c r="V5" s="10">
         <v>44630</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="5">
         <v>1</v>
       </c>
-      <c r="X5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14" t="s">
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="A6" s="9">
         <v>44630</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="18">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="10">
         <v>44843</v>
       </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>30</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="17">
+      <c r="O6" s="28"/>
+      <c r="P6" s="9">
         <v>44843</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="5">
         <v>2</v>
       </c>
-      <c r="R6" s="13">
-        <v>0</v>
-      </c>
-      <c r="S6" s="14" t="s">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="18">
+      <c r="U6" s="26"/>
+      <c r="V6" s="10">
         <v>44661</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="5">
         <v>1</v>
       </c>
-      <c r="X6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="14" t="s">
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
+      <c r="A7" s="9">
         <v>44722</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="18">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="10">
         <v>44844</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="17">
+      <c r="O7" s="28"/>
+      <c r="P7" s="9">
         <v>44856</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="5">
         <v>2</v>
       </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="18">
+      <c r="T7" s="11"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="10">
         <v>44840</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="5">
         <v>2</v>
       </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14" t="s">
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
+      <c r="A8" s="9">
         <v>44783</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="18" t="s">
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="17" t="s">
+      <c r="O8" s="28"/>
+      <c r="P8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="5">
         <v>2</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="5">
         <v>30</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="16">
+      <c r="U8" s="26"/>
+      <c r="V8" s="8">
         <v>44841</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="5">
         <v>2</v>
       </c>
-      <c r="X8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14" t="s">
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="A9" s="9">
         <v>44814</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>40</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="18">
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="10">
         <v>44854</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="5">
         <v>40</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="17">
+      <c r="O9" s="28"/>
+      <c r="P9" s="9">
         <v>44753</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="5">
         <v>2</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="5">
         <v>30</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="16">
+      <c r="U9" s="26"/>
+      <c r="V9" s="8">
         <v>44842</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="5">
         <v>6</v>
       </c>
-      <c r="X9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="14" t="s">
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="20">
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="12">
         <v>44857</v>
       </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>20</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="17">
+      <c r="O10" s="28"/>
+      <c r="P10" s="9">
         <v>44873</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="5">
         <v>1</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="5">
         <v>30</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="16">
+      <c r="U10" s="26"/>
+      <c r="V10" s="8">
         <v>44843</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="5">
         <v>4</v>
       </c>
-      <c r="X10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14" t="s">
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="20">
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="12">
         <v>44859</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14" t="s">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="17">
+      <c r="O11" s="28"/>
+      <c r="P11" s="9">
         <v>44885</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="5">
         <v>2</v>
       </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14" t="s">
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="16" t="s">
+      <c r="U11" s="26"/>
+      <c r="V11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="5">
         <v>1</v>
       </c>
-      <c r="X11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14" t="s">
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="16">
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="8">
         <v>44870</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14" t="s">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="21">
+      <c r="O12" s="28"/>
+      <c r="P12" s="13">
         <v>44887</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="14">
         <v>1</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="14">
         <v>30</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="16" t="s">
+      <c r="U12" s="26"/>
+      <c r="V12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="5">
         <v>1</v>
       </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14" t="s">
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
         <v>18</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="16">
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="8">
         <v>44871</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="24">
+      <c r="O13" s="28"/>
+      <c r="P13" s="16">
         <v>44888</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="17">
         <v>2</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="17">
         <v>30</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="26">
+      <c r="U13" s="26"/>
+      <c r="V13" s="18">
         <v>44891</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="6">
         <v>1</v>
       </c>
-      <c r="X13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14" t="s">
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="5">
         <v>30</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="16">
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="8">
         <v>44872</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="5">
         <v>4</v>
       </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="24">
+      <c r="O14" s="28"/>
+      <c r="P14" s="16">
         <v>44893</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="17">
         <v>2</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="17">
         <v>30</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="14" t="s">
+      <c r="U14" s="26"/>
+      <c r="V14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14">
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
         <v>30</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="5">
         <v>30</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="16">
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="8">
         <v>44881</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="5">
         <v>2</v>
       </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="24">
+      <c r="O15" s="28"/>
+      <c r="P15" s="16">
         <v>44895</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="17">
         <v>2</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="17">
         <v>20</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="16">
+      <c r="U15" s="26"/>
+      <c r="V15" s="8">
         <v>44872</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="5">
         <v>3</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="5">
         <v>30</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Y15" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="16">
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="8">
         <v>44882</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="5">
         <v>1</v>
       </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="27" t="s">
+      <c r="O16" s="28"/>
+      <c r="P16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="20">
         <v>2</v>
       </c>
-      <c r="R16" s="28">
-        <v>0</v>
-      </c>
-      <c r="S16" s="28" t="s">
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="16">
+      <c r="U16" s="26"/>
+      <c r="V16" s="8">
         <v>44873</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="5">
         <v>2</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="5">
         <v>30</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="Y16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="5">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="16">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="8">
         <v>44883</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="13">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="24">
+      <c r="O17" s="28"/>
+      <c r="P17" s="16">
         <v>44902</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="17">
         <v>1</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="17">
         <v>30</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="16">
+      <c r="U17" s="26"/>
+      <c r="V17" s="8">
         <v>44874</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="5">
         <v>5</v>
       </c>
-      <c r="X17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14" t="s">
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="9">
         <v>44893</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="5">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="16">
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="8">
         <v>44884</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="L18" s="13">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14" t="s">
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="24">
-        <v>44914</v>
-      </c>
-      <c r="Q18" s="25">
+      <c r="O18" s="28"/>
+      <c r="P18" s="16">
+        <v>44904</v>
+      </c>
+      <c r="Q18" s="17">
         <v>1</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="17">
         <v>40</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="16">
+      <c r="U18" s="26"/>
+      <c r="V18" s="8">
         <v>44881</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="5">
         <v>2</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="5">
         <v>30</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Y18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>44895</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
         <v>40</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="16">
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="8">
         <v>44888</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="5">
         <v>3</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="5">
         <v>30</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="16">
+      <c r="O19" s="28"/>
+      <c r="P19" s="16">
+        <v>44907</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>3</v>
+      </c>
+      <c r="R19" s="17">
+        <v>0</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="8">
         <v>44886</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="5">
         <v>1</v>
       </c>
-      <c r="X19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="14" t="s">
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
+        <v>44902</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="8">
+        <v>44889</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>30</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="8">
+        <v>44892</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>44896</v>
       </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <v>20</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="16">
-        <v>44889</v>
-      </c>
-      <c r="K20" s="13">
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="8">
+        <v>44893</v>
+      </c>
+      <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L21" s="5">
         <v>30</v>
       </c>
-      <c r="M20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="16">
-        <v>44892</v>
-      </c>
-      <c r="W20" s="13">
+      <c r="M21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="8">
+        <v>44893</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>44905</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="8">
+        <v>44895</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>40</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="8">
+        <v>44894</v>
+      </c>
+      <c r="W22" s="5">
+        <v>4</v>
+      </c>
+      <c r="X22" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>44907</v>
+      </c>
+      <c r="B23" s="5">
         <v>1</v>
       </c>
-      <c r="X20" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="16">
-        <v>44893</v>
-      </c>
-      <c r="K21" s="13">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="8">
+        <v>44896</v>
+      </c>
+      <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L23" s="5">
         <v>30</v>
       </c>
-      <c r="M21" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="16">
-        <v>44893</v>
-      </c>
-      <c r="W21" s="13">
+      <c r="M23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="8">
+        <v>44895</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="8">
+        <v>44897</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24" s="5">
+        <v>20</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="8">
+        <v>44902</v>
+      </c>
+      <c r="W24" s="5">
+        <v>1</v>
+      </c>
+      <c r="X24" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="8">
+        <v>44901</v>
+      </c>
+      <c r="K25" s="5">
         <v>2</v>
       </c>
-      <c r="X21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="16">
-        <v>44895</v>
-      </c>
-      <c r="K22" s="13">
+      <c r="L25" s="5">
+        <v>20</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="8">
+        <v>44903</v>
+      </c>
+      <c r="W25" s="5">
         <v>2</v>
       </c>
-      <c r="L22" s="13">
-        <v>40</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="16">
-        <v>44894</v>
-      </c>
-      <c r="W22" s="13">
-        <v>4</v>
-      </c>
-      <c r="X22" s="13">
+      <c r="X25" s="5">
         <v>30</v>
       </c>
-      <c r="Y22" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="16">
-        <v>44896</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1</v>
-      </c>
-      <c r="L23" s="13">
-        <v>30</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="16">
-        <v>44895</v>
-      </c>
-      <c r="W23" s="13">
-        <v>0</v>
-      </c>
-      <c r="X23" s="13">
-        <v>30</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="16">
-        <v>44897</v>
-      </c>
-      <c r="K24" s="13">
-        <v>5</v>
-      </c>
-      <c r="L24" s="13">
-        <v>20</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="16">
-        <v>44902</v>
-      </c>
-      <c r="W24" s="13">
-        <v>1</v>
-      </c>
-      <c r="X24" s="13">
-        <v>40</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="16">
-        <v>44901</v>
-      </c>
-      <c r="K25" s="13">
-        <v>2</v>
-      </c>
-      <c r="L25" s="13">
-        <v>20</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="16">
-        <v>44903</v>
-      </c>
-      <c r="W25" s="13">
-        <v>2</v>
-      </c>
-      <c r="X25" s="13">
-        <v>30</v>
-      </c>
-      <c r="Y25" s="14" t="s">
+      <c r="Y25" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="14"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I27" s="5"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
+      <c r="I27" s="24"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I28" s="5"/>
-      <c r="J28" s="29"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="14"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="21"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="I29" s="5"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="14"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="24"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="6"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="5"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="14"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="I30" s="24"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="6"/>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="I31" s="5"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="I31" s="24"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="6"/>
     </row>
     <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="I32" s="5"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="14"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="I32" s="24"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="I33" s="5"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="I34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="I35" s="5"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="I36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="I37" s="5"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3608,6 +3678,11 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:I12"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="I13:I37"/>
     <mergeCell ref="Q1:R1"/>
@@ -3620,11 +3695,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="O1:O26"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:I12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03D6E36-1F4B-44BE-BA8B-EC97E22AA39F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DBB257E-5622-4015-922E-99F49E33CBF3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
   <si>
     <t>DATA</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>api + documentazione</t>
+  </si>
+  <si>
+    <t>ore totali</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +439,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FFBF819E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -591,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,37 +671,26 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,6 +705,44 @@
     <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -922,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1007"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q34" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="L34" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -949,71 +985,71 @@
     <col min="26" max="26" width="12.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="30"/>
-      <c r="I1" s="34" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="35"/>
+      <c r="I1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="V1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="W1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1023,35 +1059,35 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="28"/>
+      <c r="M2" s="32"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="4" t="s">
+      <c r="S2" s="32"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="28"/>
-    </row>
-    <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1109,7 @@
       <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="9">
         <v>44833</v>
       </c>
@@ -1086,7 +1122,7 @@
       <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="5">
         <v>44836</v>
       </c>
@@ -1099,21 +1135,21 @@
       <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="31"/>
+      <c r="W3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="22">
         <v>1</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="22">
         <v>30</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1169,7 @@
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="9">
         <v>44839</v>
       </c>
@@ -1146,7 +1182,7 @@
       <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="5">
         <v>44840</v>
       </c>
@@ -1159,21 +1195,21 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="10">
+      <c r="V4" s="31"/>
+      <c r="W4" s="10">
         <v>44602</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="22">
         <v>4</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="22">
         <v>0</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>44571</v>
       </c>
@@ -1195,7 +1231,7 @@
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="9">
         <v>44842</v>
       </c>
@@ -1208,7 +1244,7 @@
       <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="5">
         <v>44842</v>
       </c>
@@ -1221,21 +1257,21 @@
       <c r="S5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="10">
+      <c r="V5" s="31"/>
+      <c r="W5" s="10">
         <v>44630</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="22">
         <v>1</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="22">
         <v>0</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Z5" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>44630</v>
       </c>
@@ -1257,7 +1293,7 @@
       <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="10">
         <v>44843</v>
       </c>
@@ -1270,7 +1306,7 @@
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="42"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="5">
         <v>44843</v>
       </c>
@@ -1283,21 +1319,21 @@
       <c r="S6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="10">
+      <c r="V6" s="31"/>
+      <c r="W6" s="10">
         <v>44661</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="22">
         <v>1</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="22">
         <v>0</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Z6" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>44722</v>
       </c>
@@ -1319,7 +1355,7 @@
       <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="10">
         <v>44844</v>
       </c>
@@ -1332,7 +1368,7 @@
       <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="5">
         <v>44856</v>
       </c>
@@ -1346,21 +1382,21 @@
         <v>29</v>
       </c>
       <c r="T7" s="11"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="10">
+      <c r="V7" s="31"/>
+      <c r="W7" s="10">
         <v>44840</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="22">
         <v>2</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="22">
         <v>0</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Z7" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>44783</v>
       </c>
@@ -1382,7 +1418,7 @@
       <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1431,7 @@
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="42"/>
+      <c r="O8" s="39"/>
       <c r="P8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1408,21 +1444,21 @@
       <c r="S8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="9">
+      <c r="V8" s="31"/>
+      <c r="W8" s="21">
         <v>44841</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="22">
         <v>2</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="22">
         <v>0</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Z8" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>44814</v>
       </c>
@@ -1444,7 +1480,7 @@
       <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="10">
         <v>44854</v>
       </c>
@@ -1457,7 +1493,7 @@
       <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="42"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="5">
         <v>44753</v>
       </c>
@@ -1470,21 +1506,21 @@
       <c r="S9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="9">
+      <c r="V9" s="31"/>
+      <c r="W9" s="21">
         <v>44842</v>
       </c>
-      <c r="W9" s="6">
+      <c r="X9" s="22">
         <v>6</v>
       </c>
-      <c r="X9" s="6">
+      <c r="Y9" s="22">
         <v>0</v>
       </c>
-      <c r="Y9" s="7" t="s">
+      <c r="Z9" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1506,7 +1542,7 @@
       <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="12">
         <v>44857</v>
       </c>
@@ -1519,7 +1555,7 @@
       <c r="M10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="42"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="5">
         <v>44873</v>
       </c>
@@ -1532,21 +1568,21 @@
       <c r="S10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="35"/>
-      <c r="V10" s="9">
+      <c r="V10" s="31"/>
+      <c r="W10" s="21">
         <v>44843</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="22">
         <v>4</v>
       </c>
-      <c r="X10" s="6">
+      <c r="Y10" s="22">
         <v>0</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Z10" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1568,7 +1604,7 @@
       <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="12">
         <v>44859</v>
       </c>
@@ -1581,7 +1617,7 @@
       <c r="M11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="42"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="5">
         <v>44885</v>
       </c>
@@ -1594,21 +1630,21 @@
       <c r="S11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="31"/>
+      <c r="W11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="22">
         <v>1</v>
       </c>
-      <c r="X11" s="6">
+      <c r="Y11" s="22">
         <v>0</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -1630,7 +1666,7 @@
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="9">
         <v>44870</v>
       </c>
@@ -1643,7 +1679,7 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="42"/>
+      <c r="O12" s="39"/>
       <c r="P12" s="13">
         <v>44887</v>
       </c>
@@ -1656,21 +1692,21 @@
       <c r="S12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="35"/>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="31"/>
+      <c r="W12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="22">
         <v>1</v>
       </c>
-      <c r="X12" s="6">
+      <c r="Y12" s="22">
         <v>0</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Z12" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -1690,7 +1726,7 @@
       <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="9">
         <v>44871</v>
       </c>
@@ -1703,7 +1739,7 @@
       <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="42"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="16">
         <v>44888</v>
       </c>
@@ -1716,21 +1752,21 @@
       <c r="S13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="35"/>
-      <c r="V13" s="18">
+      <c r="V13" s="31"/>
+      <c r="W13" s="18">
         <v>44891</v>
       </c>
-      <c r="W13" s="7">
+      <c r="X13" s="23">
         <v>1</v>
       </c>
-      <c r="X13" s="7">
+      <c r="Y13" s="23">
         <v>0</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Z13" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -1752,7 +1788,7 @@
       <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="9">
         <v>44872</v>
       </c>
@@ -1765,7 +1801,7 @@
       <c r="M14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="42"/>
+      <c r="O14" s="39"/>
       <c r="P14" s="16">
         <v>44893</v>
       </c>
@@ -1778,21 +1814,21 @@
       <c r="S14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="35"/>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="31"/>
+      <c r="W14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="W14" s="7">
+      <c r="X14" s="23">
         <v>0</v>
       </c>
-      <c r="X14" s="7">
+      <c r="Y14" s="23">
         <v>30</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Z14" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -1814,7 +1850,7 @@
       <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="9">
         <v>44881</v>
       </c>
@@ -1827,7 +1863,7 @@
       <c r="M15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="42"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="16">
         <v>44895</v>
       </c>
@@ -1840,21 +1876,21 @@
       <c r="S15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="9">
+      <c r="V15" s="31"/>
+      <c r="W15" s="21">
         <v>44872</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="22">
         <v>3</v>
       </c>
-      <c r="X15" s="6">
+      <c r="Y15" s="22">
         <v>30</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Z15" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -1876,7 +1912,7 @@
       <c r="G16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="9">
         <v>44882</v>
       </c>
@@ -1889,7 +1925,7 @@
       <c r="M16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="42"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="19" t="s">
         <v>68</v>
       </c>
@@ -1902,21 +1938,21 @@
       <c r="S16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="35"/>
-      <c r="V16" s="9">
+      <c r="V16" s="31"/>
+      <c r="W16" s="21">
         <v>44873</v>
       </c>
-      <c r="W16" s="6">
+      <c r="X16" s="22">
         <v>2</v>
       </c>
-      <c r="X16" s="6">
+      <c r="Y16" s="22">
         <v>30</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Z16" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1938,7 +1974,7 @@
       <c r="G17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="9">
         <v>44883</v>
       </c>
@@ -1951,7 +1987,7 @@
       <c r="M17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="42"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="16">
         <v>44902</v>
       </c>
@@ -1964,21 +2000,21 @@
       <c r="S17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="35"/>
-      <c r="V17" s="9">
+      <c r="V17" s="31"/>
+      <c r="W17" s="21">
         <v>44874</v>
       </c>
-      <c r="W17" s="6">
+      <c r="X17" s="22">
         <v>5</v>
       </c>
-      <c r="X17" s="6">
+      <c r="Y17" s="22">
         <v>0</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Z17" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>44893</v>
       </c>
@@ -2000,7 +2036,7 @@
       <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="9">
         <v>44884</v>
       </c>
@@ -2013,7 +2049,7 @@
       <c r="M18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="42"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="16">
         <v>44904</v>
       </c>
@@ -2026,21 +2062,21 @@
       <c r="S18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="35"/>
-      <c r="V18" s="9">
+      <c r="V18" s="31"/>
+      <c r="W18" s="21">
         <v>44881</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="22">
         <v>2</v>
       </c>
-      <c r="X18" s="6">
+      <c r="Y18" s="22">
         <v>30</v>
       </c>
-      <c r="Y18" s="7" t="s">
+      <c r="Z18" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>44895</v>
       </c>
@@ -2062,7 +2098,7 @@
       <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="9">
         <v>44888</v>
       </c>
@@ -2075,7 +2111,7 @@
       <c r="M19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="42"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="16">
         <v>44907</v>
       </c>
@@ -2088,21 +2124,21 @@
       <c r="S19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="35"/>
-      <c r="V19" s="9">
+      <c r="V19" s="31"/>
+      <c r="W19" s="21">
         <v>44886</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="22">
         <v>1</v>
       </c>
-      <c r="X19" s="6">
+      <c r="Y19" s="22">
         <v>0</v>
       </c>
-      <c r="Y19" s="7" t="s">
+      <c r="Z19" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>44902</v>
       </c>
@@ -2124,7 +2160,7 @@
       <c r="G20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="9">
         <v>44889</v>
       </c>
@@ -2137,7 +2173,7 @@
       <c r="M20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="42"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="16">
         <v>44911</v>
       </c>
@@ -2150,21 +2186,21 @@
       <c r="S20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="U20" s="35"/>
-      <c r="V20" s="9">
+      <c r="V20" s="31"/>
+      <c r="W20" s="21">
         <v>44892</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="22">
         <v>1</v>
       </c>
-      <c r="X20" s="6">
+      <c r="Y20" s="22">
         <v>0</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Z20" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>44896</v>
       </c>
@@ -2186,7 +2222,7 @@
       <c r="G21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="9">
         <v>44893</v>
       </c>
@@ -2199,7 +2235,7 @@
       <c r="M21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="42"/>
+      <c r="O21" s="39"/>
       <c r="P21" s="16">
         <v>44914</v>
       </c>
@@ -2212,21 +2248,21 @@
       <c r="S21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="U21" s="35"/>
-      <c r="V21" s="9">
+      <c r="V21" s="31"/>
+      <c r="W21" s="21">
         <v>44893</v>
       </c>
-      <c r="W21" s="6">
+      <c r="X21" s="22">
         <v>2</v>
       </c>
-      <c r="X21" s="6">
+      <c r="Y21" s="22">
         <v>0</v>
       </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Z21" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>44905</v>
       </c>
@@ -2248,7 +2284,7 @@
       <c r="G22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="9">
         <v>44895</v>
       </c>
@@ -2261,26 +2297,26 @@
       <c r="M22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="42"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="9">
+      <c r="V22" s="31"/>
+      <c r="W22" s="21">
         <v>44894</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="22">
         <v>4</v>
       </c>
-      <c r="X22" s="6">
+      <c r="Y22" s="22">
         <v>30</v>
       </c>
-      <c r="Y22" s="7" t="s">
+      <c r="Z22" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>44907</v>
       </c>
@@ -2302,7 +2338,7 @@
       <c r="G23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="9">
         <v>44896</v>
       </c>
@@ -2315,26 +2351,26 @@
       <c r="M23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="42"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="9">
+      <c r="V23" s="31"/>
+      <c r="W23" s="21">
         <v>44895</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="22">
         <v>0</v>
       </c>
-      <c r="X23" s="6">
+      <c r="Y23" s="22">
         <v>30</v>
       </c>
-      <c r="Y23" s="7" t="s">
+      <c r="Z23" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2342,7 +2378,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="9">
         <v>44897</v>
       </c>
@@ -2355,26 +2391,26 @@
       <c r="M24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="42"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="9">
+      <c r="V24" s="31"/>
+      <c r="W24" s="21">
         <v>44902</v>
       </c>
-      <c r="W24" s="6">
+      <c r="X24" s="22">
         <v>1</v>
       </c>
-      <c r="X24" s="6">
+      <c r="Y24" s="22">
         <v>40</v>
       </c>
-      <c r="Y24" s="7" t="s">
+      <c r="Z24" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2382,7 +2418,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="9">
         <v>44901</v>
       </c>
@@ -2395,26 +2431,26 @@
       <c r="M25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="42"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="9">
+      <c r="V25" s="31"/>
+      <c r="W25" s="21">
         <v>44903</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="22">
         <v>2</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Y25" s="22">
         <v>30</v>
       </c>
-      <c r="Y25" s="7" t="s">
+      <c r="Z25" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2422,7 +2458,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="21">
         <v>44902</v>
       </c>
@@ -2435,18 +2471,18 @@
       <c r="M26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="42"/>
+      <c r="O26" s="39"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V26" s="31"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="23"/>
+    </row>
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2454,7 +2490,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="21">
         <v>44903</v>
       </c>
@@ -2467,18 +2503,18 @@
       <c r="M27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="42"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="7"/>
-    </row>
-    <row r="28" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V27" s="31"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="23"/>
+    </row>
+    <row r="28" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2486,7 +2522,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="21">
         <v>44904</v>
       </c>
@@ -2499,18 +2535,18 @@
       <c r="M28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O28" s="42"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V28" s="31"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="23"/>
+    </row>
+    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2518,7 +2554,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="21">
         <v>44905</v>
       </c>
@@ -2531,18 +2567,18 @@
       <c r="M29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="42"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="7"/>
-    </row>
-    <row r="30" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V29" s="31"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="23"/>
+    </row>
+    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2550,7 +2586,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="I30" s="35"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="21">
         <v>44907</v>
       </c>
@@ -2563,18 +2599,18 @@
       <c r="M30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="42"/>
+      <c r="O30" s="39"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="7"/>
-    </row>
-    <row r="31" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V30" s="31"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="23"/>
+    </row>
+    <row r="31" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2582,7 +2618,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="I31" s="35"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="21">
         <v>44910</v>
       </c>
@@ -2595,18 +2631,18 @@
       <c r="M31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O31" s="42"/>
+      <c r="O31" s="39"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="32" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V31" s="31"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="23"/>
+    </row>
+    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2614,7 +2650,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="35"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="21">
         <v>44911</v>
       </c>
@@ -2627,18 +2663,18 @@
       <c r="M32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O32" s="42"/>
+      <c r="O32" s="39"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V32" s="31"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="23"/>
+    </row>
+    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2646,313 +2682,372 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="I33" s="35"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="9"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="O33" s="43"/>
+      <c r="O33" s="40"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="9">
+      <c r="V33" s="31"/>
+      <c r="W33" s="21">
         <v>44907</v>
       </c>
-      <c r="W33" s="6">
+      <c r="X33" s="22">
         <v>1</v>
       </c>
-      <c r="X33" s="6">
+      <c r="Y33" s="22">
         <v>50</v>
       </c>
-      <c r="Y33" s="7" t="s">
+      <c r="Z33" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="24"/>
-      <c r="I34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
-      <c r="I35" s="35"/>
+      <c r="B34">
+        <f>SUM(B3:B33)</f>
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <f>(SUM(C3:C33)/60)</f>
+        <v>5.8</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+    </row>
+    <row r="35" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="52"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="25"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="7"/>
-    </row>
-    <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="I36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="7"/>
-    </row>
-    <row r="37" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="I37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="7"/>
-    </row>
-    <row r="38" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="I38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="7"/>
-    </row>
-    <row r="39" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="I39" s="35"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="7"/>
-    </row>
-    <row r="40" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="I44" s="28"/>
-    </row>
-    <row r="45" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-    </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V35" s="31"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="23"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="23"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="23"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="23"/>
+    </row>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="31"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="23"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
+    </row>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="51"/>
+    </row>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="46"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="51"/>
+    </row>
+    <row r="50" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="46"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="51"/>
+    </row>
+    <row r="51" spans="1:23" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="57">
+        <f>SUM(K3:K44,B34,C34)+(SUM(L3:L44)/60)</f>
+        <v>83.633333333333326</v>
+      </c>
+      <c r="P51" s="57">
+        <f>SUM(Q3:Q44,B34,C34)+(SUM(R3:R44)/60)</f>
+        <v>74.133333333333326</v>
+      </c>
+      <c r="W51" s="57">
+        <f>SUM(X3:X44,B34,C34)+(SUM(Y3:Y44)/60)</f>
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="46"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="51"/>
+    </row>
+    <row r="53" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="46"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="51"/>
+    </row>
+    <row r="54" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="46"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="51"/>
+    </row>
+    <row r="55" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="46"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="51"/>
+    </row>
+    <row r="56" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="46"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="51"/>
+    </row>
+    <row r="57" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="46"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="51"/>
+    </row>
+    <row r="58" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="46"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="51"/>
+    </row>
+    <row r="59" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="46"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="51"/>
+    </row>
+    <row r="60" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="46"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="51"/>
+    </row>
+    <row r="61" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="52"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24"/>
     </row>
     <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5785,24 +5880,21 @@
       <c r="A1007" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="I13:I44"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="O1:O33"/>
-    <mergeCell ref="U1:U39"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:I12"/>
+    <mergeCell ref="I13:I44"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="O1:O33"/>
+    <mergeCell ref="V1:V39"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DBB257E-5622-4015-922E-99F49E33CBF3}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA3DBF6-8B00-4384-B014-EA0F229E9C86}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t>DATA</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>ore totali</t>
+  </si>
+  <si>
+    <t>api + user flow</t>
+  </si>
+  <si>
+    <t>user flow</t>
   </si>
 </sst>
 </file>
@@ -679,42 +685,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,6 +713,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -960,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L34" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -989,45 +995,45 @@
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="35"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="57" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="29" t="s">
@@ -1042,14 +1048,14 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1059,25 +1065,25 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="32"/>
+      <c r="M2" s="43"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="V2" s="31"/>
+      <c r="S2" s="43"/>
+      <c r="V2" s="50"/>
       <c r="W2" s="26"/>
       <c r="X2" s="4" t="s">
         <v>7</v>
@@ -1109,7 +1115,7 @@
       <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="9">
         <v>44833</v>
       </c>
@@ -1122,7 +1128,7 @@
       <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="39"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="5">
         <v>44836</v>
       </c>
@@ -1135,7 +1141,7 @@
       <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="31"/>
+      <c r="V3" s="50"/>
       <c r="W3" s="22" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1175,7 @@
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="9">
         <v>44839</v>
       </c>
@@ -1182,7 +1188,7 @@
       <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="39"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="5">
         <v>44840</v>
       </c>
@@ -1195,7 +1201,7 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="31"/>
+      <c r="V4" s="50"/>
       <c r="W4" s="10">
         <v>44602</v>
       </c>
@@ -1231,7 +1237,7 @@
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="9">
         <v>44842</v>
       </c>
@@ -1244,7 +1250,7 @@
       <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="55"/>
       <c r="P5" s="5">
         <v>44842</v>
       </c>
@@ -1257,7 +1263,7 @@
       <c r="S5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="31"/>
+      <c r="V5" s="50"/>
       <c r="W5" s="10">
         <v>44630</v>
       </c>
@@ -1293,7 +1299,7 @@
       <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="10">
         <v>44843</v>
       </c>
@@ -1306,7 +1312,7 @@
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="55"/>
       <c r="P6" s="5">
         <v>44843</v>
       </c>
@@ -1319,7 +1325,7 @@
       <c r="S6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="31"/>
+      <c r="V6" s="50"/>
       <c r="W6" s="10">
         <v>44661</v>
       </c>
@@ -1355,7 +1361,7 @@
       <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="10">
         <v>44844</v>
       </c>
@@ -1368,7 +1374,7 @@
       <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="39"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="5">
         <v>44856</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>29</v>
       </c>
       <c r="T7" s="11"/>
-      <c r="V7" s="31"/>
+      <c r="V7" s="50"/>
       <c r="W7" s="10">
         <v>44840</v>
       </c>
@@ -1418,7 +1424,7 @@
       <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1431,7 +1437,7 @@
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +1450,7 @@
       <c r="S8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="31"/>
+      <c r="V8" s="50"/>
       <c r="W8" s="21">
         <v>44841</v>
       </c>
@@ -1480,7 +1486,7 @@
       <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="10">
         <v>44854</v>
       </c>
@@ -1493,7 +1499,7 @@
       <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="5">
         <v>44753</v>
       </c>
@@ -1506,7 +1512,7 @@
       <c r="S9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="31"/>
+      <c r="V9" s="50"/>
       <c r="W9" s="21">
         <v>44842</v>
       </c>
@@ -1542,7 +1548,7 @@
       <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="12">
         <v>44857</v>
       </c>
@@ -1555,7 +1561,7 @@
       <c r="M10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="5">
         <v>44873</v>
       </c>
@@ -1568,7 +1574,7 @@
       <c r="S10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="31"/>
+      <c r="V10" s="50"/>
       <c r="W10" s="21">
         <v>44843</v>
       </c>
@@ -1604,7 +1610,7 @@
       <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="12">
         <v>44859</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="M11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="39"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="5">
         <v>44885</v>
       </c>
@@ -1630,7 +1636,7 @@
       <c r="S11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="31"/>
+      <c r="V11" s="50"/>
       <c r="W11" s="21" t="s">
         <v>45</v>
       </c>
@@ -1666,7 +1672,7 @@
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="9">
         <v>44870</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="13">
         <v>44887</v>
       </c>
@@ -1692,7 +1698,7 @@
       <c r="S12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="31"/>
+      <c r="V12" s="50"/>
       <c r="W12" s="21" t="s">
         <v>50</v>
       </c>
@@ -1726,7 +1732,7 @@
       <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="9">
         <v>44871</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="16">
         <v>44888</v>
       </c>
@@ -1752,7 +1758,7 @@
       <c r="S13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V13" s="31"/>
+      <c r="V13" s="50"/>
       <c r="W13" s="18">
         <v>44891</v>
       </c>
@@ -1788,7 +1794,7 @@
       <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="9">
         <v>44872</v>
       </c>
@@ -1801,7 +1807,7 @@
       <c r="M14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="39"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="16">
         <v>44893</v>
       </c>
@@ -1814,7 +1820,7 @@
       <c r="S14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="31"/>
+      <c r="V14" s="50"/>
       <c r="W14" s="23" t="s">
         <v>59</v>
       </c>
@@ -1850,7 +1856,7 @@
       <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="9">
         <v>44881</v>
       </c>
@@ -1863,7 +1869,7 @@
       <c r="M15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="55"/>
       <c r="P15" s="16">
         <v>44895</v>
       </c>
@@ -1876,7 +1882,7 @@
       <c r="S15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="31"/>
+      <c r="V15" s="50"/>
       <c r="W15" s="21">
         <v>44872</v>
       </c>
@@ -1912,7 +1918,7 @@
       <c r="G16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="9">
         <v>44882</v>
       </c>
@@ -1925,7 +1931,7 @@
       <c r="M16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="19" t="s">
         <v>68</v>
       </c>
@@ -1938,7 +1944,7 @@
       <c r="S16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="31"/>
+      <c r="V16" s="50"/>
       <c r="W16" s="21">
         <v>44873</v>
       </c>
@@ -1974,7 +1980,7 @@
       <c r="G17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="9">
         <v>44883</v>
       </c>
@@ -1987,7 +1993,7 @@
       <c r="M17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="39"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="16">
         <v>44902</v>
       </c>
@@ -2000,7 +2006,7 @@
       <c r="S17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V17" s="31"/>
+      <c r="V17" s="50"/>
       <c r="W17" s="21">
         <v>44874</v>
       </c>
@@ -2036,7 +2042,7 @@
       <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="9">
         <v>44884</v>
       </c>
@@ -2049,7 +2055,7 @@
       <c r="M18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="39"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="16">
         <v>44904</v>
       </c>
@@ -2062,7 +2068,7 @@
       <c r="S18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V18" s="31"/>
+      <c r="V18" s="50"/>
       <c r="W18" s="21">
         <v>44881</v>
       </c>
@@ -2098,7 +2104,7 @@
       <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="50"/>
       <c r="J19" s="9">
         <v>44888</v>
       </c>
@@ -2111,7 +2117,7 @@
       <c r="M19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="16">
         <v>44907</v>
       </c>
@@ -2124,7 +2130,7 @@
       <c r="S19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="31"/>
+      <c r="V19" s="50"/>
       <c r="W19" s="21">
         <v>44886</v>
       </c>
@@ -2160,7 +2166,7 @@
       <c r="G20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="9">
         <v>44889</v>
       </c>
@@ -2173,7 +2179,7 @@
       <c r="M20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="39"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="16">
         <v>44911</v>
       </c>
@@ -2186,7 +2192,7 @@
       <c r="S20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V20" s="31"/>
+      <c r="V20" s="50"/>
       <c r="W20" s="21">
         <v>44892</v>
       </c>
@@ -2222,7 +2228,7 @@
       <c r="G21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="9">
         <v>44893</v>
       </c>
@@ -2235,7 +2241,7 @@
       <c r="M21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="39"/>
+      <c r="O21" s="55"/>
       <c r="P21" s="16">
         <v>44914</v>
       </c>
@@ -2248,7 +2254,7 @@
       <c r="S21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="V21" s="31"/>
+      <c r="V21" s="50"/>
       <c r="W21" s="21">
         <v>44893</v>
       </c>
@@ -2284,7 +2290,7 @@
       <c r="G22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="9">
         <v>44895</v>
       </c>
@@ -2297,12 +2303,20 @@
       <c r="M22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="V22" s="31"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="16">
+        <v>44915</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>3</v>
+      </c>
+      <c r="R22" s="17">
+        <v>40</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="V22" s="50"/>
       <c r="W22" s="21">
         <v>44894</v>
       </c>
@@ -2338,7 +2352,7 @@
       <c r="G23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="9">
         <v>44896</v>
       </c>
@@ -2351,12 +2365,20 @@
       <c r="M23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="V23" s="31"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="16">
+        <v>44916</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>20</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="V23" s="50"/>
       <c r="W23" s="21">
         <v>44895</v>
       </c>
@@ -2378,7 +2400,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="I24" s="31"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="9">
         <v>44897</v>
       </c>
@@ -2391,12 +2413,20 @@
       <c r="M24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="V24" s="31"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="16">
+        <v>44917</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>4</v>
+      </c>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="50"/>
       <c r="W24" s="21">
         <v>44902</v>
       </c>
@@ -2418,7 +2448,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="9">
         <v>44901</v>
       </c>
@@ -2431,12 +2461,12 @@
       <c r="M25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="39"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="V25" s="31"/>
+      <c r="V25" s="50"/>
       <c r="W25" s="21">
         <v>44903</v>
       </c>
@@ -2458,7 +2488,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="21">
         <v>44902</v>
       </c>
@@ -2471,12 +2501,12 @@
       <c r="M26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="39"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="V26" s="31"/>
+      <c r="V26" s="50"/>
       <c r="W26" s="21"/>
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
@@ -2490,7 +2520,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="21">
         <v>44903</v>
       </c>
@@ -2503,12 +2533,12 @@
       <c r="M27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="39"/>
+      <c r="O27" s="55"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="V27" s="31"/>
+      <c r="V27" s="50"/>
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
@@ -2522,7 +2552,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="I28" s="31"/>
+      <c r="I28" s="50"/>
       <c r="J28" s="21">
         <v>44904</v>
       </c>
@@ -2535,12 +2565,12 @@
       <c r="M28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O28" s="39"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="V28" s="31"/>
+      <c r="V28" s="50"/>
       <c r="W28" s="21"/>
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
@@ -2554,7 +2584,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="I29" s="31"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="21">
         <v>44905</v>
       </c>
@@ -2567,12 +2597,12 @@
       <c r="M29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="39"/>
+      <c r="O29" s="55"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="V29" s="31"/>
+      <c r="V29" s="50"/>
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
@@ -2586,7 +2616,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="I30" s="31"/>
+      <c r="I30" s="50"/>
       <c r="J30" s="21">
         <v>44907</v>
       </c>
@@ -2599,12 +2629,12 @@
       <c r="M30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="39"/>
+      <c r="O30" s="55"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="V30" s="31"/>
+      <c r="V30" s="50"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
       <c r="Y30" s="22"/>
@@ -2618,7 +2648,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="I31" s="31"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="21">
         <v>44910</v>
       </c>
@@ -2631,12 +2661,12 @@
       <c r="M31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O31" s="39"/>
+      <c r="O31" s="55"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="V31" s="31"/>
+      <c r="V31" s="50"/>
       <c r="W31" s="21"/>
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
@@ -2650,7 +2680,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="31"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="21">
         <v>44911</v>
       </c>
@@ -2663,12 +2693,12 @@
       <c r="M32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O32" s="39"/>
+      <c r="O32" s="55"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="V32" s="31"/>
+      <c r="V32" s="50"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
@@ -2682,17 +2712,17 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="I33" s="31"/>
+      <c r="I33" s="50"/>
       <c r="J33" s="9"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="O33" s="40"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="V33" s="31"/>
+      <c r="V33" s="50"/>
       <c r="W33" s="21">
         <v>44907</v>
       </c>
@@ -2716,330 +2746,330 @@
         <f>(SUM(C3:C33)/60)</f>
         <v>5.8</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="V34" s="31"/>
+      <c r="I34" s="50"/>
+      <c r="V34" s="50"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
     </row>
     <row r="35" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="I35" s="31"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="I35" s="50"/>
       <c r="J35" s="25"/>
-      <c r="V35" s="31"/>
+      <c r="V35" s="50"/>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
       <c r="Z35" s="23"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="31"/>
-      <c r="V36" s="31"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="50"/>
+      <c r="V36" s="50"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="31"/>
-      <c r="V37" s="31"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="50"/>
+      <c r="V37" s="50"/>
       <c r="W37" s="21"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
       <c r="Z37" s="23"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="31"/>
-      <c r="V38" s="31"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="50"/>
+      <c r="V38" s="50"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="23"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="31"/>
-      <c r="V39" s="32"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="50"/>
+      <c r="V39" s="43"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="31"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="50"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="31"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="50"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="31"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="31"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="32"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="43"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="51"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="51"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="51"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="51"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="51"/>
-    </row>
-    <row r="51" spans="1:23" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="56" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:23" s="41" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="J51" s="57">
+      <c r="J51" s="41">
         <f>SUM(K3:K44,B34,C34)+(SUM(L3:L44)/60)</f>
         <v>83.633333333333326</v>
       </c>
-      <c r="P51" s="57">
+      <c r="P51" s="41">
         <f>SUM(Q3:Q44,B34,C34)+(SUM(R3:R44)/60)</f>
-        <v>74.133333333333326</v>
-      </c>
-      <c r="W51" s="57">
+        <v>82.133333333333326</v>
+      </c>
+      <c r="W51" s="41">
         <f>SUM(X3:X44,B34,C34)+(SUM(Y3:Y44)/60)</f>
         <v>83.3</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="51"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="51"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="46"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="51"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="46"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="51"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="51"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="46"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="51"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="51"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="51"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="51"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24"/>
@@ -5881,20 +5911,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="O1:O33"/>
+    <mergeCell ref="V1:V39"/>
+    <mergeCell ref="I13:I44"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:I12"/>
-    <mergeCell ref="I13:I44"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="O1:O33"/>
-    <mergeCell ref="V1:V39"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA3DBF6-8B00-4384-B014-EA0F229E9C86}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CBCF566-C747-4157-BE75-3FCD03543AAC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
   <si>
     <t>DATA</t>
   </si>
@@ -340,7 +340,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -372,6 +372,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -606,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,34 +720,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -749,6 +736,27 @@
     <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -966,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -992,48 +1000,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="45"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="43"/>
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="51" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="53" t="s">
+      <c r="P1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="49" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="29" t="s">
@@ -1048,14 +1056,14 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1066,23 +1074,23 @@
         <v>11</v>
       </c>
       <c r="I2" s="50"/>
-      <c r="J2" s="43"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="43"/>
+      <c r="M2" s="45"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="45"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="43"/>
+      <c r="S2" s="45"/>
       <c r="V2" s="50"/>
       <c r="W2" s="26"/>
       <c r="X2" s="4" t="s">
@@ -1128,7 +1136,7 @@
       <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="55"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="5">
         <v>44836</v>
       </c>
@@ -1188,7 +1196,7 @@
       <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="55"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="5">
         <v>44840</v>
       </c>
@@ -1250,7 +1258,7 @@
       <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="55"/>
+      <c r="O5" s="47"/>
       <c r="P5" s="5">
         <v>44842</v>
       </c>
@@ -1312,7 +1320,7 @@
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="55"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="5">
         <v>44843</v>
       </c>
@@ -1374,7 +1382,7 @@
       <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="55"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="5">
         <v>44856</v>
       </c>
@@ -1437,7 +1445,7 @@
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="55"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1499,7 +1507,7 @@
       <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="5">
         <v>44753</v>
       </c>
@@ -1561,7 +1569,7 @@
       <c r="M10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="55"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="5">
         <v>44873</v>
       </c>
@@ -1623,7 +1631,7 @@
       <c r="M11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="55"/>
+      <c r="O11" s="47"/>
       <c r="P11" s="5">
         <v>44885</v>
       </c>
@@ -1672,7 +1680,7 @@
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="9">
         <v>44870</v>
       </c>
@@ -1685,7 +1693,7 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="55"/>
+      <c r="O12" s="47"/>
       <c r="P12" s="13">
         <v>44887</v>
       </c>
@@ -1732,7 +1740,7 @@
       <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="9">
         <v>44871</v>
       </c>
@@ -1745,7 +1753,7 @@
       <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="55"/>
+      <c r="O13" s="47"/>
       <c r="P13" s="16">
         <v>44888</v>
       </c>
@@ -1807,7 +1815,7 @@
       <c r="M14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="55"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="16">
         <v>44893</v>
       </c>
@@ -1869,7 +1877,7 @@
       <c r="M15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="55"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="16">
         <v>44895</v>
       </c>
@@ -1931,7 +1939,7 @@
       <c r="M16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="55"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="19" t="s">
         <v>68</v>
       </c>
@@ -1993,7 +2001,7 @@
       <c r="M17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="55"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="16">
         <v>44902</v>
       </c>
@@ -2055,7 +2063,7 @@
       <c r="M18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="55"/>
+      <c r="O18" s="47"/>
       <c r="P18" s="16">
         <v>44904</v>
       </c>
@@ -2117,7 +2125,7 @@
       <c r="M19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="55"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="16">
         <v>44907</v>
       </c>
@@ -2179,7 +2187,7 @@
       <c r="M20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="55"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="16">
         <v>44911</v>
       </c>
@@ -2241,7 +2249,7 @@
       <c r="M21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="55"/>
+      <c r="O21" s="47"/>
       <c r="P21" s="16">
         <v>44914</v>
       </c>
@@ -2303,7 +2311,7 @@
       <c r="M22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="55"/>
+      <c r="O22" s="47"/>
       <c r="P22" s="16">
         <v>44915</v>
       </c>
@@ -2365,7 +2373,7 @@
       <c r="M23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="55"/>
+      <c r="O23" s="47"/>
       <c r="P23" s="16">
         <v>44916</v>
       </c>
@@ -2413,7 +2421,7 @@
       <c r="M24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="55"/>
+      <c r="O24" s="47"/>
       <c r="P24" s="16">
         <v>44917</v>
       </c>
@@ -2461,11 +2469,19 @@
       <c r="M25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="55"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="16">
+        <v>44918</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>1</v>
+      </c>
+      <c r="R25" s="17">
+        <v>0</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="V25" s="50"/>
       <c r="W25" s="21">
         <v>44903</v>
@@ -2501,11 +2517,20 @@
       <c r="M26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="16">
+        <v>44919</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>3</v>
+      </c>
+      <c r="R26" s="17">
+        <v>10</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T26" s="58"/>
       <c r="V26" s="50"/>
       <c r="W26" s="21"/>
       <c r="X26" s="22"/>
@@ -2533,7 +2558,7 @@
       <c r="M27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="55"/>
+      <c r="O27" s="47"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
@@ -2565,7 +2590,7 @@
       <c r="M28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O28" s="55"/>
+      <c r="O28" s="47"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
@@ -2597,7 +2622,7 @@
       <c r="M29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="55"/>
+      <c r="O29" s="47"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
@@ -2629,7 +2654,7 @@
       <c r="M30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="55"/>
+      <c r="O30" s="47"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
@@ -2661,7 +2686,7 @@
       <c r="M31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O31" s="55"/>
+      <c r="O31" s="47"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
@@ -2693,7 +2718,7 @@
       <c r="M32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O32" s="55"/>
+      <c r="O32" s="47"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
@@ -2717,7 +2742,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="O33" s="56"/>
+      <c r="O33" s="48"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
@@ -2827,7 +2852,7 @@
       <c r="G39" s="33"/>
       <c r="H39" s="35"/>
       <c r="I39" s="50"/>
-      <c r="V39" s="43"/>
+      <c r="V39" s="45"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
@@ -2886,7 +2911,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="35"/>
-      <c r="I44" s="43"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
@@ -2965,7 +2990,7 @@
       </c>
       <c r="P51" s="41">
         <f>SUM(Q3:Q44,B34,C34)+(SUM(R3:R44)/60)</f>
-        <v>82.133333333333326</v>
+        <v>86.3</v>
       </c>
       <c r="W51" s="41">
         <f>SUM(X3:X44,B34,C34)+(SUM(Y3:Y44)/60)</f>
@@ -5911,6 +5936,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:I12"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="O1:O33"/>
@@ -5920,11 +5950,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:I12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CBCF566-C747-4157-BE75-3FCD03543AAC}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_B795240B6084682CA09223C34CFB1F38977FE617" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF9BF89D-82EC-4723-850F-BB65960A391B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>DATA</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>user flow</t>
+  </si>
+  <si>
+    <t>aggiornamenti svilupp0</t>
   </si>
 </sst>
 </file>
@@ -720,14 +723,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -736,27 +757,9 @@
     <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -974,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1000,48 +1003,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="43"/>
-      <c r="I1" s="51" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="52" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="57" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="29" t="s">
@@ -1056,14 +1059,14 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1073,25 +1076,25 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="45"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="45"/>
+      <c r="M2" s="44"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="44"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="V2" s="50"/>
+      <c r="S2" s="44"/>
+      <c r="V2" s="51"/>
       <c r="W2" s="26"/>
       <c r="X2" s="4" t="s">
         <v>7</v>
@@ -1123,7 +1126,7 @@
       <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="9">
         <v>44833</v>
       </c>
@@ -1136,7 +1139,7 @@
       <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="5">
         <v>44836</v>
       </c>
@@ -1149,7 +1152,7 @@
       <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="50"/>
+      <c r="V3" s="51"/>
       <c r="W3" s="22" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="9">
         <v>44839</v>
       </c>
@@ -1196,7 +1199,7 @@
       <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="47"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="5">
         <v>44840</v>
       </c>
@@ -1209,7 +1212,7 @@
       <c r="S4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="50"/>
+      <c r="V4" s="51"/>
       <c r="W4" s="10">
         <v>44602</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="9">
         <v>44842</v>
       </c>
@@ -1258,7 +1261,7 @@
       <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="47"/>
+      <c r="O5" s="55"/>
       <c r="P5" s="5">
         <v>44842</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="S5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="50"/>
+      <c r="V5" s="51"/>
       <c r="W5" s="10">
         <v>44630</v>
       </c>
@@ -1307,7 +1310,7 @@
       <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="10">
         <v>44843</v>
       </c>
@@ -1320,7 +1323,7 @@
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="55"/>
       <c r="P6" s="5">
         <v>44843</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="S6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="50"/>
+      <c r="V6" s="51"/>
       <c r="W6" s="10">
         <v>44661</v>
       </c>
@@ -1369,7 +1372,7 @@
       <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="10">
         <v>44844</v>
       </c>
@@ -1382,7 +1385,7 @@
       <c r="M7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="5">
         <v>44856</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="T7" s="11"/>
-      <c r="V7" s="50"/>
+      <c r="V7" s="51"/>
       <c r="W7" s="10">
         <v>44840</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1448,7 @@
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="47"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1458,7 +1461,7 @@
       <c r="S8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="50"/>
+      <c r="V8" s="51"/>
       <c r="W8" s="21">
         <v>44841</v>
       </c>
@@ -1494,7 +1497,7 @@
       <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="50"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="10">
         <v>44854</v>
       </c>
@@ -1507,7 +1510,7 @@
       <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="5">
         <v>44753</v>
       </c>
@@ -1520,7 +1523,7 @@
       <c r="S9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="50"/>
+      <c r="V9" s="51"/>
       <c r="W9" s="21">
         <v>44842</v>
       </c>
@@ -1556,7 +1559,7 @@
       <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="12">
         <v>44857</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="M10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="5">
         <v>44873</v>
       </c>
@@ -1582,7 +1585,7 @@
       <c r="S10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="50"/>
+      <c r="V10" s="51"/>
       <c r="W10" s="21">
         <v>44843</v>
       </c>
@@ -1618,7 +1621,7 @@
       <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="12">
         <v>44859</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="M11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="5">
         <v>44885</v>
       </c>
@@ -1644,7 +1647,7 @@
       <c r="S11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="50"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="21" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1683,7 @@
       <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="9">
         <v>44870</v>
       </c>
@@ -1693,7 +1696,7 @@
       <c r="M12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="13">
         <v>44887</v>
       </c>
@@ -1706,7 +1709,7 @@
       <c r="S12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="50"/>
+      <c r="V12" s="51"/>
       <c r="W12" s="21" t="s">
         <v>50</v>
       </c>
@@ -1740,7 +1743,7 @@
       <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="9">
         <v>44871</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="16">
         <v>44888</v>
       </c>
@@ -1766,7 +1769,7 @@
       <c r="S13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V13" s="50"/>
+      <c r="V13" s="51"/>
       <c r="W13" s="18">
         <v>44891</v>
       </c>
@@ -1802,7 +1805,7 @@
       <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="9">
         <v>44872</v>
       </c>
@@ -1815,7 +1818,7 @@
       <c r="M14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="16">
         <v>44893</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="S14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="50"/>
+      <c r="V14" s="51"/>
       <c r="W14" s="23" t="s">
         <v>59</v>
       </c>
@@ -1864,7 +1867,7 @@
       <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="50"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="9">
         <v>44881</v>
       </c>
@@ -1877,7 +1880,7 @@
       <c r="M15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="47"/>
+      <c r="O15" s="55"/>
       <c r="P15" s="16">
         <v>44895</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="S15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="50"/>
+      <c r="V15" s="51"/>
       <c r="W15" s="21">
         <v>44872</v>
       </c>
@@ -1926,7 +1929,7 @@
       <c r="G16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="9">
         <v>44882</v>
       </c>
@@ -1939,7 +1942,7 @@
       <c r="M16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="19" t="s">
         <v>68</v>
       </c>
@@ -1952,7 +1955,7 @@
       <c r="S16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="50"/>
+      <c r="V16" s="51"/>
       <c r="W16" s="21">
         <v>44873</v>
       </c>
@@ -1988,7 +1991,7 @@
       <c r="G17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="9">
         <v>44883</v>
       </c>
@@ -2001,7 +2004,7 @@
       <c r="M17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="47"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="16">
         <v>44902</v>
       </c>
@@ -2014,7 +2017,7 @@
       <c r="S17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V17" s="50"/>
+      <c r="V17" s="51"/>
       <c r="W17" s="21">
         <v>44874</v>
       </c>
@@ -2050,7 +2053,7 @@
       <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="9">
         <v>44884</v>
       </c>
@@ -2063,7 +2066,7 @@
       <c r="M18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="47"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="16">
         <v>44904</v>
       </c>
@@ -2076,7 +2079,7 @@
       <c r="S18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V18" s="50"/>
+      <c r="V18" s="51"/>
       <c r="W18" s="21">
         <v>44881</v>
       </c>
@@ -2112,7 +2115,7 @@
       <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="50"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="9">
         <v>44888</v>
       </c>
@@ -2125,7 +2128,7 @@
       <c r="M19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="47"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="16">
         <v>44907</v>
       </c>
@@ -2138,7 +2141,7 @@
       <c r="S19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="50"/>
+      <c r="V19" s="51"/>
       <c r="W19" s="21">
         <v>44886</v>
       </c>
@@ -2174,7 +2177,7 @@
       <c r="G20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="50"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="9">
         <v>44889</v>
       </c>
@@ -2187,7 +2190,7 @@
       <c r="M20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="47"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="16">
         <v>44911</v>
       </c>
@@ -2200,7 +2203,7 @@
       <c r="S20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V20" s="50"/>
+      <c r="V20" s="51"/>
       <c r="W20" s="21">
         <v>44892</v>
       </c>
@@ -2236,7 +2239,7 @@
       <c r="G21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="50"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="9">
         <v>44893</v>
       </c>
@@ -2249,7 +2252,7 @@
       <c r="M21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="47"/>
+      <c r="O21" s="55"/>
       <c r="P21" s="16">
         <v>44914</v>
       </c>
@@ -2262,7 +2265,7 @@
       <c r="S21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="V21" s="50"/>
+      <c r="V21" s="51"/>
       <c r="W21" s="21">
         <v>44893</v>
       </c>
@@ -2298,7 +2301,7 @@
       <c r="G22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="9">
         <v>44895</v>
       </c>
@@ -2311,7 +2314,7 @@
       <c r="M22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="47"/>
+      <c r="O22" s="55"/>
       <c r="P22" s="16">
         <v>44915</v>
       </c>
@@ -2324,7 +2327,7 @@
       <c r="S22" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V22" s="50"/>
+      <c r="V22" s="51"/>
       <c r="W22" s="21">
         <v>44894</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="G23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="50"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="9">
         <v>44896</v>
       </c>
@@ -2373,7 +2376,7 @@
       <c r="M23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="47"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="16">
         <v>44916</v>
       </c>
@@ -2386,7 +2389,7 @@
       <c r="S23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="V23" s="50"/>
+      <c r="V23" s="51"/>
       <c r="W23" s="21">
         <v>44895</v>
       </c>
@@ -2401,14 +2404,28 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="I24" s="50"/>
+      <c r="A24" s="5">
+        <v>44922</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="51"/>
       <c r="J24" s="9">
         <v>44897</v>
       </c>
@@ -2421,7 +2438,7 @@
       <c r="M24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="47"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="16">
         <v>44917</v>
       </c>
@@ -2434,7 +2451,7 @@
       <c r="S24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V24" s="50"/>
+      <c r="V24" s="51"/>
       <c r="W24" s="21">
         <v>44902</v>
       </c>
@@ -2456,7 +2473,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="I25" s="50"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="9">
         <v>44901</v>
       </c>
@@ -2469,7 +2486,7 @@
       <c r="M25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="47"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="16">
         <v>44918</v>
       </c>
@@ -2482,7 +2499,7 @@
       <c r="S25" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V25" s="50"/>
+      <c r="V25" s="51"/>
       <c r="W25" s="21">
         <v>44903</v>
       </c>
@@ -2504,7 +2521,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="I26" s="50"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="21">
         <v>44902</v>
       </c>
@@ -2517,7 +2534,7 @@
       <c r="M26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="47"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="16">
         <v>44919</v>
       </c>
@@ -2530,8 +2547,8 @@
       <c r="S26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="T26" s="58"/>
-      <c r="V26" s="50"/>
+      <c r="T26" s="42"/>
+      <c r="V26" s="51"/>
       <c r="W26" s="21"/>
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
@@ -2545,7 +2562,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="I27" s="50"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="21">
         <v>44903</v>
       </c>
@@ -2558,12 +2575,12 @@
       <c r="M27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="47"/>
+      <c r="O27" s="55"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="V27" s="50"/>
+      <c r="V27" s="51"/>
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
@@ -2577,7 +2594,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="I28" s="50"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="21">
         <v>44904</v>
       </c>
@@ -2590,12 +2607,12 @@
       <c r="M28" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O28" s="47"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="V28" s="50"/>
+      <c r="V28" s="51"/>
       <c r="W28" s="21"/>
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
@@ -2609,7 +2626,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="I29" s="50"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="21">
         <v>44905</v>
       </c>
@@ -2622,12 +2639,12 @@
       <c r="M29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="47"/>
+      <c r="O29" s="55"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="V29" s="50"/>
+      <c r="V29" s="51"/>
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
@@ -2641,7 +2658,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="I30" s="50"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="21">
         <v>44907</v>
       </c>
@@ -2654,12 +2671,12 @@
       <c r="M30" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="47"/>
+      <c r="O30" s="55"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="V30" s="50"/>
+      <c r="V30" s="51"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
       <c r="Y30" s="22"/>
@@ -2673,7 +2690,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="I31" s="50"/>
+      <c r="I31" s="51"/>
       <c r="J31" s="21">
         <v>44910</v>
       </c>
@@ -2686,12 +2703,12 @@
       <c r="M31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O31" s="47"/>
+      <c r="O31" s="55"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="V31" s="50"/>
+      <c r="V31" s="51"/>
       <c r="W31" s="21"/>
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
@@ -2705,7 +2722,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="50"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="21">
         <v>44911</v>
       </c>
@@ -2718,12 +2735,12 @@
       <c r="M32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O32" s="47"/>
+      <c r="O32" s="55"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="V32" s="50"/>
+      <c r="V32" s="51"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
@@ -2737,17 +2754,17 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="I33" s="50"/>
+      <c r="I33" s="51"/>
       <c r="J33" s="9"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="O33" s="48"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="V33" s="50"/>
+      <c r="V33" s="51"/>
       <c r="W33" s="21">
         <v>44907</v>
       </c>
@@ -2765,14 +2782,14 @@
       <c r="A34" s="24"/>
       <c r="B34">
         <f>SUM(B3:B33)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <f>(SUM(C3:C33)/60)</f>
         <v>5.8</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="V34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="V34" s="51"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
@@ -2786,9 +2803,9 @@
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="I35" s="50"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="25"/>
-      <c r="V35" s="50"/>
+      <c r="V35" s="51"/>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
@@ -2803,8 +2820,8 @@
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="35"/>
-      <c r="I36" s="50"/>
-      <c r="V36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="V36" s="51"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
@@ -2819,8 +2836,8 @@
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="35"/>
-      <c r="I37" s="50"/>
-      <c r="V37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="V37" s="51"/>
       <c r="W37" s="21"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
@@ -2835,8 +2852,8 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="50"/>
-      <c r="V38" s="50"/>
+      <c r="I38" s="51"/>
+      <c r="V38" s="51"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
@@ -2851,8 +2868,8 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="35"/>
-      <c r="I39" s="50"/>
-      <c r="V39" s="45"/>
+      <c r="I39" s="51"/>
+      <c r="V39" s="44"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
@@ -2867,7 +2884,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="50"/>
+      <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
@@ -2878,7 +2895,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="35"/>
-      <c r="I41" s="50"/>
+      <c r="I41" s="51"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
@@ -2889,7 +2906,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="35"/>
-      <c r="I42" s="50"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
@@ -2900,7 +2917,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="35"/>
-      <c r="I43" s="50"/>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
@@ -2911,7 +2928,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="35"/>
-      <c r="I44" s="45"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
@@ -2986,15 +3003,15 @@
       </c>
       <c r="J51" s="41">
         <f>SUM(K3:K44,B34,C34)+(SUM(L3:L44)/60)</f>
-        <v>83.633333333333326</v>
+        <v>84.633333333333326</v>
       </c>
       <c r="P51" s="41">
         <f>SUM(Q3:Q44,B34,C34)+(SUM(R3:R44)/60)</f>
-        <v>86.3</v>
+        <v>87.3</v>
       </c>
       <c r="W51" s="41">
         <f>SUM(X3:X44,B34,C34)+(SUM(Y3:Y44)/60)</f>
-        <v>83.3</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5936,11 +5953,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:I12"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="O1:O33"/>
@@ -5950,6 +5962,11 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:I12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjcE1Iml7CSKff3CV4bQWIpE9x7JA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjA/HKQhcwDNbJf1U+2Hn2FR48FeA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
   <si>
     <t>DATA</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>implementazione API</t>
+  </si>
+  <si>
+    <t>implemetazione API, diagrammi API</t>
+  </si>
+  <si>
+    <t>documentazione API, sistemazione D4</t>
+  </si>
+  <si>
+    <t>sistemazion D4 e diagrammi</t>
+  </si>
+  <si>
+    <t>descrizione API</t>
   </si>
   <si>
     <t>creazione modelli API e descrizione diagramma API</t>
@@ -743,10 +755,10 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2981,144 +2993,220 @@
       <c r="M40" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="O40" s="45"/>
+      <c r="O40" s="20"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="36"/>
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
       <c r="V40" s="19"/>
-      <c r="W40" s="28">
-        <v>44907.0</v>
-      </c>
-      <c r="X40" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="Y40" s="25">
-        <v>50.0</v>
-      </c>
-      <c r="Z40" s="26" t="s">
+      <c r="W40" s="28"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="26"/>
+    </row>
+    <row r="41" ht="27.0" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="44">
+        <v>44923.0</v>
+      </c>
+      <c r="K41" s="41">
+        <v>5.0</v>
+      </c>
+      <c r="L41" s="41">
+        <v>30.0</v>
+      </c>
+      <c r="M41" s="42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" ht="27.0" customHeight="1">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47">
-        <f>SUM(B3:B40)</f>
-        <v>25</v>
-      </c>
-      <c r="C41" s="47">
-        <f>(SUM(C3:C40)/60)</f>
-        <v>5.8</v>
-      </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="48"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
       <c r="V41" s="19"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
       <c r="Z41" s="26"/>
     </row>
-    <row r="42" ht="23.25" customHeight="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+    <row r="42" ht="27.0" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="44">
+        <v>44924.0</v>
+      </c>
+      <c r="K42" s="41">
+        <v>5.0</v>
+      </c>
+      <c r="L42" s="41">
+        <v>40.0</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O42" s="20"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
       <c r="V42" s="19"/>
       <c r="W42" s="28"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="49"/>
+    <row r="43" ht="27.0" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
       <c r="I43" s="19"/>
+      <c r="J43" s="44">
+        <v>44925.0</v>
+      </c>
+      <c r="K43" s="41">
+        <v>5.0</v>
+      </c>
+      <c r="L43" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
       <c r="V43" s="19"/>
       <c r="W43" s="28"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
       <c r="Z43" s="26"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="49"/>
+    <row r="44" ht="27.0" customHeight="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
       <c r="I44" s="19"/>
+      <c r="J44" s="44">
+        <v>44926.0</v>
+      </c>
+      <c r="K44" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="L44" s="41">
+        <v>40.0</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="O44" s="20"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
       <c r="V44" s="19"/>
       <c r="W44" s="28"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="26"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="49"/>
+    <row r="45" ht="27.0" customHeight="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
       <c r="I45" s="19"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="42"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
       <c r="V45" s="19"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="26"/>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="49"/>
+      <c r="W45" s="28">
+        <v>44907.0</v>
+      </c>
+      <c r="X45" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="Y45" s="25">
+        <v>50.0</v>
+      </c>
+      <c r="Z45" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" ht="27.0" customHeight="1">
+      <c r="A46" s="46"/>
       <c r="I46" s="19"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
+      <c r="J46" s="47"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
       <c r="Z46" s="26"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="49"/>
+    <row r="47" ht="27.0" customHeight="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48">
+        <f>SUM(B3:B45)</f>
+        <v>25</v>
+      </c>
+      <c r="C47" s="48">
+        <f>(SUM(C3:C45)/60)</f>
+        <v>5.8</v>
+      </c>
       <c r="I47" s="19"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="49"/>
+      <c r="J47" s="47"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+    </row>
+    <row r="48" ht="23.25" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
       <c r="I48" s="19"/>
+      <c r="J48" s="50"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="26"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="51"/>
@@ -3130,6 +3218,11 @@
       <c r="G49" s="54"/>
       <c r="H49" s="49"/>
       <c r="I49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="26"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="51"/>
@@ -3141,6 +3234,11 @@
       <c r="G50" s="54"/>
       <c r="H50" s="49"/>
       <c r="I50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="26"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="51"/>
@@ -3151,7 +3249,12 @@
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="49"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="26"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="51"/>
@@ -3162,6 +3265,12 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="49"/>
+      <c r="I52" s="19"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="26"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="51"/>
@@ -3172,6 +3281,7 @@
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="49"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="51"/>
@@ -3182,6 +3292,7 @@
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
       <c r="H54" s="49"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="51"/>
@@ -3192,71 +3303,45 @@
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
       <c r="H55" s="49"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="51"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
       <c r="H56" s="49"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="51"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="H57" s="49"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59">
-        <f>SUM(K3:K51,B41,C41)+(SUM(L3:L51)/60)</f>
-        <v>106.3</v>
-      </c>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59">
-        <f>SUM(Q3:Q51,B41,C41)+(SUM(R3:R51)/60)</f>
-        <v>83.13333333</v>
-      </c>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59">
-        <f>SUM(X3:X51,B41,C41)+(SUM(Y3:Y51)/60)</f>
-        <v>84.3</v>
-      </c>
-      <c r="X58" s="59"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="49"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="51"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -3264,9 +3349,9 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="51"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -3274,9 +3359,9 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="51"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
@@ -3303,14 +3388,43 @@
       <c r="H63" s="49"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="49"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59">
+        <f>SUM(K3:K57,B47,C47)+(SUM(L3:L57)/60)</f>
+        <v>125.1333333</v>
+      </c>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59">
+        <f>SUM(Q3:Q57,B47,C47)+(SUM(R3:R57)/60)</f>
+        <v>83.13333333</v>
+      </c>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59">
+        <f>SUM(X3:X57,B47,C47)+(SUM(Y3:Y57)/60)</f>
+        <v>84.3</v>
+      </c>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="51"/>
@@ -3343,31 +3457,73 @@
       <c r="H67" s="49"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="46"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="49"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="46"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="49"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="46"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="49"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="46"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="49"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="46"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="49"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="46"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="49"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="46"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="46"/>
@@ -6188,16 +6344,34 @@
     </row>
     <row r="1014" ht="12.75" customHeight="1">
       <c r="A1014" s="46"/>
+    </row>
+    <row r="1015" ht="12.75" customHeight="1">
+      <c r="A1015" s="46"/>
+    </row>
+    <row r="1016" ht="12.75" customHeight="1">
+      <c r="A1016" s="46"/>
+    </row>
+    <row r="1017" ht="12.75" customHeight="1">
+      <c r="A1017" s="46"/>
+    </row>
+    <row r="1018" ht="12.75" customHeight="1">
+      <c r="A1018" s="46"/>
+    </row>
+    <row r="1019" ht="12.75" customHeight="1">
+      <c r="A1019" s="46"/>
+    </row>
+    <row r="1020" ht="12.75" customHeight="1">
+      <c r="A1020" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O40"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="I13:I51"/>
+    <mergeCell ref="O1:O45"/>
+    <mergeCell ref="I13:I57"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="V1:V46"/>
+    <mergeCell ref="V1:V52"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6455DC-F5CD-4861-8A6A-7A04B72E8250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,441 +29,430 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
-  <si>
-    <t xml:space="preserve">DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEMPO IMPIEGATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALESSANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIULIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINUTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/09/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definizione del progetto e rudimentali obiettivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creazione del documento del progetto e scrittura obbietivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mock up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/09/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">problematiche possibili con I requisiti ecc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/09/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bozza requisiti funzionali e non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrittutura requisiti funzionali nel documento del progetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mock up home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discussione front end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisiti non funzionali e bozza back-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discussione su design/requisiti non funzionali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">back-end e correzzioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discussione requisiti non funzionali e back end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bozza finale+front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabella rnf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revisione documento, discussione palette e mock up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/10/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usecase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabella rnf, diagramma contesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revisione ultimi dettagli documento 1 da consegnare</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>TEMPO IMPIEGATO</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>PERSONE</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>GIULIO</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>MINUTI</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>24/09/2022</t>
+  </si>
+  <si>
+    <t>definizione del progetto e rudimentali obiettivi</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Creazione del documento del progetto e scrittura obbietivi</t>
+  </si>
+  <si>
+    <t>mock up</t>
+  </si>
+  <si>
+    <t>29/09/2022</t>
+  </si>
+  <si>
+    <t>problematiche possibili con I requisiti ecc.</t>
+  </si>
+  <si>
+    <t>28/09/2022</t>
+  </si>
+  <si>
+    <t>bozza requisiti funzionali e non</t>
+  </si>
+  <si>
+    <t>Scrittutura requisiti funzionali nel documento del progetto</t>
+  </si>
+  <si>
+    <t>mock up home</t>
+  </si>
+  <si>
+    <t>discussione front end</t>
+  </si>
+  <si>
+    <t>Requisiti non funzionali e bozza back-end</t>
+  </si>
+  <si>
+    <t>discussione su design/requisiti non funzionali</t>
+  </si>
+  <si>
+    <t>back-end e correzzioni</t>
+  </si>
+  <si>
+    <t>discussione requisiti non funzionali e back end</t>
+  </si>
+  <si>
+    <t>bozza finale+front-end</t>
+  </si>
+  <si>
+    <t>tabella rnf</t>
+  </si>
+  <si>
+    <t>revisione documento, discussione palette e mock up</t>
+  </si>
+  <si>
+    <t>18/10/22</t>
+  </si>
+  <si>
+    <t>usecase</t>
+  </si>
+  <si>
+    <t>06/11/2022</t>
+  </si>
+  <si>
+    <t>tabella rnf, diagramma contesto</t>
+  </si>
+  <si>
+    <t>revisione ultimi dettagli documento 1 da consegnare</t>
   </si>
   <si>
     <t xml:space="preserve">Impostazione D2, use case </t>
   </si>
   <si>
-    <t xml:space="preserve">diagramma contesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/10/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revisione diagrammi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity diagram login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/10/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagrammi D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utente non registarto use case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/10/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagrammi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagrammi D2 (diagramma 3 e 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amministratore use case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/10/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riorganizzazione + diagrammi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review del diagramma 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemazione D1, D2 + diagramma componenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documento guida per diagramma 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review diagramma 3 e diagramma 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemazione D1, D2 + descrizione diagramma di contesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">componenti per db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/11/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fine review diagramma 3 e divisione lavoro deliverable 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrizione digramma componenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagramma classi + OCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review doc + lavoro a diagramma 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrizione digramma componenti+diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisione api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagramma classi + sistemazione D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCL diagramma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impaginazione D3+descrizione diagramma componenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api + documentazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCL, review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagrammi api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCL + sistemazione D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api + user flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisione sviluppo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrzione diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCL, diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggiornamento sviluppo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrizione diagramma classi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review, riorganizzazione repo D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrzioni OCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagramma estrazione delle risorse e modello API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemazione D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API diagrammi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creazione modelli API e descrizione diagramma API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">html, css, script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programmazione API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemazione D3, D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelli database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing modelli database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemazione modelli database, D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revisione api, script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review D2/D3 + mock up correzione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correzione/restyling mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrizione API, sistemazione D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing, revisione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mock up, programmazione API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagramma e descrizioni API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programmazione API, modifiche API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagramma e descrizione API, sistemazione D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programmazione API, modifiche API, documentazione swagger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemazione D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML + connessione html/js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemazione D1, D2, D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implementazione API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemetazione API, diagrammi API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revisioni html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documentazione API, sistemazione D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sistemazion D4 e diagrammi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrizione API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ore totali</t>
+    <t>diagramma contesto</t>
+  </si>
+  <si>
+    <t>14/10/2022</t>
+  </si>
+  <si>
+    <t>revisione diagrammi</t>
+  </si>
+  <si>
+    <t>Activity diagram login</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>diagrammi D2</t>
+  </si>
+  <si>
+    <t>Utente non registarto use case</t>
+  </si>
+  <si>
+    <t>diagramma classi</t>
+  </si>
+  <si>
+    <t>17/10/2022</t>
+  </si>
+  <si>
+    <t>diagrammi</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>diagrammi D2 (diagramma 3 e 4)</t>
+  </si>
+  <si>
+    <t>Amministratore use case</t>
+  </si>
+  <si>
+    <t>20/10/2022</t>
+  </si>
+  <si>
+    <t>Riorganizzazione + diagrammi</t>
+  </si>
+  <si>
+    <t>05/11/2022</t>
+  </si>
+  <si>
+    <t>review del diagramma 4</t>
+  </si>
+  <si>
+    <t>Sistemazione D1, D2 + diagramma componenti</t>
+  </si>
+  <si>
+    <t>documento guida per diagramma 3</t>
+  </si>
+  <si>
+    <t>08/11/2022</t>
+  </si>
+  <si>
+    <t>review diagramma 3 e diagramma 4</t>
+  </si>
+  <si>
+    <t>Sistemazione D1, D2 + descrizione diagramma di contesto</t>
+  </si>
+  <si>
+    <t>3/11/2022</t>
+  </si>
+  <si>
+    <t>componenti per db</t>
+  </si>
+  <si>
+    <t>15/11/2002</t>
+  </si>
+  <si>
+    <t>fine review diagramma 3 e divisione lavoro deliverable 4</t>
+  </si>
+  <si>
+    <t>Descrizione digramma componenti</t>
+  </si>
+  <si>
+    <t>diagramma classi + OCL</t>
+  </si>
+  <si>
+    <t>review doc + lavoro a diagramma 4</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>review diagramma classi</t>
+  </si>
+  <si>
+    <t>31/11</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>25/11/2022</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Descrizione digramma componenti+diagramma classi</t>
+  </si>
+  <si>
+    <t>divisione api</t>
+  </si>
+  <si>
+    <t>Diagramma classi + sistemazione D2</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>OCL diagramma</t>
+  </si>
+  <si>
+    <t>impaginazione D3+descrizione diagramma componenti</t>
+  </si>
+  <si>
+    <t>api + documentazione</t>
+  </si>
+  <si>
+    <t>OCL, review</t>
+  </si>
+  <si>
+    <t>diagrammi api</t>
+  </si>
+  <si>
+    <t>OCL + sistemazione D2</t>
+  </si>
+  <si>
+    <t>api + user flow</t>
+  </si>
+  <si>
+    <t>Review diagramma classi</t>
+  </si>
+  <si>
+    <t>divisione sviluppo</t>
+  </si>
+  <si>
+    <t>descrzione diagramma classi</t>
+  </si>
+  <si>
+    <t>user flow</t>
+  </si>
+  <si>
+    <t>OCL, diagramma classi</t>
+  </si>
+  <si>
+    <t>aggiornamento sviluppo</t>
+  </si>
+  <si>
+    <t>descrizione diagramma classi</t>
+  </si>
+  <si>
+    <t>review, riorganizzazione repo D4</t>
+  </si>
+  <si>
+    <t>descrzioni OCL</t>
+  </si>
+  <si>
+    <t>diagramma estrazione delle risorse e modello API</t>
+  </si>
+  <si>
+    <t>sistemazione D2</t>
+  </si>
+  <si>
+    <t>API diagrammi</t>
+  </si>
+  <si>
+    <t>creazione modelli API e descrizione diagramma API</t>
+  </si>
+  <si>
+    <t>html, css, script</t>
+  </si>
+  <si>
+    <t>programmazione API</t>
+  </si>
+  <si>
+    <t>sistemazione D3, D2</t>
+  </si>
+  <si>
+    <t>modelli database</t>
+  </si>
+  <si>
+    <t>testing modelli database</t>
+  </si>
+  <si>
+    <t>review D1</t>
+  </si>
+  <si>
+    <t>sistemazione modelli database, D2</t>
+  </si>
+  <si>
+    <t>revisione api, script</t>
+  </si>
+  <si>
+    <t>review D2/D3 + mock up correzione</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>correzione/restyling mockup</t>
+  </si>
+  <si>
+    <t>descrizione API, sistemazione D4</t>
+  </si>
+  <si>
+    <t>testing, revisione</t>
+  </si>
+  <si>
+    <t>mock up, programmazione API</t>
+  </si>
+  <si>
+    <t>diagramma e descrizioni API</t>
+  </si>
+  <si>
+    <t>programmazione API, modifiche API</t>
+  </si>
+  <si>
+    <t>diagramma e descrizione API, sistemazione D3</t>
+  </si>
+  <si>
+    <t>programmazione API, modifiche API, documentazione swagger</t>
+  </si>
+  <si>
+    <t>sistemazione D3</t>
+  </si>
+  <si>
+    <t>HTML + connessione html/js</t>
+  </si>
+  <si>
+    <t>sistemazione D1, D2, D3</t>
+  </si>
+  <si>
+    <t>implementazione API</t>
+  </si>
+  <si>
+    <t>implemetazione API, diagrammi API</t>
+  </si>
+  <si>
+    <t>revisioni html</t>
+  </si>
+  <si>
+    <t>documentazione API, sistemazione D4</t>
+  </si>
+  <si>
+    <t>deployment</t>
+  </si>
+  <si>
+    <t>sistemazion D4 e diagrammi</t>
+  </si>
+  <si>
+    <t>descrizione API</t>
+  </si>
+  <si>
+    <t>ore totali</t>
+  </si>
+  <si>
+    <t>revisione deliverables, documentazione API</t>
+  </si>
+  <si>
+    <t>revisione d4, d5</t>
+  </si>
+  <si>
+    <t>ORE TOTALI</t>
+  </si>
+  <si>
+    <t>140.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="171" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -538,57 +536,91 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="12">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF505050"/>
       </left>
@@ -603,7 +635,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF505050"/>
       </left>
@@ -616,230 +648,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -898,86 +891,394 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF505050"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1020"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC36" activeCellId="0" sqref="AC36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="22" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="22.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="11.19"/>
+    <col min="1" max="3" width="9.4375" customWidth="1"/>
+    <col min="4" max="4" width="22.51953125" customWidth="1"/>
+    <col min="5" max="5" width="11.19140625" customWidth="1"/>
+    <col min="6" max="8" width="10.11328125" customWidth="1"/>
+    <col min="9" max="9" width="4.04296875" customWidth="1"/>
+    <col min="10" max="11" width="10.11328125" customWidth="1"/>
+    <col min="12" max="12" width="20.2265625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.11328125" customWidth="1"/>
+    <col min="15" max="15" width="4.04296875" customWidth="1"/>
+    <col min="16" max="18" width="10.11328125" customWidth="1"/>
+    <col min="19" max="19" width="17.39453125" customWidth="1"/>
+    <col min="20" max="20" width="10.11328125" customWidth="1"/>
+    <col min="21" max="21" width="4.04296875" customWidth="1"/>
+    <col min="22" max="24" width="10.11328125" customWidth="1"/>
+    <col min="25" max="25" width="22.51953125" customWidth="1"/>
+    <col min="26" max="26" width="11.19140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="9" t="s">
@@ -991,15 +1292,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
       <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1009,25 +1310,25 @@
       <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="V2" s="8"/>
+      <c r="S2" s="2"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="15"/>
       <c r="X2" s="16" t="s">
         <v>7</v>
@@ -1037,14 +1338,14 @@
       </c>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="18">
         <v>20</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -1059,54 +1360,54 @@
       <c r="G3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="21" t="n">
+      <c r="I3" s="4"/>
+      <c r="J3" s="21">
         <v>44833</v>
       </c>
-      <c r="K3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18" t="n">
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
         <v>20</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="17" t="n">
+      <c r="O3" s="3"/>
+      <c r="P3" s="17">
         <v>44836</v>
       </c>
-      <c r="Q3" s="18" t="n">
+      <c r="Q3" s="18">
         <v>3</v>
       </c>
-      <c r="R3" s="18" t="n">
+      <c r="R3" s="18">
         <v>0</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="8"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="18" t="n">
+      <c r="X3" s="18">
         <v>1</v>
       </c>
-      <c r="Y3" s="18" t="n">
+      <c r="Y3" s="18">
         <v>30</v>
       </c>
       <c r="Z3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -1119,54 +1420,54 @@
       <c r="G4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="21" t="n">
+      <c r="I4" s="4"/>
+      <c r="J4" s="21">
         <v>44839</v>
       </c>
-      <c r="K4" s="18" t="n">
+      <c r="K4" s="18">
         <v>1</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="18">
         <v>0</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="17" t="n">
+      <c r="O4" s="3"/>
+      <c r="P4" s="17">
         <v>44840</v>
       </c>
-      <c r="Q4" s="18" t="n">
+      <c r="Q4" s="18">
         <v>3</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="18">
         <v>0</v>
       </c>
       <c r="S4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="22" t="n">
+      <c r="V4" s="1"/>
+      <c r="W4" s="22">
         <v>44602</v>
       </c>
-      <c r="X4" s="18" t="n">
+      <c r="X4" s="18">
         <v>4</v>
       </c>
-      <c r="Y4" s="18" t="n">
+      <c r="Y4" s="18">
         <v>0</v>
       </c>
       <c r="Z4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+    <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
         <v>44571</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="18">
         <v>20</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -1181,54 +1482,54 @@
       <c r="G5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="21" t="n">
+      <c r="I5" s="4"/>
+      <c r="J5" s="21">
         <v>44842</v>
       </c>
-      <c r="K5" s="18" t="n">
+      <c r="K5" s="18">
         <v>2</v>
       </c>
-      <c r="L5" s="18" t="n">
+      <c r="L5" s="18">
         <v>20</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="17" t="n">
+      <c r="O5" s="3"/>
+      <c r="P5" s="17">
         <v>44842</v>
       </c>
-      <c r="Q5" s="18" t="n">
+      <c r="Q5" s="18">
         <v>4</v>
       </c>
-      <c r="R5" s="18" t="n">
+      <c r="R5" s="18">
         <v>0</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="22" t="n">
+      <c r="V5" s="1"/>
+      <c r="W5" s="22">
         <v>44630</v>
       </c>
-      <c r="X5" s="18" t="n">
+      <c r="X5" s="18">
         <v>1</v>
       </c>
-      <c r="Y5" s="18" t="n">
+      <c r="Y5" s="18">
         <v>0</v>
       </c>
       <c r="Z5" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+    <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
         <v>44630</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -1243,54 +1544,54 @@
       <c r="G6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="22" t="n">
+      <c r="I6" s="4"/>
+      <c r="J6" s="22">
         <v>44843</v>
       </c>
-      <c r="K6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18" t="n">
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
         <v>30</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="17" t="n">
+      <c r="O6" s="3"/>
+      <c r="P6" s="17">
         <v>44843</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="18">
         <v>2</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="18">
         <v>0</v>
       </c>
       <c r="S6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="22" t="n">
+      <c r="V6" s="1"/>
+      <c r="W6" s="22">
         <v>44661</v>
       </c>
-      <c r="X6" s="18" t="n">
+      <c r="X6" s="18">
         <v>1</v>
       </c>
-      <c r="Y6" s="18" t="n">
+      <c r="Y6" s="18">
         <v>0</v>
       </c>
       <c r="Z6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+    <row r="7" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
         <v>44722</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="18">
         <v>30</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -1305,55 +1606,55 @@
       <c r="G7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="22" t="n">
+      <c r="I7" s="4"/>
+      <c r="J7" s="22">
         <v>44844</v>
       </c>
-      <c r="K7" s="18" t="n">
+      <c r="K7" s="18">
         <v>1</v>
       </c>
-      <c r="L7" s="18" t="n">
+      <c r="L7" s="18">
         <v>0</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="17" t="n">
+      <c r="O7" s="3"/>
+      <c r="P7" s="17">
         <v>44856</v>
       </c>
-      <c r="Q7" s="18" t="n">
+      <c r="Q7" s="18">
         <v>2</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="18">
         <v>0</v>
       </c>
       <c r="S7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="23"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="22" t="n">
+      <c r="V7" s="1"/>
+      <c r="W7" s="22">
         <v>44840</v>
       </c>
-      <c r="X7" s="18" t="n">
+      <c r="X7" s="18">
         <v>2</v>
       </c>
-      <c r="Y7" s="18" t="n">
+      <c r="Y7" s="18">
         <v>0</v>
       </c>
       <c r="Z7" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+    <row r="8" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
         <v>44783</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="18">
         <v>0</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1368,54 +1669,54 @@
       <c r="G8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="18">
         <v>1</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="18">
         <v>0</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="18">
         <v>2</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="18">
         <v>30</v>
       </c>
       <c r="S8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="21" t="n">
+      <c r="V8" s="1"/>
+      <c r="W8" s="21">
         <v>44841</v>
       </c>
-      <c r="X8" s="18" t="n">
+      <c r="X8" s="18">
         <v>2</v>
       </c>
-      <c r="Y8" s="18" t="n">
+      <c r="Y8" s="18">
         <v>0</v>
       </c>
       <c r="Z8" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+    <row r="9" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
         <v>44814</v>
       </c>
-      <c r="B9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18" t="n">
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
         <v>40</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1430,54 +1731,54 @@
       <c r="G9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="22" t="n">
+      <c r="I9" s="4"/>
+      <c r="J9" s="22">
         <v>44854</v>
       </c>
-      <c r="K9" s="18" t="n">
+      <c r="K9" s="18">
         <v>1</v>
       </c>
-      <c r="L9" s="18" t="n">
+      <c r="L9" s="18">
         <v>40</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="17" t="n">
+      <c r="O9" s="3"/>
+      <c r="P9" s="17">
         <v>44753</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="18">
         <v>2</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="18">
         <v>30</v>
       </c>
       <c r="S9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="21" t="n">
+      <c r="V9" s="1"/>
+      <c r="W9" s="21">
         <v>44842</v>
       </c>
-      <c r="X9" s="18" t="n">
+      <c r="X9" s="18">
         <v>6</v>
       </c>
-      <c r="Y9" s="18" t="n">
+      <c r="Y9" s="18">
         <v>0</v>
       </c>
       <c r="Z9" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="18">
         <v>0</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1492,54 +1793,54 @@
       <c r="G10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="24" t="n">
+      <c r="I10" s="4"/>
+      <c r="J10" s="24">
         <v>44857</v>
       </c>
-      <c r="K10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18" t="n">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
         <v>20</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="17" t="n">
+      <c r="O10" s="3"/>
+      <c r="P10" s="17">
         <v>44873</v>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="18">
         <v>1</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="18">
         <v>30</v>
       </c>
       <c r="S10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="21" t="n">
+      <c r="V10" s="1"/>
+      <c r="W10" s="21">
         <v>44843</v>
       </c>
-      <c r="X10" s="18" t="n">
+      <c r="X10" s="18">
         <v>4</v>
       </c>
-      <c r="Y10" s="18" t="n">
+      <c r="Y10" s="18">
         <v>0</v>
       </c>
       <c r="Z10" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="18">
         <v>0</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -1554,54 +1855,54 @@
       <c r="G11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="24" t="n">
+      <c r="I11" s="4"/>
+      <c r="J11" s="24">
         <v>44859</v>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="18">
         <v>1</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="18">
         <v>0</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="17" t="n">
+      <c r="O11" s="3"/>
+      <c r="P11" s="17">
         <v>44885</v>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="18">
         <v>2</v>
       </c>
-      <c r="R11" s="18" t="n">
+      <c r="R11" s="18">
         <v>0</v>
       </c>
       <c r="S11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="8"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="X11" s="18" t="n">
+      <c r="X11" s="18">
         <v>1</v>
       </c>
-      <c r="Y11" s="18" t="n">
+      <c r="Y11" s="18">
         <v>0</v>
       </c>
       <c r="Z11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="18" t="n">
+      <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="18">
         <v>0</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -1616,54 +1917,54 @@
       <c r="G12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="21" t="n">
+      <c r="I12" s="4"/>
+      <c r="J12" s="21">
         <v>44870</v>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="18">
         <v>1</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="18">
         <v>0</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="25" t="n">
+      <c r="O12" s="3"/>
+      <c r="P12" s="25">
         <v>44887</v>
       </c>
-      <c r="Q12" s="26" t="n">
+      <c r="Q12" s="26">
         <v>1</v>
       </c>
-      <c r="R12" s="26" t="n">
+      <c r="R12" s="26">
         <v>30</v>
       </c>
       <c r="S12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="8"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="18" t="n">
+      <c r="X12" s="18">
         <v>1</v>
       </c>
-      <c r="Y12" s="18" t="n">
+      <c r="Y12" s="18">
         <v>0</v>
       </c>
       <c r="Z12" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18" t="n">
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
         <v>18</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1676,54 +1977,54 @@
       <c r="G13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="21" t="n">
+      <c r="I13" s="4"/>
+      <c r="J13" s="21">
         <v>44871</v>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="18">
         <v>1</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="18">
         <v>0</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="28" t="n">
+      <c r="O13" s="3"/>
+      <c r="P13" s="28">
         <v>44888</v>
       </c>
-      <c r="Q13" s="29" t="n">
+      <c r="Q13" s="29">
         <v>2</v>
       </c>
-      <c r="R13" s="29" t="n">
+      <c r="R13" s="29">
         <v>30</v>
       </c>
       <c r="S13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="V13" s="8"/>
-      <c r="W13" s="30" t="n">
+      <c r="V13" s="1"/>
+      <c r="W13" s="30">
         <v>44891</v>
       </c>
-      <c r="X13" s="19" t="n">
+      <c r="X13" s="19">
         <v>1</v>
       </c>
-      <c r="Y13" s="19" t="n">
+      <c r="Y13" s="19">
         <v>0</v>
       </c>
       <c r="Z13" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="18">
         <v>30</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -1738,54 +2039,54 @@
       <c r="G14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="21" t="n">
+      <c r="I14" s="4"/>
+      <c r="J14" s="21">
         <v>44872</v>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="18">
         <v>4</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="18">
         <v>0</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="28" t="n">
+      <c r="O14" s="3"/>
+      <c r="P14" s="28">
         <v>44893</v>
       </c>
-      <c r="Q14" s="29" t="n">
+      <c r="Q14" s="29">
         <v>2</v>
       </c>
-      <c r="R14" s="29" t="n">
+      <c r="R14" s="29">
         <v>30</v>
       </c>
       <c r="S14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="8"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19" t="n">
+      <c r="X14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
         <v>30</v>
       </c>
       <c r="Z14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="18">
         <v>30</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -1800,54 +2101,54 @@
       <c r="G15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="21" t="n">
+      <c r="I15" s="4"/>
+      <c r="J15" s="21">
         <v>44881</v>
       </c>
-      <c r="K15" s="18" t="n">
+      <c r="K15" s="18">
         <v>2</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="18">
         <v>0</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="28" t="n">
+      <c r="O15" s="3"/>
+      <c r="P15" s="28">
         <v>44895</v>
       </c>
-      <c r="Q15" s="29" t="n">
+      <c r="Q15" s="29">
         <v>2</v>
       </c>
-      <c r="R15" s="29" t="n">
+      <c r="R15" s="29">
         <v>20</v>
       </c>
       <c r="S15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="21" t="n">
+      <c r="V15" s="1"/>
+      <c r="W15" s="21">
         <v>44872</v>
       </c>
-      <c r="X15" s="18" t="n">
+      <c r="X15" s="18">
         <v>3</v>
       </c>
-      <c r="Y15" s="18" t="n">
+      <c r="Y15" s="18">
         <v>30</v>
       </c>
       <c r="Z15" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="18">
         <v>2</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="18">
         <v>0</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -1862,54 +2163,54 @@
       <c r="G16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="21" t="n">
+      <c r="I16" s="4"/>
+      <c r="J16" s="21">
         <v>44882</v>
       </c>
-      <c r="K16" s="18" t="n">
+      <c r="K16" s="18">
         <v>1</v>
       </c>
-      <c r="L16" s="18" t="n">
+      <c r="L16" s="18">
         <v>0</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="32" t="n">
+      <c r="Q16" s="32">
         <v>2</v>
       </c>
-      <c r="R16" s="32" t="n">
+      <c r="R16" s="32">
         <v>0</v>
       </c>
       <c r="S16" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="21" t="n">
+      <c r="V16" s="1"/>
+      <c r="W16" s="21">
         <v>44873</v>
       </c>
-      <c r="X16" s="18" t="n">
+      <c r="X16" s="18">
         <v>2</v>
       </c>
-      <c r="Y16" s="18" t="n">
+      <c r="Y16" s="18">
         <v>30</v>
       </c>
       <c r="Z16" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="18">
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -1924,54 +2225,54 @@
       <c r="G17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="21" t="n">
+      <c r="I17" s="4"/>
+      <c r="J17" s="21">
         <v>44883</v>
       </c>
-      <c r="K17" s="18" t="n">
+      <c r="K17" s="18">
         <v>1</v>
       </c>
-      <c r="L17" s="18" t="n">
+      <c r="L17" s="18">
         <v>0</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="28" t="n">
+      <c r="O17" s="3"/>
+      <c r="P17" s="28">
         <v>44902</v>
       </c>
-      <c r="Q17" s="29" t="n">
+      <c r="Q17" s="29">
         <v>1</v>
       </c>
-      <c r="R17" s="29" t="n">
+      <c r="R17" s="29">
         <v>30</v>
       </c>
       <c r="S17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V17" s="8"/>
-      <c r="W17" s="21" t="n">
+      <c r="V17" s="1"/>
+      <c r="W17" s="21">
         <v>44874</v>
       </c>
-      <c r="X17" s="18" t="n">
+      <c r="X17" s="18">
         <v>5</v>
       </c>
-      <c r="Y17" s="18" t="n">
+      <c r="Y17" s="18">
         <v>0</v>
       </c>
       <c r="Z17" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
         <v>44893</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="18">
         <v>30</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -1986,54 +2287,54 @@
       <c r="G18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="21" t="n">
+      <c r="I18" s="4"/>
+      <c r="J18" s="21">
         <v>44884</v>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="18">
         <v>3</v>
       </c>
-      <c r="L18" s="18" t="n">
+      <c r="L18" s="18">
         <v>0</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="28" t="n">
+      <c r="O18" s="3"/>
+      <c r="P18" s="28">
         <v>44904</v>
       </c>
-      <c r="Q18" s="29" t="n">
+      <c r="Q18" s="29">
         <v>1</v>
       </c>
-      <c r="R18" s="29" t="n">
+      <c r="R18" s="29">
         <v>40</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="21" t="n">
+      <c r="V18" s="1"/>
+      <c r="W18" s="21">
         <v>44881</v>
       </c>
-      <c r="X18" s="18" t="n">
+      <c r="X18" s="18">
         <v>2</v>
       </c>
-      <c r="Y18" s="18" t="n">
+      <c r="Y18" s="18">
         <v>30</v>
       </c>
       <c r="Z18" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+    <row r="19" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
         <v>44895</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18" t="n">
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
         <v>40</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2048,54 +2349,54 @@
       <c r="G19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="21" t="n">
+      <c r="I19" s="4"/>
+      <c r="J19" s="21">
         <v>44888</v>
       </c>
-      <c r="K19" s="18" t="n">
+      <c r="K19" s="18">
         <v>3</v>
       </c>
-      <c r="L19" s="18" t="n">
+      <c r="L19" s="18">
         <v>30</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="28" t="n">
+      <c r="O19" s="3"/>
+      <c r="P19" s="28">
         <v>44907</v>
       </c>
-      <c r="Q19" s="29" t="n">
+      <c r="Q19" s="29">
         <v>3</v>
       </c>
-      <c r="R19" s="29" t="n">
+      <c r="R19" s="29">
         <v>0</v>
       </c>
       <c r="S19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="8"/>
-      <c r="W19" s="21" t="n">
+      <c r="V19" s="1"/>
+      <c r="W19" s="21">
         <v>44886</v>
       </c>
-      <c r="X19" s="18" t="n">
+      <c r="X19" s="18">
         <v>1</v>
       </c>
-      <c r="Y19" s="18" t="n">
+      <c r="Y19" s="18">
         <v>0</v>
       </c>
       <c r="Z19" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
         <v>44902</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18" t="n">
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
         <v>40</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -2110,54 +2411,54 @@
       <c r="G20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="21" t="n">
+      <c r="I20" s="4"/>
+      <c r="J20" s="21">
         <v>44889</v>
       </c>
-      <c r="K20" s="18" t="n">
+      <c r="K20" s="18">
         <v>1</v>
       </c>
-      <c r="L20" s="18" t="n">
+      <c r="L20" s="18">
         <v>30</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="28" t="n">
+      <c r="O20" s="3"/>
+      <c r="P20" s="28">
         <v>44911</v>
       </c>
-      <c r="Q20" s="29" t="n">
+      <c r="Q20" s="29">
         <v>1</v>
       </c>
-      <c r="R20" s="29" t="n">
+      <c r="R20" s="29">
         <v>30</v>
       </c>
       <c r="S20" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="8"/>
-      <c r="W20" s="21" t="n">
+      <c r="V20" s="1"/>
+      <c r="W20" s="21">
         <v>44892</v>
       </c>
-      <c r="X20" s="18" t="n">
+      <c r="X20" s="18">
         <v>1</v>
       </c>
-      <c r="Y20" s="18" t="n">
+      <c r="Y20" s="18">
         <v>0</v>
       </c>
       <c r="Z20" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
         <v>44896</v>
       </c>
-      <c r="B21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18" t="n">
+      <c r="B21" s="18">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18">
         <v>20</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -2172,54 +2473,54 @@
       <c r="G21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="21" t="n">
+      <c r="I21" s="4"/>
+      <c r="J21" s="21">
         <v>44893</v>
       </c>
-      <c r="K21" s="18" t="n">
+      <c r="K21" s="18">
         <v>1</v>
       </c>
-      <c r="L21" s="18" t="n">
+      <c r="L21" s="18">
         <v>30</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="28" t="n">
+      <c r="O21" s="3"/>
+      <c r="P21" s="28">
         <v>44914</v>
       </c>
-      <c r="Q21" s="29" t="n">
+      <c r="Q21" s="29">
         <v>3</v>
       </c>
-      <c r="R21" s="29" t="n">
+      <c r="R21" s="29">
         <v>20</v>
       </c>
       <c r="S21" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="8"/>
-      <c r="W21" s="21" t="n">
+      <c r="V21" s="1"/>
+      <c r="W21" s="21">
         <v>44893</v>
       </c>
-      <c r="X21" s="18" t="n">
+      <c r="X21" s="18">
         <v>2</v>
       </c>
-      <c r="Y21" s="18" t="n">
+      <c r="Y21" s="18">
         <v>0</v>
       </c>
       <c r="Z21" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+    <row r="22" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
         <v>44905</v>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="18">
         <v>0</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -2234,54 +2535,54 @@
       <c r="G22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="21" t="n">
+      <c r="I22" s="4"/>
+      <c r="J22" s="21">
         <v>44895</v>
       </c>
-      <c r="K22" s="18" t="n">
+      <c r="K22" s="18">
         <v>2</v>
       </c>
-      <c r="L22" s="18" t="n">
+      <c r="L22" s="18">
         <v>40</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="28" t="n">
+      <c r="O22" s="3"/>
+      <c r="P22" s="28">
         <v>44915</v>
       </c>
-      <c r="Q22" s="29" t="n">
+      <c r="Q22" s="29">
         <v>3</v>
       </c>
-      <c r="R22" s="29" t="n">
+      <c r="R22" s="29">
         <v>40</v>
       </c>
       <c r="S22" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="21" t="n">
+      <c r="V22" s="1"/>
+      <c r="W22" s="21">
         <v>44894</v>
       </c>
-      <c r="X22" s="18" t="n">
+      <c r="X22" s="18">
         <v>4</v>
       </c>
-      <c r="Y22" s="18" t="n">
+      <c r="Y22" s="18">
         <v>30</v>
       </c>
       <c r="Z22" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
         <v>44907</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="18">
         <v>0</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -2296,54 +2597,54 @@
       <c r="G23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="21" t="n">
+      <c r="I23" s="4"/>
+      <c r="J23" s="21">
         <v>44896</v>
       </c>
-      <c r="K23" s="18" t="n">
+      <c r="K23" s="18">
         <v>1</v>
       </c>
-      <c r="L23" s="18" t="n">
+      <c r="L23" s="18">
         <v>30</v>
       </c>
       <c r="M23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="28" t="n">
+      <c r="O23" s="3"/>
+      <c r="P23" s="28">
         <v>44916</v>
       </c>
-      <c r="Q23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="29" t="n">
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="29">
         <v>20</v>
       </c>
       <c r="S23" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="21" t="n">
+      <c r="V23" s="1"/>
+      <c r="W23" s="21">
         <v>44895</v>
       </c>
-      <c r="X23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="18" t="n">
+      <c r="X23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="18">
         <v>30</v>
       </c>
       <c r="Z23" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
         <v>44922</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B24" s="18">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="18">
         <v>0</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2358,47 +2659,47 @@
       <c r="G24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="21" t="n">
+      <c r="I24" s="4"/>
+      <c r="J24" s="21">
         <v>44897</v>
       </c>
-      <c r="K24" s="18" t="n">
+      <c r="K24" s="18">
         <v>5</v>
       </c>
-      <c r="L24" s="18" t="n">
+      <c r="L24" s="18">
         <v>20</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="28" t="n">
+      <c r="O24" s="3"/>
+      <c r="P24" s="28">
         <v>44917</v>
       </c>
-      <c r="Q24" s="29" t="n">
+      <c r="Q24" s="29">
         <v>4</v>
       </c>
-      <c r="R24" s="29" t="n">
+      <c r="R24" s="29">
         <v>0</v>
       </c>
       <c r="S24" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="21" t="n">
+      <c r="V24" s="1"/>
+      <c r="W24" s="21">
         <v>44902</v>
       </c>
-      <c r="X24" s="18" t="n">
+      <c r="X24" s="18">
         <v>1</v>
       </c>
-      <c r="Y24" s="18" t="n">
+      <c r="Y24" s="18">
         <v>40</v>
       </c>
       <c r="Z24" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2406,47 +2707,47 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="21" t="n">
+      <c r="I25" s="4"/>
+      <c r="J25" s="21">
         <v>44901</v>
       </c>
-      <c r="K25" s="18" t="n">
+      <c r="K25" s="18">
         <v>2</v>
       </c>
-      <c r="L25" s="18" t="n">
+      <c r="L25" s="18">
         <v>20</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="28" t="n">
+      <c r="O25" s="3"/>
+      <c r="P25" s="28">
         <v>44918</v>
       </c>
-      <c r="Q25" s="29" t="n">
+      <c r="Q25" s="29">
         <v>4</v>
       </c>
-      <c r="R25" s="29" t="n">
+      <c r="R25" s="29">
         <v>30</v>
       </c>
       <c r="S25" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="V25" s="8"/>
-      <c r="W25" s="21" t="n">
+      <c r="V25" s="1"/>
+      <c r="W25" s="21">
         <v>44903</v>
       </c>
-      <c r="X25" s="18" t="n">
+      <c r="X25" s="18">
         <v>2</v>
       </c>
-      <c r="Y25" s="18" t="n">
+      <c r="Y25" s="18">
         <v>30</v>
       </c>
       <c r="Z25" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2454,47 +2755,47 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="21" t="n">
+      <c r="I26" s="4"/>
+      <c r="J26" s="21">
         <v>44902</v>
       </c>
-      <c r="K26" s="18" t="n">
+      <c r="K26" s="18">
         <v>3</v>
       </c>
-      <c r="L26" s="18" t="n">
+      <c r="L26" s="18">
         <v>30</v>
       </c>
       <c r="M26" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="28" t="n">
+      <c r="O26" s="3"/>
+      <c r="P26" s="28">
         <v>44919</v>
       </c>
-      <c r="Q26" s="29" t="n">
+      <c r="Q26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="29" t="n">
+      <c r="R26" s="29">
         <v>20</v>
       </c>
       <c r="S26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="V26" s="8"/>
-      <c r="W26" s="21" t="n">
+      <c r="V26" s="1"/>
+      <c r="W26" s="21">
         <v>44903</v>
       </c>
-      <c r="X26" s="18" t="n">
+      <c r="X26" s="18">
         <v>2</v>
       </c>
-      <c r="Y26" s="18" t="n">
+      <c r="Y26" s="18">
         <v>30</v>
       </c>
       <c r="Z26" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2502,47 +2803,47 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="21" t="n">
+      <c r="I27" s="4"/>
+      <c r="J27" s="21">
         <v>44903</v>
       </c>
-      <c r="K27" s="18" t="n">
+      <c r="K27" s="18">
         <v>1</v>
       </c>
-      <c r="L27" s="18" t="n">
+      <c r="L27" s="18">
         <v>30</v>
       </c>
       <c r="M27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="28" t="n">
+      <c r="O27" s="3"/>
+      <c r="P27" s="28">
         <v>44920</v>
       </c>
-      <c r="Q27" s="29" t="n">
+      <c r="Q27" s="29">
         <v>6</v>
       </c>
-      <c r="R27" s="29" t="n">
+      <c r="R27" s="29">
         <v>15</v>
       </c>
       <c r="S27" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="V27" s="8"/>
-      <c r="W27" s="21" t="n">
+      <c r="V27" s="1"/>
+      <c r="W27" s="21">
         <v>44907</v>
       </c>
-      <c r="X27" s="18" t="n">
+      <c r="X27" s="18">
         <v>1</v>
       </c>
-      <c r="Y27" s="18" t="n">
+      <c r="Y27" s="18">
         <v>50</v>
       </c>
       <c r="Z27" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2550,47 +2851,47 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="21" t="n">
+      <c r="I28" s="4"/>
+      <c r="J28" s="21">
         <v>44904</v>
       </c>
-      <c r="K28" s="18" t="n">
+      <c r="K28" s="18">
         <v>3</v>
       </c>
-      <c r="L28" s="18" t="n">
+      <c r="L28" s="18">
         <v>0</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="28" t="n">
+      <c r="O28" s="3"/>
+      <c r="P28" s="28">
         <v>44922</v>
       </c>
-      <c r="Q28" s="29" t="n">
+      <c r="Q28" s="29">
         <v>5</v>
       </c>
-      <c r="R28" s="29" t="n">
+      <c r="R28" s="29">
         <v>40</v>
       </c>
       <c r="S28" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="V28" s="8"/>
-      <c r="W28" s="33" t="n">
+      <c r="V28" s="1"/>
+      <c r="W28" s="33">
         <v>44911</v>
       </c>
-      <c r="X28" s="19" t="n">
+      <c r="X28" s="19">
         <v>2</v>
       </c>
-      <c r="Y28" s="19" t="n">
+      <c r="Y28" s="19">
         <v>30</v>
       </c>
       <c r="Z28" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2598,47 +2899,47 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="21" t="n">
+      <c r="I29" s="4"/>
+      <c r="J29" s="21">
         <v>44905</v>
       </c>
-      <c r="K29" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18" t="n">
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
         <v>20</v>
       </c>
       <c r="M29" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="28" t="n">
+      <c r="O29" s="3"/>
+      <c r="P29" s="28">
         <v>44923</v>
       </c>
-      <c r="Q29" s="29" t="n">
+      <c r="Q29" s="29">
         <v>7</v>
       </c>
-      <c r="R29" s="29" t="n">
+      <c r="R29" s="29">
         <v>20</v>
       </c>
       <c r="S29" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="V29" s="8"/>
-      <c r="W29" s="21" t="n">
+      <c r="V29" s="1"/>
+      <c r="W29" s="21">
         <v>44912</v>
       </c>
-      <c r="X29" s="18" t="n">
+      <c r="X29" s="18">
         <v>6</v>
       </c>
-      <c r="Y29" s="18" t="n">
+      <c r="Y29" s="18">
         <v>30</v>
       </c>
       <c r="Z29" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2646,47 +2947,47 @@
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="21" t="n">
+      <c r="I30" s="4"/>
+      <c r="J30" s="21">
         <v>44907</v>
       </c>
-      <c r="K30" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18" t="n">
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
         <v>40</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="28" t="n">
+      <c r="O30" s="3"/>
+      <c r="P30" s="28">
         <v>44924</v>
       </c>
-      <c r="Q30" s="29" t="n">
+      <c r="Q30" s="29">
         <v>6</v>
       </c>
-      <c r="R30" s="29" t="n">
+      <c r="R30" s="29">
         <v>50</v>
       </c>
       <c r="S30" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="V30" s="8"/>
-      <c r="W30" s="21" t="n">
+      <c r="V30" s="1"/>
+      <c r="W30" s="21">
         <v>44913</v>
       </c>
-      <c r="X30" s="18" t="n">
+      <c r="X30" s="18">
         <v>2</v>
       </c>
-      <c r="Y30" s="18" t="n">
+      <c r="Y30" s="18">
         <v>20</v>
       </c>
       <c r="Z30" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2694,47 +2995,47 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="21" t="n">
+      <c r="I31" s="4"/>
+      <c r="J31" s="21">
         <v>44910</v>
       </c>
-      <c r="K31" s="18" t="n">
+      <c r="K31" s="18">
         <v>1</v>
       </c>
-      <c r="L31" s="18" t="n">
+      <c r="L31" s="18">
         <v>40</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="28" t="n">
+      <c r="O31" s="3"/>
+      <c r="P31" s="28">
         <v>44925</v>
       </c>
-      <c r="Q31" s="29" t="n">
+      <c r="Q31" s="29">
         <v>8</v>
       </c>
-      <c r="R31" s="29" t="n">
+      <c r="R31" s="29">
         <v>0</v>
       </c>
       <c r="S31" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="V31" s="8"/>
-      <c r="W31" s="21" t="n">
+      <c r="V31" s="1"/>
+      <c r="W31" s="21">
         <v>44916</v>
       </c>
-      <c r="X31" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="18" t="n">
+      <c r="X31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="18">
         <v>20</v>
       </c>
       <c r="Z31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2742,47 +3043,47 @@
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="21" t="n">
+      <c r="I32" s="4"/>
+      <c r="J32" s="21">
         <v>44911</v>
       </c>
-      <c r="K32" s="18" t="n">
+      <c r="K32" s="18">
         <v>2</v>
       </c>
-      <c r="L32" s="18" t="n">
+      <c r="L32" s="18">
         <v>40</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="28" t="n">
+      <c r="O32" s="3"/>
+      <c r="P32" s="28">
         <v>44926</v>
       </c>
-      <c r="Q32" s="29" t="n">
+      <c r="Q32" s="29">
         <v>7</v>
       </c>
-      <c r="R32" s="29" t="n">
+      <c r="R32" s="29">
         <v>20</v>
       </c>
       <c r="S32" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="V32" s="8"/>
-      <c r="W32" s="21" t="n">
+      <c r="V32" s="1"/>
+      <c r="W32" s="21">
         <v>44917</v>
       </c>
-      <c r="X32" s="18" t="n">
+      <c r="X32" s="18">
         <v>4</v>
       </c>
-      <c r="Y32" s="18" t="n">
+      <c r="Y32" s="18">
         <v>0</v>
       </c>
       <c r="Z32" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2790,47 +3091,47 @@
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="21" t="n">
+      <c r="I33" s="4"/>
+      <c r="J33" s="21">
         <v>44912</v>
       </c>
-      <c r="K33" s="18" t="n">
+      <c r="K33" s="18">
         <v>1</v>
       </c>
-      <c r="L33" s="18" t="n">
+      <c r="L33" s="18">
         <v>20</v>
       </c>
       <c r="M33" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="28" t="n">
+      <c r="O33" s="3"/>
+      <c r="P33" s="28">
         <v>44927</v>
       </c>
-      <c r="Q33" s="29" t="n">
+      <c r="Q33" s="29">
         <v>6</v>
       </c>
-      <c r="R33" s="29" t="n">
+      <c r="R33" s="29">
         <v>0</v>
       </c>
       <c r="S33" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="V33" s="8"/>
-      <c r="W33" s="21" t="n">
+      <c r="V33" s="1"/>
+      <c r="W33" s="21">
         <v>44918</v>
       </c>
-      <c r="X33" s="18" t="n">
+      <c r="X33" s="18">
         <v>4</v>
       </c>
-      <c r="Y33" s="18" t="n">
+      <c r="Y33" s="18">
         <v>0</v>
       </c>
       <c r="Z33" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2838,47 +3139,47 @@
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="21" t="n">
+      <c r="I34" s="4"/>
+      <c r="J34" s="21">
         <v>44913</v>
       </c>
-      <c r="K34" s="18" t="n">
+      <c r="K34" s="18">
         <v>3</v>
       </c>
-      <c r="L34" s="18" t="n">
+      <c r="L34" s="18">
         <v>20</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="28" t="n">
+      <c r="O34" s="3"/>
+      <c r="P34" s="28">
         <v>44928</v>
       </c>
-      <c r="Q34" s="29" t="n">
+      <c r="Q34" s="29">
         <v>4</v>
       </c>
-      <c r="R34" s="29" t="n">
+      <c r="R34" s="29">
         <v>20</v>
       </c>
       <c r="S34" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="V34" s="8"/>
-      <c r="W34" s="21" t="n">
+      <c r="V34" s="1"/>
+      <c r="W34" s="21">
         <v>44919</v>
       </c>
-      <c r="X34" s="18" t="n">
+      <c r="X34" s="18">
         <v>5</v>
       </c>
-      <c r="Y34" s="18" t="n">
+      <c r="Y34" s="18">
         <v>20</v>
       </c>
       <c r="Z34" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2886,39 +3187,39 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="21" t="n">
+      <c r="I35" s="4"/>
+      <c r="J35" s="21">
         <v>44914</v>
       </c>
-      <c r="K35" s="18" t="n">
+      <c r="K35" s="18">
         <v>5</v>
       </c>
-      <c r="L35" s="18" t="n">
+      <c r="L35" s="18">
         <v>0</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O35" s="6"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="21" t="n">
+      <c r="V35" s="1"/>
+      <c r="W35" s="21">
         <v>44920</v>
       </c>
-      <c r="X35" s="18" t="n">
+      <c r="X35" s="18">
         <v>4</v>
       </c>
-      <c r="Y35" s="18" t="n">
+      <c r="Y35" s="18">
         <v>30</v>
       </c>
       <c r="Z35" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -2926,39 +3227,43 @@
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="21" t="n">
+      <c r="I36" s="4"/>
+      <c r="J36" s="21">
         <v>44915</v>
       </c>
-      <c r="K36" s="18" t="n">
+      <c r="K36" s="18">
         <v>3</v>
       </c>
-      <c r="L36" s="18" t="n">
+      <c r="L36" s="18">
         <v>0</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="21" t="n">
+      <c r="O36" s="3"/>
+      <c r="P36" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="21">
         <v>44921</v>
       </c>
-      <c r="X36" s="18" t="n">
+      <c r="X36" s="18">
         <v>5</v>
       </c>
-      <c r="Y36" s="18" t="n">
+      <c r="Y36" s="18">
         <v>0</v>
       </c>
       <c r="Z36" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2966,39 +3271,39 @@
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="21" t="n">
+      <c r="I37" s="4"/>
+      <c r="J37" s="21">
         <v>44916</v>
       </c>
-      <c r="K37" s="18" t="n">
+      <c r="K37" s="18">
         <v>1</v>
       </c>
-      <c r="L37" s="18" t="n">
+      <c r="L37" s="18">
         <v>0</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="21" t="n">
+      <c r="V37" s="1"/>
+      <c r="W37" s="21">
         <v>44923</v>
       </c>
-      <c r="X37" s="18" t="n">
+      <c r="X37" s="18">
         <v>2</v>
       </c>
-      <c r="Y37" s="18" t="n">
+      <c r="Y37" s="18">
         <v>0</v>
       </c>
       <c r="Z37" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -3006,39 +3311,39 @@
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="21" t="n">
+      <c r="I38" s="4"/>
+      <c r="J38" s="21">
         <v>44917</v>
       </c>
-      <c r="K38" s="18" t="n">
+      <c r="K38" s="18">
         <v>2</v>
       </c>
-      <c r="L38" s="18" t="n">
+      <c r="L38" s="18">
         <v>50</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="O38" s="6"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="21" t="n">
+      <c r="V38" s="1"/>
+      <c r="W38" s="21">
         <v>44924</v>
       </c>
-      <c r="X38" s="18" t="n">
+      <c r="X38" s="18">
         <v>6</v>
       </c>
-      <c r="Y38" s="18" t="n">
+      <c r="Y38" s="18">
         <v>0</v>
       </c>
       <c r="Z38" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3046,39 +3351,39 @@
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="21" t="n">
+      <c r="I39" s="4"/>
+      <c r="J39" s="21">
         <v>44920</v>
       </c>
-      <c r="K39" s="18" t="n">
+      <c r="K39" s="18">
         <v>1</v>
       </c>
-      <c r="L39" s="18" t="n">
+      <c r="L39" s="18">
         <v>10</v>
       </c>
       <c r="M39" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="O39" s="6"/>
+      <c r="O39" s="3"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="21" t="n">
+      <c r="V39" s="1"/>
+      <c r="W39" s="21">
         <v>44925</v>
       </c>
-      <c r="X39" s="18" t="n">
+      <c r="X39" s="18">
         <v>6</v>
       </c>
-      <c r="Y39" s="18" t="n">
+      <c r="Y39" s="18">
         <v>0</v>
       </c>
       <c r="Z39" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3086,39 +3391,39 @@
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="21" t="n">
+      <c r="I40" s="4"/>
+      <c r="J40" s="21">
         <v>44922</v>
       </c>
-      <c r="K40" s="18" t="n">
+      <c r="K40" s="18">
         <v>4</v>
       </c>
-      <c r="L40" s="18" t="n">
+      <c r="L40" s="18">
         <v>0</v>
       </c>
       <c r="M40" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="O40" s="6"/>
+      <c r="O40" s="3"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="21" t="n">
+      <c r="V40" s="1"/>
+      <c r="W40" s="21">
         <v>44926</v>
       </c>
-      <c r="X40" s="18" t="n">
+      <c r="X40" s="18">
         <v>6</v>
       </c>
-      <c r="Y40" s="18" t="n">
+      <c r="Y40" s="18">
         <v>0</v>
       </c>
       <c r="Z40" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -3126,39 +3431,39 @@
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="21" t="n">
+      <c r="I41" s="4"/>
+      <c r="J41" s="21">
         <v>44923</v>
       </c>
-      <c r="K41" s="18" t="n">
+      <c r="K41" s="18">
         <v>5</v>
       </c>
-      <c r="L41" s="18" t="n">
+      <c r="L41" s="18">
         <v>30</v>
       </c>
       <c r="M41" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="6"/>
+      <c r="O41" s="3"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
       <c r="S41" s="29"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="21" t="n">
+      <c r="V41" s="1"/>
+      <c r="W41" s="21">
         <v>44927</v>
       </c>
-      <c r="X41" s="18" t="n">
+      <c r="X41" s="18">
         <v>2</v>
       </c>
-      <c r="Y41" s="18" t="n">
+      <c r="Y41" s="18">
         <v>0</v>
       </c>
       <c r="Z41" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -3166,39 +3471,39 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="21" t="n">
+      <c r="I42" s="4"/>
+      <c r="J42" s="21">
         <v>44924</v>
       </c>
-      <c r="K42" s="18" t="n">
+      <c r="K42" s="18">
         <v>5</v>
       </c>
-      <c r="L42" s="18" t="n">
+      <c r="L42" s="18">
         <v>40</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O42" s="6"/>
+      <c r="O42" s="3"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="21" t="n">
+      <c r="V42" s="1"/>
+      <c r="W42" s="21">
         <v>44928</v>
       </c>
-      <c r="X42" s="18" t="n">
+      <c r="X42" s="18">
         <v>3</v>
       </c>
-      <c r="Y42" s="18" t="n">
+      <c r="Y42" s="18">
         <v>0</v>
       </c>
       <c r="Z42" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -3206,31 +3511,31 @@
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="21" t="n">
+      <c r="I43" s="4"/>
+      <c r="J43" s="21">
         <v>44925</v>
       </c>
-      <c r="K43" s="18" t="n">
+      <c r="K43" s="18">
         <v>5</v>
       </c>
-      <c r="L43" s="18" t="n">
+      <c r="L43" s="18">
         <v>0</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O43" s="6"/>
+      <c r="O43" s="3"/>
       <c r="P43" s="28"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
-      <c r="V43" s="8"/>
+      <c r="V43" s="1"/>
       <c r="W43" s="21"/>
       <c r="X43" s="18"/>
       <c r="Y43" s="18"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -3238,31 +3543,31 @@
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="21" t="n">
+      <c r="I44" s="4"/>
+      <c r="J44" s="21">
         <v>44926</v>
       </c>
-      <c r="K44" s="18" t="n">
+      <c r="K44" s="18">
         <v>2</v>
       </c>
-      <c r="L44" s="18" t="n">
+      <c r="L44" s="18">
         <v>40</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="O44" s="6"/>
+      <c r="O44" s="3"/>
       <c r="P44" s="28"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
-      <c r="V44" s="8"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="21"/>
       <c r="X44" s="18"/>
       <c r="Y44" s="18"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3270,3250 +3575,3287 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="19"/>
-      <c r="O45" s="6"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="21">
+        <v>44927</v>
+      </c>
+      <c r="K45" s="18">
+        <v>6</v>
+      </c>
+      <c r="L45" s="18">
+        <v>50</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="3"/>
       <c r="P45" s="28"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="21" t="n">
+      <c r="V45" s="1"/>
+      <c r="W45" s="21">
         <v>44907</v>
       </c>
-      <c r="X45" s="18" t="n">
+      <c r="X45" s="18">
         <v>1</v>
       </c>
-      <c r="Y45" s="18" t="n">
+      <c r="Y45" s="18">
         <v>50</v>
       </c>
       <c r="Z45" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="35"/>
-      <c r="V46" s="8"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="21">
+        <v>44928</v>
+      </c>
+      <c r="K46" s="18">
+        <v>5</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="48"/>
+      <c r="V46" s="1"/>
       <c r="W46" s="19"/>
       <c r="X46" s="19"/>
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34"/>
-      <c r="B47" s="36" t="n">
-        <f aca="false">SUM(B3:B45)</f>
+      <c r="B47" s="35">
+        <f>SUM(B3:B45)</f>
         <v>25</v>
       </c>
-      <c r="C47" s="36" t="n">
-        <f aca="false">(SUM(C3:C45)/60)</f>
+      <c r="C47" s="35">
+        <f>(SUM(C3:C45)/60)</f>
         <v>5.8</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="35"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-    </row>
-    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I47" s="4"/>
+      <c r="J47" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48">
+        <v>137</v>
+      </c>
+      <c r="V47" s="1"/>
+      <c r="W47" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="37"/>
-      <c r="V48" s="8"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="36"/>
+      <c r="V48" s="1"/>
       <c r="W48" s="21"/>
       <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="5"/>
-      <c r="V49" s="8"/>
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="4"/>
+      <c r="V49" s="1"/>
       <c r="W49" s="21"/>
       <c r="X49" s="18"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="5"/>
-      <c r="V50" s="8"/>
+    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="4"/>
+      <c r="V50" s="1"/>
       <c r="W50" s="21"/>
       <c r="X50" s="18"/>
       <c r="Y50" s="18"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="5"/>
-      <c r="V51" s="8"/>
+    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="4"/>
+      <c r="V51" s="1"/>
       <c r="W51" s="21"/>
       <c r="X51" s="18"/>
       <c r="Y51" s="18"/>
       <c r="Z51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="5"/>
-      <c r="V52" s="8"/>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="4"/>
+      <c r="V52" s="1"/>
       <c r="W52" s="21"/>
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
       <c r="Z52" s="19"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="36"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="36"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="36"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="36"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="38"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="36"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="36"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="43"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="46" t="s">
+    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="35"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46" t="n">
-        <f aca="false">SUM(K3:K57,B47,C47)+(SUM(L3:L57)/60)</f>
-        <v>125.133333333333</v>
-      </c>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46" t="n">
-        <f aca="false">SUM(Q3:Q57,B47,C47)+(SUM(R3:R57)/60)</f>
-        <v>140.716666666667</v>
-      </c>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46" t="n">
-        <f aca="false">SUM(X3:X57,B47,C47)+(SUM(Y3:Y57)/60)</f>
-        <v>148.133333333333</v>
-      </c>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="36"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="36"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="36"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="36"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="36"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="38"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="36"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="38"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="36"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="36"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="38"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="36"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I64" s="45"/>
+      <c r="J64" s="45">
+        <f>SUM(K3:K57,B47,C47)+(SUM(L3:L57)/60)</f>
+        <v>136.96666666666667</v>
+      </c>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45">
+        <f>SUM(Q3:Q57,B47,C47)+(SUM(R3:R57)/60)</f>
+        <v>140.71666666666667</v>
+      </c>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45">
+        <f>SUM(X3:X57,B47,C47)+(SUM(Y3:Y57)/60)</f>
+        <v>148.13333333333335</v>
+      </c>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="37"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="34"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+    </row>
+    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="34"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="34"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="34"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="34"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="34"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="34"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="34"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="34"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="34"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="34"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="34"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="34"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="34"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="34"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="34"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="34"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="34"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="34"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="34"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="34"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="34"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="34"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="34"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="34"/>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="34"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="34"/>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="34"/>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="34"/>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="34"/>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="34"/>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="34"/>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="34"/>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="34"/>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="34"/>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="34"/>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="34"/>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="34"/>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="34"/>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="34"/>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="34"/>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="34"/>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="34"/>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="34"/>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="34"/>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="34"/>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="34"/>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="34"/>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="34"/>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="34"/>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="34"/>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="34"/>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="34"/>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="34"/>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="34"/>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="34"/>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="34"/>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="34"/>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="34"/>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="34"/>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="34"/>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="34"/>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="34"/>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="34"/>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="34"/>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="34"/>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="34"/>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="34"/>
     </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="34"/>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="34"/>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="34"/>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="34"/>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="34"/>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="34"/>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="34"/>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="34"/>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="34"/>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="34"/>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="34"/>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="34"/>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="34"/>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="34"/>
     </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="34"/>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="34"/>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="34"/>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="34"/>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="34"/>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="34"/>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="34"/>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="34"/>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="34"/>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="34"/>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="34"/>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="34"/>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="34"/>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="34"/>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="34"/>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="34"/>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="34"/>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="34"/>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="34"/>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="34"/>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="34"/>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="34"/>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="34"/>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="34"/>
     </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="34"/>
     </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="34"/>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="34"/>
     </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="34"/>
     </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="34"/>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="34"/>
     </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="34"/>
     </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="34"/>
     </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="34"/>
     </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="34"/>
     </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="34"/>
     </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="34"/>
     </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="34"/>
     </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="34"/>
     </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="34"/>
     </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="34"/>
     </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="34"/>
     </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="34"/>
     </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="34"/>
     </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="34"/>
     </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="34"/>
     </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="34"/>
     </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="34"/>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="34"/>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="34"/>
     </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="34"/>
     </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="34"/>
     </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="34"/>
     </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="34"/>
     </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="34"/>
     </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="34"/>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="34"/>
     </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="34"/>
     </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="34"/>
     </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="34"/>
     </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="34"/>
     </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="34"/>
     </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="34"/>
     </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="34"/>
     </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="34"/>
     </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="34"/>
     </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="34"/>
     </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="34"/>
     </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="34"/>
     </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="34"/>
     </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="34"/>
     </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="34"/>
     </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="34"/>
     </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="34"/>
     </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="34"/>
     </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="34"/>
     </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="34"/>
     </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="34"/>
     </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="34"/>
     </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="34"/>
     </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="34"/>
     </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="34"/>
     </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="34"/>
     </row>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="34"/>
     </row>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="34"/>
     </row>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="34"/>
     </row>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="34"/>
     </row>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="34"/>
     </row>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="34"/>
     </row>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="34"/>
     </row>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="34"/>
     </row>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="34"/>
     </row>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="34"/>
     </row>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="34"/>
     </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="34"/>
     </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="34"/>
     </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="34"/>
     </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="34"/>
     </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="34"/>
     </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="34"/>
     </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="34"/>
     </row>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="34"/>
     </row>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="34"/>
     </row>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="34"/>
     </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="34"/>
     </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="34"/>
     </row>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="34"/>
     </row>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="34"/>
     </row>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="34"/>
     </row>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="34"/>
     </row>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="34"/>
     </row>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="34"/>
     </row>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="34"/>
     </row>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="34"/>
     </row>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="34"/>
     </row>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="34"/>
     </row>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="34"/>
     </row>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="34"/>
     </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="34"/>
     </row>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="34"/>
     </row>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="34"/>
     </row>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="34"/>
     </row>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="34"/>
     </row>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="34"/>
     </row>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="34"/>
     </row>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="34"/>
     </row>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="34"/>
     </row>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="34"/>
     </row>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="34"/>
     </row>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="34"/>
     </row>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="34"/>
     </row>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="34"/>
     </row>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="34"/>
     </row>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="34"/>
     </row>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="34"/>
     </row>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="34"/>
     </row>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="34"/>
     </row>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="34"/>
     </row>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="34"/>
     </row>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="34"/>
     </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="34"/>
     </row>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="34"/>
     </row>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="34"/>
     </row>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="34"/>
     </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="34"/>
     </row>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="34"/>
     </row>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="34"/>
     </row>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="34"/>
     </row>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="34"/>
     </row>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="34"/>
     </row>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="34"/>
     </row>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="34"/>
     </row>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="34"/>
     </row>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="34"/>
     </row>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="34"/>
     </row>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="34"/>
     </row>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="34"/>
     </row>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="34"/>
     </row>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="34"/>
     </row>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="34"/>
     </row>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="34"/>
     </row>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="34"/>
     </row>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="34"/>
     </row>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="34"/>
     </row>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="34"/>
     </row>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="34"/>
     </row>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="34"/>
     </row>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="34"/>
     </row>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="34"/>
     </row>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="34"/>
     </row>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="34"/>
     </row>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="34"/>
     </row>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="34"/>
     </row>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="34"/>
     </row>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="34"/>
     </row>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="34"/>
     </row>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="34"/>
     </row>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="34"/>
     </row>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="34"/>
     </row>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="34"/>
     </row>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="34"/>
     </row>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="34"/>
     </row>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="34"/>
     </row>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="34"/>
     </row>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="34"/>
     </row>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="34"/>
     </row>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="34"/>
     </row>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="34"/>
     </row>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="34"/>
     </row>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="34"/>
     </row>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="34"/>
     </row>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="34"/>
     </row>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="34"/>
     </row>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="34"/>
     </row>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="34"/>
     </row>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="34"/>
     </row>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="34"/>
     </row>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="34"/>
     </row>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="34"/>
     </row>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="34"/>
     </row>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="34"/>
     </row>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="34"/>
     </row>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="34"/>
     </row>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="34"/>
     </row>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="34"/>
     </row>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="34"/>
     </row>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="34"/>
     </row>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="34"/>
     </row>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="34"/>
     </row>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="34"/>
     </row>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="34"/>
     </row>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="34"/>
     </row>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="34"/>
     </row>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="34"/>
     </row>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="34"/>
     </row>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="34"/>
     </row>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="34"/>
     </row>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="34"/>
     </row>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="34"/>
     </row>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="34"/>
     </row>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="34"/>
     </row>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="34"/>
     </row>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="34"/>
     </row>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="34"/>
     </row>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="34"/>
     </row>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="34"/>
     </row>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="34"/>
     </row>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="34"/>
     </row>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="34"/>
     </row>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="34"/>
     </row>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="34"/>
     </row>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="34"/>
     </row>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="34"/>
     </row>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="34"/>
     </row>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="34"/>
     </row>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="34"/>
     </row>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="34"/>
     </row>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="34"/>
     </row>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="34"/>
     </row>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="34"/>
     </row>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="34"/>
     </row>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="34"/>
     </row>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="34"/>
     </row>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="34"/>
     </row>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="34"/>
     </row>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="34"/>
     </row>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="34"/>
     </row>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="34"/>
     </row>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="34"/>
     </row>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="34"/>
     </row>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="34"/>
     </row>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="34"/>
     </row>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="34"/>
     </row>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="34"/>
     </row>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="34"/>
     </row>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="34"/>
     </row>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="34"/>
     </row>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="34"/>
     </row>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="34"/>
     </row>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="34"/>
     </row>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="34"/>
     </row>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="34"/>
     </row>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="34"/>
     </row>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="34"/>
     </row>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="34"/>
     </row>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="34"/>
     </row>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="34"/>
     </row>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="34"/>
     </row>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="34"/>
     </row>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="34"/>
     </row>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="34"/>
     </row>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="34"/>
     </row>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="34"/>
     </row>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="34"/>
     </row>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="34"/>
     </row>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="34"/>
     </row>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="34"/>
     </row>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="34"/>
     </row>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="34"/>
     </row>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="34"/>
     </row>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="34"/>
     </row>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="34"/>
     </row>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="34"/>
     </row>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="34"/>
     </row>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="34"/>
     </row>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="34"/>
     </row>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="34"/>
     </row>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="34"/>
     </row>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="34"/>
     </row>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="34"/>
     </row>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="34"/>
     </row>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="34"/>
     </row>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="34"/>
     </row>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="34"/>
     </row>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="34"/>
     </row>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="34"/>
     </row>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="34"/>
     </row>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="34"/>
     </row>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="34"/>
     </row>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="34"/>
     </row>
-    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="34"/>
     </row>
-    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="34"/>
     </row>
-    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="34"/>
     </row>
-    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="34"/>
     </row>
-    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="34"/>
     </row>
-    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="34"/>
     </row>
-    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="34"/>
     </row>
-    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="34"/>
     </row>
-    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="34"/>
     </row>
-    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="34"/>
     </row>
-    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="34"/>
     </row>
-    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="34"/>
     </row>
-    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="34"/>
     </row>
-    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="34"/>
     </row>
-    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="34"/>
     </row>
-    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="34"/>
     </row>
-    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="34"/>
     </row>
-    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="34"/>
     </row>
-    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="34"/>
     </row>
-    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="34"/>
     </row>
-    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="34"/>
     </row>
-    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="34"/>
     </row>
-    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="34"/>
     </row>
-    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="34"/>
     </row>
-    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="34"/>
     </row>
-    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="34"/>
     </row>
-    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="34"/>
     </row>
-    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="34"/>
     </row>
-    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="34"/>
     </row>
-    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="34"/>
     </row>
-    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="34"/>
     </row>
-    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="34"/>
     </row>
-    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="34"/>
     </row>
-    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="34"/>
     </row>
-    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="34"/>
     </row>
-    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="34"/>
     </row>
-    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="34"/>
     </row>
-    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="34"/>
     </row>
-    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="34"/>
     </row>
-    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="34"/>
     </row>
-    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="34"/>
     </row>
-    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="34"/>
     </row>
-    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="34"/>
     </row>
-    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="34"/>
     </row>
-    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="34"/>
     </row>
-    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="34"/>
     </row>
-    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="34"/>
     </row>
-    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="34"/>
     </row>
-    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="34"/>
     </row>
-    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="34"/>
     </row>
-    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="34"/>
     </row>
-    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="34"/>
     </row>
-    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="34"/>
     </row>
-    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="34"/>
     </row>
-    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="34"/>
     </row>
-    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="34"/>
     </row>
-    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="34"/>
     </row>
-    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="34"/>
     </row>
-    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="34"/>
     </row>
-    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="34"/>
     </row>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="34"/>
     </row>
-    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="34"/>
     </row>
-    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="34"/>
     </row>
-    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="34"/>
     </row>
-    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="34"/>
     </row>
-    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="34"/>
     </row>
-    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="34"/>
     </row>
-    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="34"/>
     </row>
-    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="34"/>
     </row>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="34"/>
     </row>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="34"/>
     </row>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="34"/>
     </row>
-    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="34"/>
     </row>
-    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="34"/>
     </row>
-    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="34"/>
     </row>
-    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="34"/>
     </row>
-    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="34"/>
     </row>
-    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="34"/>
     </row>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="34"/>
     </row>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="34"/>
     </row>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="34"/>
     </row>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="34"/>
     </row>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="34"/>
     </row>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="34"/>
     </row>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="34"/>
     </row>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="34"/>
     </row>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="34"/>
     </row>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="34"/>
     </row>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="34"/>
     </row>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="34"/>
     </row>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="34"/>
     </row>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="34"/>
     </row>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="34"/>
     </row>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="34"/>
     </row>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="34"/>
     </row>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="34"/>
     </row>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="34"/>
     </row>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="34"/>
     </row>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="34"/>
     </row>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="34"/>
     </row>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="34"/>
     </row>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="34"/>
     </row>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="34"/>
     </row>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="34"/>
     </row>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="34"/>
     </row>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="34"/>
     </row>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="34"/>
     </row>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="34"/>
     </row>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="34"/>
     </row>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="34"/>
     </row>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="34"/>
     </row>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="34"/>
     </row>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="34"/>
     </row>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="34"/>
     </row>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="34"/>
     </row>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="34"/>
     </row>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="34"/>
     </row>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="34"/>
     </row>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="34"/>
     </row>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="34"/>
     </row>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="34"/>
     </row>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="34"/>
     </row>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="34"/>
     </row>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="34"/>
     </row>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="34"/>
     </row>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="34"/>
     </row>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="34"/>
     </row>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="34"/>
     </row>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="34"/>
     </row>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="34"/>
     </row>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="34"/>
     </row>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="34"/>
     </row>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="34"/>
     </row>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="34"/>
     </row>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="34"/>
     </row>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="34"/>
     </row>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="34"/>
     </row>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="34"/>
     </row>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="34"/>
     </row>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="34"/>
     </row>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="34"/>
     </row>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="34"/>
     </row>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="34"/>
     </row>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="34"/>
     </row>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="34"/>
     </row>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="34"/>
     </row>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="34"/>
     </row>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="34"/>
     </row>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="34"/>
     </row>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="34"/>
     </row>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="34"/>
     </row>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="34"/>
     </row>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="34"/>
     </row>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="34"/>
     </row>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="34"/>
     </row>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="34"/>
     </row>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="34"/>
     </row>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="34"/>
     </row>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="34"/>
     </row>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="34"/>
     </row>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="34"/>
     </row>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="34"/>
     </row>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="34"/>
     </row>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="34"/>
     </row>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="34"/>
     </row>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="34"/>
     </row>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="34"/>
     </row>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="34"/>
     </row>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="34"/>
     </row>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="34"/>
     </row>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="34"/>
     </row>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="34"/>
     </row>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="34"/>
     </row>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="34"/>
     </row>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="34"/>
     </row>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="34"/>
     </row>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="34"/>
     </row>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="34"/>
     </row>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="34"/>
     </row>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="34"/>
     </row>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="34"/>
     </row>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="34"/>
     </row>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="34"/>
     </row>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="34"/>
     </row>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="34"/>
     </row>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="34"/>
     </row>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="34"/>
     </row>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="34"/>
     </row>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="34"/>
     </row>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="34"/>
     </row>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="34"/>
     </row>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="34"/>
     </row>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="34"/>
     </row>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="34"/>
     </row>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="34"/>
     </row>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="34"/>
     </row>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="34"/>
     </row>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="34"/>
     </row>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="34"/>
     </row>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="34"/>
     </row>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="34"/>
     </row>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="34"/>
     </row>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="34"/>
     </row>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="34"/>
     </row>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="34"/>
     </row>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="34"/>
     </row>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="34"/>
     </row>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="34"/>
     </row>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="34"/>
     </row>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="34"/>
     </row>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="34"/>
     </row>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="34"/>
     </row>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="34"/>
     </row>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="34"/>
     </row>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="34"/>
     </row>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="34"/>
     </row>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="34"/>
     </row>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="34"/>
     </row>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="34"/>
     </row>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="34"/>
     </row>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="34"/>
     </row>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="34"/>
     </row>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="34"/>
     </row>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="34"/>
     </row>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="34"/>
     </row>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="34"/>
     </row>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="34"/>
     </row>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="34"/>
     </row>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="34"/>
     </row>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="34"/>
     </row>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="34"/>
     </row>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="34"/>
     </row>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="34"/>
     </row>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="34"/>
     </row>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="34"/>
     </row>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="34"/>
     </row>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="34"/>
     </row>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="34"/>
     </row>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="34"/>
     </row>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="34"/>
     </row>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="34"/>
     </row>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="34"/>
     </row>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="34"/>
     </row>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="34"/>
     </row>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="34"/>
     </row>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="34"/>
     </row>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="34"/>
     </row>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="34"/>
     </row>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="34"/>
     </row>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="34"/>
     </row>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="34"/>
     </row>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="34"/>
     </row>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="34"/>
     </row>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="34"/>
     </row>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="34"/>
     </row>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="34"/>
     </row>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="34"/>
     </row>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="34"/>
     </row>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="34"/>
     </row>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="34"/>
     </row>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="34"/>
     </row>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="34"/>
     </row>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="34"/>
     </row>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="34"/>
     </row>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="34"/>
     </row>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="34"/>
     </row>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="34"/>
     </row>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="34"/>
     </row>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="34"/>
     </row>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="34"/>
     </row>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="34"/>
     </row>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="34"/>
     </row>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="34"/>
     </row>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="34"/>
     </row>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="34"/>
     </row>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="34"/>
     </row>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="34"/>
     </row>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="34"/>
     </row>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="34"/>
     </row>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="34"/>
     </row>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="34"/>
     </row>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="34"/>
     </row>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="34"/>
     </row>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="34"/>
     </row>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="34"/>
     </row>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="34"/>
     </row>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="34"/>
     </row>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="34"/>
     </row>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="34"/>
     </row>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="34"/>
     </row>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="34"/>
     </row>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="34"/>
     </row>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="34"/>
     </row>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="34"/>
     </row>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="34"/>
     </row>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="34"/>
     </row>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="34"/>
     </row>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="34"/>
     </row>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="34"/>
     </row>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="34"/>
     </row>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="34"/>
     </row>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="34"/>
     </row>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="34"/>
     </row>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="34"/>
     </row>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="34"/>
     </row>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="34"/>
     </row>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="34"/>
     </row>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="34"/>
     </row>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="34"/>
     </row>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="34"/>
     </row>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="34"/>
     </row>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="34"/>
     </row>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="34"/>
     </row>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="34"/>
     </row>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="34"/>
     </row>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="34"/>
     </row>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="34"/>
     </row>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="34"/>
     </row>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="34"/>
     </row>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="34"/>
     </row>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="34"/>
     </row>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="34"/>
     </row>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="34"/>
     </row>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="34"/>
     </row>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="34"/>
     </row>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="34"/>
     </row>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="34"/>
     </row>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="34"/>
     </row>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="34"/>
     </row>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="34"/>
     </row>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="34"/>
     </row>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="34"/>
     </row>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="34"/>
     </row>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="34"/>
     </row>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="34"/>
     </row>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="34"/>
     </row>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="34"/>
     </row>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="34"/>
     </row>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="34"/>
     </row>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="34"/>
     </row>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="34"/>
     </row>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="34"/>
     </row>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="34"/>
     </row>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="34"/>
     </row>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="34"/>
     </row>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="34"/>
     </row>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="34"/>
     </row>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="34"/>
     </row>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="34"/>
     </row>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="34"/>
     </row>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="34"/>
     </row>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="34"/>
     </row>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="34"/>
     </row>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="34"/>
     </row>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="34"/>
     </row>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="34"/>
     </row>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="34"/>
     </row>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="34"/>
     </row>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="34"/>
     </row>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="34"/>
     </row>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="34"/>
     </row>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="34"/>
     </row>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="34"/>
     </row>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="34"/>
     </row>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="34"/>
     </row>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="34"/>
     </row>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="34"/>
     </row>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="34"/>
     </row>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="34"/>
     </row>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="34"/>
     </row>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="34"/>
     </row>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="34"/>
     </row>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="34"/>
     </row>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="34"/>
     </row>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="34"/>
     </row>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="34"/>
     </row>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="34"/>
     </row>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="34"/>
     </row>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="34"/>
     </row>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="34"/>
     </row>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="34"/>
     </row>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="34"/>
     </row>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="34"/>
     </row>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="34"/>
     </row>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="34"/>
     </row>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="34"/>
     </row>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="34"/>
     </row>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="34"/>
     </row>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="34"/>
     </row>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="34"/>
     </row>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="34"/>
     </row>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="34"/>
     </row>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="34"/>
     </row>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="34"/>
     </row>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="34"/>
     </row>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="34"/>
     </row>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="34"/>
     </row>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="34"/>
     </row>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="34"/>
     </row>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="34"/>
     </row>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="34"/>
     </row>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="34"/>
     </row>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="34"/>
     </row>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="34"/>
     </row>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="34"/>
     </row>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="34"/>
     </row>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="34"/>
     </row>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="34"/>
     </row>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="34"/>
     </row>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="34"/>
     </row>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="34"/>
     </row>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="34"/>
     </row>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="34"/>
     </row>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="34"/>
     </row>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="34"/>
     </row>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="34"/>
     </row>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="34"/>
     </row>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="34"/>
     </row>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="34"/>
     </row>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="34"/>
     </row>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="34"/>
     </row>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="34"/>
     </row>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="34"/>
     </row>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="34"/>
     </row>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="34"/>
     </row>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="34"/>
     </row>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="34"/>
     </row>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="34"/>
     </row>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="34"/>
     </row>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="34"/>
     </row>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="34"/>
     </row>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="34"/>
     </row>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="34"/>
     </row>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="34"/>
     </row>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="34"/>
     </row>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="34"/>
     </row>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="34"/>
     </row>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A893" s="34"/>
     </row>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A894" s="34"/>
     </row>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A895" s="34"/>
     </row>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A896" s="34"/>
     </row>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A897" s="34"/>
     </row>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A898" s="34"/>
     </row>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A899" s="34"/>
     </row>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A900" s="34"/>
     </row>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A901" s="34"/>
     </row>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A902" s="34"/>
     </row>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A903" s="34"/>
     </row>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A904" s="34"/>
     </row>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A905" s="34"/>
     </row>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A906" s="34"/>
     </row>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A907" s="34"/>
     </row>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A908" s="34"/>
     </row>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A909" s="34"/>
     </row>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A910" s="34"/>
     </row>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A911" s="34"/>
     </row>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A912" s="34"/>
     </row>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A913" s="34"/>
     </row>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A914" s="34"/>
     </row>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A915" s="34"/>
     </row>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A916" s="34"/>
     </row>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A917" s="34"/>
     </row>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A918" s="34"/>
     </row>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A919" s="34"/>
     </row>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A920" s="34"/>
     </row>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A921" s="34"/>
     </row>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A922" s="34"/>
     </row>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A923" s="34"/>
     </row>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A924" s="34"/>
     </row>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A925" s="34"/>
     </row>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A926" s="34"/>
     </row>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A927" s="34"/>
     </row>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A928" s="34"/>
     </row>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A929" s="34"/>
     </row>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A930" s="34"/>
     </row>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A931" s="34"/>
     </row>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A932" s="34"/>
     </row>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A933" s="34"/>
     </row>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A934" s="34"/>
     </row>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A935" s="34"/>
     </row>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A936" s="34"/>
     </row>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A937" s="34"/>
     </row>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A938" s="34"/>
     </row>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A939" s="34"/>
     </row>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A940" s="34"/>
     </row>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A941" s="34"/>
     </row>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A942" s="34"/>
     </row>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A943" s="34"/>
     </row>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A944" s="34"/>
     </row>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A945" s="34"/>
     </row>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A946" s="34"/>
     </row>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A947" s="34"/>
     </row>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A948" s="34"/>
     </row>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A949" s="34"/>
     </row>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A950" s="34"/>
     </row>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A951" s="34"/>
     </row>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A952" s="34"/>
     </row>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A953" s="34"/>
     </row>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A954" s="34"/>
     </row>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A955" s="34"/>
     </row>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A956" s="34"/>
     </row>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A957" s="34"/>
     </row>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A958" s="34"/>
     </row>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A959" s="34"/>
     </row>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A960" s="34"/>
     </row>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A961" s="34"/>
     </row>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A962" s="34"/>
     </row>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A963" s="34"/>
     </row>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A964" s="34"/>
     </row>
-    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A965" s="34"/>
     </row>
-    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A966" s="34"/>
     </row>
-    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A967" s="34"/>
     </row>
-    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A968" s="34"/>
     </row>
-    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A969" s="34"/>
     </row>
-    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A970" s="34"/>
     </row>
-    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A971" s="34"/>
     </row>
-    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A972" s="34"/>
     </row>
-    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A973" s="34"/>
     </row>
-    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A974" s="34"/>
     </row>
-    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A975" s="34"/>
     </row>
-    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A976" s="34"/>
     </row>
-    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A977" s="34"/>
     </row>
-    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A978" s="34"/>
     </row>
-    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A979" s="34"/>
     </row>
-    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A980" s="34"/>
     </row>
-    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A981" s="34"/>
     </row>
-    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A982" s="34"/>
     </row>
-    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A983" s="34"/>
     </row>
-    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A984" s="34"/>
     </row>
-    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A985" s="34"/>
     </row>
-    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A986" s="34"/>
     </row>
-    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A987" s="34"/>
     </row>
-    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A988" s="34"/>
     </row>
-    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A989" s="34"/>
     </row>
-    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A990" s="34"/>
     </row>
-    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A991" s="34"/>
     </row>
-    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A992" s="34"/>
     </row>
-    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A993" s="34"/>
     </row>
-    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A994" s="34"/>
     </row>
-    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A995" s="34"/>
     </row>
-    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A996" s="34"/>
     </row>
-    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="997" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A997" s="34"/>
     </row>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="998" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A998" s="34"/>
     </row>
-    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="999" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A999" s="34"/>
     </row>
-    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1000" s="34"/>
     </row>
-    <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1001" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1001" s="34"/>
     </row>
-    <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1002" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1002" s="34"/>
     </row>
-    <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1003" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1003" s="34"/>
     </row>
-    <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1004" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1004" s="34"/>
     </row>
-    <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1005" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1005" s="34"/>
     </row>
-    <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1006" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1006" s="34"/>
     </row>
-    <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1007" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1007" s="34"/>
     </row>
-    <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1008" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1008" s="34"/>
     </row>
-    <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1009" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1009" s="34"/>
     </row>
-    <row r="1010" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1010" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1010" s="34"/>
     </row>
-    <row r="1011" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1011" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1011" s="34"/>
     </row>
-    <row r="1012" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1012" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1012" s="34"/>
     </row>
-    <row r="1013" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1013" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1013" s="34"/>
     </row>
-    <row r="1014" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1014" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1014" s="34"/>
     </row>
-    <row r="1015" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1015" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1015" s="34"/>
     </row>
-    <row r="1016" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1016" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1016" s="34"/>
     </row>
-    <row r="1017" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1017" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1017" s="34"/>
     </row>
-    <row r="1018" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1018" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1018" s="34"/>
     </row>
-    <row r="1019" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1019" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1019" s="34"/>
     </row>
-    <row r="1020" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1020" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1020" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="V1:V52"/>
+    <mergeCell ref="I13:I57"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O45"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:I12"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O45"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="V1:V52"/>
-    <mergeCell ref="I13:I57"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/ore_progetto.xlsx
+++ b/ore_progetto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6455DC-F5CD-4861-8A6A-7A04B72E8250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{AA6455DC-F5CD-4861-8A6A-7A04B72E8250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2CE78C-84B9-45F3-99A2-8482D77DB870}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,30 +685,6 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,16 +782,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,6 +793,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1020"/>
+  <dimension ref="A1:AL1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1236,5622 +1236,5622 @@
     <col min="26" max="26" width="11.19140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="I1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AA1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AB1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AH1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="10" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="9" t="s">
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50"/>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="14" t="s">
+      <c r="M2" s="48"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="AD2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="16" t="s">
+      <c r="AE2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="AK2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="15"/>
-    </row>
-    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="10">
         <v>20</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="21">
+      <c r="I3" s="45"/>
+      <c r="J3" s="13">
         <v>44833</v>
       </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
         <v>20</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="17">
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="9">
         <v>44836</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="AC3" s="10">
         <v>3</v>
       </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19" t="s">
+      <c r="AD3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="18" t="s">
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="18">
+      <c r="AJ3" s="10">
         <v>1</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="AK3" s="10">
         <v>30</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AL3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="21">
+      <c r="I4" s="45"/>
+      <c r="J4" s="13">
         <v>44839</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="17">
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="9">
         <v>44840</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="AC4" s="10">
         <v>3</v>
       </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19" t="s">
+      <c r="AD4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="22">
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="14">
         <v>44602</v>
       </c>
-      <c r="X4" s="18">
+      <c r="AJ4" s="10">
         <v>4</v>
       </c>
-      <c r="Y4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AK4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+    <row r="5" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
         <v>44571</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="10">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="21">
+      <c r="I5" s="45"/>
+      <c r="J5" s="13">
         <v>44842</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="10">
         <v>20</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="17">
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="9">
         <v>44842</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="AC5" s="10">
         <v>4</v>
       </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19" t="s">
+      <c r="AD5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="22">
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="14">
         <v>44630</v>
       </c>
-      <c r="X5" s="18">
+      <c r="AJ5" s="10">
         <v>1</v>
       </c>
-      <c r="Y5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AK5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+    <row r="6" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <v>44630</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="22">
+      <c r="I6" s="45"/>
+      <c r="J6" s="14">
         <v>44843</v>
       </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
         <v>30</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="17">
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="9">
         <v>44843</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="AC6" s="10">
         <v>2</v>
       </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="19" t="s">
+      <c r="AD6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="22">
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="14">
         <v>44661</v>
       </c>
-      <c r="X6" s="18">
+      <c r="AJ6" s="10">
         <v>1</v>
       </c>
-      <c r="Y6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="19" t="s">
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+    <row r="7" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>44722</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="10">
         <v>30</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="22">
+      <c r="I7" s="45"/>
+      <c r="J7" s="14">
         <v>44844</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="17">
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="9">
         <v>44856</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="AC7" s="10">
         <v>2</v>
       </c>
-      <c r="R7" s="18">
-        <v>0</v>
-      </c>
-      <c r="S7" s="19" t="s">
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="23"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="22">
+      <c r="AF7" s="15"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="14">
         <v>44840</v>
       </c>
-      <c r="X7" s="18">
+      <c r="AJ7" s="10">
         <v>2</v>
       </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+    <row r="8" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
         <v>44783</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="18">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="17" t="s">
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="AC8" s="10">
         <v>2</v>
       </c>
-      <c r="R8" s="18">
+      <c r="AD8" s="10">
         <v>30</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="AE8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="21">
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="13">
         <v>44841</v>
       </c>
-      <c r="X8" s="18">
+      <c r="AJ8" s="10">
         <v>2</v>
       </c>
-      <c r="Y8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="19" t="s">
+      <c r="AK8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
+    <row r="9" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
         <v>44814</v>
       </c>
-      <c r="B9" s="18">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
         <v>40</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="22">
+      <c r="I9" s="45"/>
+      <c r="J9" s="14">
         <v>44854</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="10">
         <v>40</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="17">
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="9">
         <v>44753</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="AC9" s="10">
         <v>2</v>
       </c>
-      <c r="R9" s="18">
+      <c r="AD9" s="10">
         <v>30</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="AE9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="21">
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="13">
         <v>44842</v>
       </c>
-      <c r="X9" s="18">
+      <c r="AJ9" s="10">
         <v>6</v>
       </c>
-      <c r="Y9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="19" t="s">
+      <c r="AK9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="24">
+      <c r="I10" s="45"/>
+      <c r="J10" s="16">
         <v>44857</v>
       </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
         <v>20</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="17">
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="9">
         <v>44873</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="AC10" s="10">
         <v>1</v>
       </c>
-      <c r="R10" s="18">
+      <c r="AD10" s="10">
         <v>30</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="AE10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="21">
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="13">
         <v>44843</v>
       </c>
-      <c r="X10" s="18">
+      <c r="AJ10" s="10">
         <v>4</v>
       </c>
-      <c r="Y10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="19" t="s">
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="24">
+      <c r="I11" s="45"/>
+      <c r="J11" s="16">
         <v>44859</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19" t="s">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="17">
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="9">
         <v>44885</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="AC11" s="10">
         <v>2</v>
       </c>
-      <c r="R11" s="18">
-        <v>0</v>
-      </c>
-      <c r="S11" s="19" t="s">
+      <c r="AD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="21" t="s">
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="X11" s="18">
+      <c r="AJ11" s="10">
         <v>1</v>
       </c>
-      <c r="Y11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="21">
+      <c r="I12" s="45"/>
+      <c r="J12" s="13">
         <v>44870</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="19" t="s">
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="25">
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="17">
         <v>44887</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="AC12" s="18">
         <v>1</v>
       </c>
-      <c r="R12" s="26">
+      <c r="AD12" s="18">
         <v>30</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="AE12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="21" t="s">
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="18">
+      <c r="AJ12" s="10">
         <v>1</v>
       </c>
-      <c r="Y12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="19" t="s">
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
         <v>18</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="21">
+      <c r="I13" s="45"/>
+      <c r="J13" s="13">
         <v>44871</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="10">
         <v>1</v>
       </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="28">
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="20">
         <v>44888</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="AC13" s="21">
         <v>2</v>
       </c>
-      <c r="R13" s="29">
+      <c r="AD13" s="21">
         <v>30</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="AE13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="30">
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="22">
         <v>44891</v>
       </c>
-      <c r="X13" s="19">
+      <c r="AJ13" s="11">
         <v>1</v>
       </c>
-      <c r="Y13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="19" t="s">
+      <c r="AK13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="10">
         <v>30</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="21">
+      <c r="I14" s="45"/>
+      <c r="J14" s="13">
         <v>44872</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="10">
         <v>4</v>
       </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="28">
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="20">
         <v>44893</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="AC14" s="21">
         <v>2</v>
       </c>
-      <c r="R14" s="29">
+      <c r="AD14" s="21">
         <v>30</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="AE14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="19" t="s">
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19">
+      <c r="AJ14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="11">
         <v>30</v>
       </c>
-      <c r="Z14" s="19" t="s">
+      <c r="AL14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="10">
         <v>30</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="21">
+      <c r="I15" s="45"/>
+      <c r="J15" s="13">
         <v>44881</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="10">
         <v>2</v>
       </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="28">
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="20">
         <v>44895</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="AC15" s="21">
         <v>2</v>
       </c>
-      <c r="R15" s="29">
+      <c r="AD15" s="21">
         <v>20</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="AE15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="21">
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="13">
         <v>44872</v>
       </c>
-      <c r="X15" s="18">
+      <c r="AJ15" s="10">
         <v>3</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="AK15" s="10">
         <v>30</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="AL15" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="21">
+      <c r="I16" s="45"/>
+      <c r="J16" s="13">
         <v>44882</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19" t="s">
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="31" t="s">
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="AC16" s="24">
         <v>2</v>
       </c>
-      <c r="R16" s="32">
-        <v>0</v>
-      </c>
-      <c r="S16" s="32" t="s">
+      <c r="AD16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="21">
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="13">
         <v>44873</v>
       </c>
-      <c r="X16" s="18">
+      <c r="AJ16" s="10">
         <v>2</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="AK16" s="10">
         <v>30</v>
       </c>
-      <c r="Z16" s="19" t="s">
+      <c r="AL16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="10">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="21">
+      <c r="I17" s="45"/>
+      <c r="J17" s="13">
         <v>44883</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="10">
         <v>1</v>
       </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19" t="s">
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="28">
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="20">
         <v>44902</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="AC17" s="21">
         <v>1</v>
       </c>
-      <c r="R17" s="29">
+      <c r="AD17" s="21">
         <v>30</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="AE17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="21">
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="13">
         <v>44874</v>
       </c>
-      <c r="X17" s="18">
+      <c r="AJ17" s="10">
         <v>5</v>
       </c>
-      <c r="Y17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="19" t="s">
+      <c r="AK17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+    <row r="18" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>44893</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="10">
         <v>30</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="21">
+      <c r="I18" s="45"/>
+      <c r="J18" s="13">
         <v>44884</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="10">
         <v>3</v>
       </c>
-      <c r="L18" s="18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19" t="s">
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="28">
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="20">
         <v>44904</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="AC18" s="21">
         <v>1</v>
       </c>
-      <c r="R18" s="29">
+      <c r="AD18" s="21">
         <v>40</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="AE18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="21">
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="13">
         <v>44881</v>
       </c>
-      <c r="X18" s="18">
+      <c r="AJ18" s="10">
         <v>2</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="AK18" s="10">
         <v>30</v>
       </c>
-      <c r="Z18" s="19" t="s">
+      <c r="AL18" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+    <row r="19" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>44895</v>
       </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
         <v>40</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="21">
+      <c r="I19" s="45"/>
+      <c r="J19" s="13">
         <v>44888</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="10">
         <v>3</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="10">
         <v>30</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="28">
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="20">
         <v>44907</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="AC19" s="21">
         <v>3</v>
       </c>
-      <c r="R19" s="29">
-        <v>0</v>
-      </c>
-      <c r="S19" s="29" t="s">
+      <c r="AD19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="21">
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="13">
         <v>44886</v>
       </c>
-      <c r="X19" s="18">
+      <c r="AJ19" s="10">
         <v>1</v>
       </c>
-      <c r="Y19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="19" t="s">
+      <c r="AK19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
+    <row r="20" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>44902</v>
       </c>
-      <c r="B20" s="18">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
         <v>40</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="21">
+      <c r="I20" s="45"/>
+      <c r="J20" s="13">
         <v>44889</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="10">
         <v>30</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="28">
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="20">
         <v>44911</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="AC20" s="21">
         <v>1</v>
       </c>
-      <c r="R20" s="29">
+      <c r="AD20" s="21">
         <v>30</v>
       </c>
-      <c r="S20" s="29" t="s">
+      <c r="AE20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="21">
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="13">
         <v>44892</v>
       </c>
-      <c r="X20" s="18">
+      <c r="AJ20" s="10">
         <v>1</v>
       </c>
-      <c r="Y20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="19" t="s">
+      <c r="AK20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+    <row r="21" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>44896</v>
       </c>
-      <c r="B21" s="18">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="21">
+      <c r="I21" s="45"/>
+      <c r="J21" s="13">
         <v>44893</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="10">
         <v>30</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="28">
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="20">
         <v>44914</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="AC21" s="21">
         <v>3</v>
       </c>
-      <c r="R21" s="29">
+      <c r="AD21" s="21">
         <v>20</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="AE21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="21">
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="13">
         <v>44893</v>
       </c>
-      <c r="X21" s="18">
+      <c r="AJ21" s="10">
         <v>2</v>
       </c>
-      <c r="Y21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="19" t="s">
+      <c r="AK21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+    <row r="22" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>44905</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="10">
         <v>2</v>
       </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="21">
+      <c r="I22" s="45"/>
+      <c r="J22" s="13">
         <v>44895</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="10">
         <v>2</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="10">
         <v>40</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="28">
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="20">
         <v>44915</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="AC22" s="21">
         <v>3</v>
       </c>
-      <c r="R22" s="29">
+      <c r="AD22" s="21">
         <v>40</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="AE22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="21">
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="13">
         <v>44894</v>
       </c>
-      <c r="X22" s="18">
+      <c r="AJ22" s="10">
         <v>4</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="AK22" s="10">
         <v>30</v>
       </c>
-      <c r="Z22" s="19" t="s">
+      <c r="AL22" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+    <row r="23" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>44907</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="21">
+      <c r="I23" s="45"/>
+      <c r="J23" s="13">
         <v>44896</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="10">
         <v>1</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="10">
         <v>30</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="28">
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="20">
         <v>44916</v>
       </c>
-      <c r="Q23" s="29">
-        <v>0</v>
-      </c>
-      <c r="R23" s="29">
+      <c r="AC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="21">
         <v>20</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="AE23" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="21">
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="13">
         <v>44895</v>
       </c>
-      <c r="X23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="18">
+      <c r="AJ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="10">
         <v>30</v>
       </c>
-      <c r="Z23" s="19" t="s">
+      <c r="AL23" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17">
+    <row r="24" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>44922</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="21">
+      <c r="I24" s="45"/>
+      <c r="J24" s="13">
         <v>44897</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="10">
         <v>5</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="10">
         <v>20</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="28">
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="20">
         <v>44917</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="AC24" s="21">
         <v>4</v>
       </c>
-      <c r="R24" s="29">
-        <v>0</v>
-      </c>
-      <c r="S24" s="29" t="s">
+      <c r="AD24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="21">
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="13">
         <v>44902</v>
       </c>
-      <c r="X24" s="18">
+      <c r="AJ24" s="10">
         <v>1</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="AK24" s="10">
         <v>40</v>
       </c>
-      <c r="Z24" s="19" t="s">
+      <c r="AL24" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="21">
+    <row r="25" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="13">
         <v>44901</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="10">
         <v>2</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="10">
         <v>20</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="28">
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="20">
         <v>44918</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="AC25" s="21">
         <v>4</v>
       </c>
-      <c r="R25" s="29">
+      <c r="AD25" s="21">
         <v>30</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="AE25" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="21">
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="13">
         <v>44903</v>
       </c>
-      <c r="X25" s="18">
+      <c r="AJ25" s="10">
         <v>2</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="AK25" s="10">
         <v>30</v>
       </c>
-      <c r="Z25" s="19" t="s">
+      <c r="AL25" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="21">
+    <row r="26" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="13">
         <v>44902</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="10">
         <v>3</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="10">
         <v>30</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="28">
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="20">
         <v>44919</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="AC26" s="21">
         <v>1</v>
       </c>
-      <c r="R26" s="29">
+      <c r="AD26" s="21">
         <v>20</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="AE26" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="21">
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="13">
         <v>44903</v>
       </c>
-      <c r="X26" s="18">
+      <c r="AJ26" s="10">
         <v>2</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="AK26" s="10">
         <v>30</v>
       </c>
-      <c r="Z26" s="19" t="s">
+      <c r="AL26" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="21">
+    <row r="27" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="13">
         <v>44903</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="10">
         <v>1</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="10">
         <v>30</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="28">
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="20">
         <v>44920</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="AC27" s="21">
         <v>6</v>
       </c>
-      <c r="R27" s="29">
+      <c r="AD27" s="21">
         <v>15</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="AE27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="21">
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="13">
         <v>44907</v>
       </c>
-      <c r="X27" s="18">
+      <c r="AJ27" s="10">
         <v>1</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="AK27" s="10">
         <v>50</v>
       </c>
-      <c r="Z27" s="19" t="s">
+      <c r="AL27" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="21">
+    <row r="28" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="13">
         <v>44904</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="10">
         <v>3</v>
       </c>
-      <c r="L28" s="18">
-        <v>0</v>
-      </c>
-      <c r="M28" s="19" t="s">
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="28">
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="20">
         <v>44922</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="AC28" s="21">
         <v>5</v>
       </c>
-      <c r="R28" s="29">
+      <c r="AD28" s="21">
         <v>40</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="AE28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="33">
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="25">
         <v>44911</v>
       </c>
-      <c r="X28" s="19">
+      <c r="AJ28" s="11">
         <v>2</v>
       </c>
-      <c r="Y28" s="19">
+      <c r="AK28" s="11">
         <v>30</v>
       </c>
-      <c r="Z28" s="19" t="s">
+      <c r="AL28" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="21">
+    <row r="29" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="13">
         <v>44905</v>
       </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
         <v>20</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="28">
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="20">
         <v>44923</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="AC29" s="21">
         <v>7</v>
       </c>
-      <c r="R29" s="29">
+      <c r="AD29" s="21">
         <v>20</v>
       </c>
-      <c r="S29" s="29" t="s">
+      <c r="AE29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="21">
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="13">
         <v>44912</v>
       </c>
-      <c r="X29" s="18">
+      <c r="AJ29" s="10">
         <v>6</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="AK29" s="10">
         <v>30</v>
       </c>
-      <c r="Z29" s="19" t="s">
+      <c r="AL29" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="21">
+    <row r="30" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="13">
         <v>44907</v>
       </c>
-      <c r="K30" s="18">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10">
         <v>40</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="28">
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="20">
         <v>44924</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="AC30" s="21">
         <v>6</v>
       </c>
-      <c r="R30" s="29">
+      <c r="AD30" s="21">
         <v>50</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="AE30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="V30" s="1"/>
-      <c r="W30" s="21">
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="13">
         <v>44913</v>
       </c>
-      <c r="X30" s="18">
+      <c r="AJ30" s="10">
         <v>2</v>
       </c>
-      <c r="Y30" s="18">
+      <c r="AK30" s="10">
         <v>20</v>
       </c>
-      <c r="Z30" s="19" t="s">
+      <c r="AL30" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="21">
+    <row r="31" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="13">
         <v>44910</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="10">
         <v>1</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="10">
         <v>40</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="28">
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="20">
         <v>44925</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="AC31" s="21">
         <v>8</v>
       </c>
-      <c r="R31" s="29">
-        <v>0</v>
-      </c>
-      <c r="S31" s="29" t="s">
+      <c r="AD31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="21">
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="13">
         <v>44916</v>
       </c>
-      <c r="X31" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="18">
+      <c r="AJ31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="10">
         <v>20</v>
       </c>
-      <c r="Z31" s="19" t="s">
+      <c r="AL31" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="21">
+    <row r="32" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="13">
         <v>44911</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="10">
         <v>2</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="10">
         <v>40</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="28">
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="20">
         <v>44926</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="AC32" s="21">
         <v>7</v>
       </c>
-      <c r="R32" s="29">
+      <c r="AD32" s="21">
         <v>20</v>
       </c>
-      <c r="S32" s="29" t="s">
+      <c r="AE32" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="V32" s="1"/>
-      <c r="W32" s="21">
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="13">
         <v>44917</v>
       </c>
-      <c r="X32" s="18">
+      <c r="AJ32" s="10">
         <v>4</v>
       </c>
-      <c r="Y32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="19" t="s">
+      <c r="AK32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="21">
+    <row r="33" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="13">
         <v>44912</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="10">
         <v>20</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="28">
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="20">
         <v>44927</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="AC33" s="21">
         <v>6</v>
       </c>
-      <c r="R33" s="29">
-        <v>0</v>
-      </c>
-      <c r="S33" s="29" t="s">
+      <c r="AD33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="21">
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="13">
         <v>44918</v>
       </c>
-      <c r="X33" s="18">
+      <c r="AJ33" s="10">
         <v>4</v>
       </c>
-      <c r="Y33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="19" t="s">
+      <c r="AK33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="21">
+    <row r="34" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="13">
         <v>44913</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="10">
         <v>3</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="10">
         <v>20</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="28">
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="20">
         <v>44928</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="AC34" s="21">
         <v>4</v>
       </c>
-      <c r="R34" s="29">
+      <c r="AD34" s="21">
         <v>20</v>
       </c>
-      <c r="S34" s="29" t="s">
+      <c r="AE34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="21">
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="13">
         <v>44919</v>
       </c>
-      <c r="X34" s="18">
+      <c r="AJ34" s="10">
         <v>5</v>
       </c>
-      <c r="Y34" s="18">
+      <c r="AK34" s="10">
         <v>20</v>
       </c>
-      <c r="Z34" s="19" t="s">
+      <c r="AL34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="21">
+    <row r="35" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="13">
         <v>44914</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="10">
         <v>5</v>
       </c>
-      <c r="L35" s="18">
-        <v>0</v>
-      </c>
-      <c r="M35" s="19" t="s">
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="21">
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="13">
         <v>44920</v>
       </c>
-      <c r="X35" s="18">
+      <c r="AJ35" s="10">
         <v>4</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="AK35" s="10">
         <v>30</v>
       </c>
-      <c r="Z35" s="19" t="s">
+      <c r="AL35" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="21">
+    <row r="36" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="13">
         <v>44915</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="10">
         <v>3</v>
       </c>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="19" t="s">
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="49" t="s">
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="48" t="s">
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="21">
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="13">
         <v>44921</v>
       </c>
-      <c r="X36" s="18">
+      <c r="AJ36" s="10">
         <v>5</v>
       </c>
-      <c r="Y36" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="19" t="s">
+      <c r="AK36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="21">
+    <row r="37" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="13">
         <v>44916</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="10">
         <v>1</v>
       </c>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19" t="s">
+      <c r="L37" s="10">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="21">
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="13">
         <v>44923</v>
       </c>
-      <c r="X37" s="18">
+      <c r="AJ37" s="10">
         <v>2</v>
       </c>
-      <c r="Y37" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="19" t="s">
+      <c r="AK37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="21">
+    <row r="38" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="13">
         <v>44917</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="10">
         <v>2</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="10">
         <v>50</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="21">
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="13">
         <v>44924</v>
       </c>
-      <c r="X38" s="18">
+      <c r="AJ38" s="10">
         <v>6</v>
       </c>
-      <c r="Y38" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="19" t="s">
+      <c r="AK38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="21">
+    <row r="39" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="13">
         <v>44920</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="10">
         <v>1</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="10">
         <v>10</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="21">
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="13">
         <v>44925</v>
       </c>
-      <c r="X39" s="18">
+      <c r="AJ39" s="10">
         <v>6</v>
       </c>
-      <c r="Y39" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="19" t="s">
+      <c r="AK39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="21">
+    <row r="40" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="13">
         <v>44922</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="10">
         <v>4</v>
       </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="19" t="s">
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O40" s="3"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="21">
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="13">
         <v>44926</v>
       </c>
-      <c r="X40" s="18">
+      <c r="AJ40" s="10">
         <v>6</v>
       </c>
-      <c r="Y40" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="19" t="s">
+      <c r="AK40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="21">
+    <row r="41" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="13">
         <v>44923</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="10">
         <v>5</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="10">
         <v>30</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="M41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="21">
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="13">
         <v>44927</v>
       </c>
-      <c r="X41" s="18">
+      <c r="AJ41" s="10">
         <v>2</v>
       </c>
-      <c r="Y41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="19" t="s">
+      <c r="AK41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="21">
+    <row r="42" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="13">
         <v>44924</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="10">
         <v>5</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="10">
         <v>40</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M42" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="21">
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="13">
         <v>44928</v>
       </c>
-      <c r="X42" s="18">
+      <c r="AJ42" s="10">
         <v>3</v>
       </c>
-      <c r="Y42" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="19" t="s">
+      <c r="AK42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="21">
+    <row r="43" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="13">
         <v>44925</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="10">
         <v>5</v>
       </c>
-      <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="19" t="s">
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="21">
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="11"/>
+    </row>
+    <row r="44" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="13">
         <v>44926</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="10">
         <v>2</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="10">
         <v>40</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="M44" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="21">
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="11"/>
+    </row>
+    <row r="45" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="13">
         <v>44927</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="10">
         <v>6</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="10">
         <v>50</v>
       </c>
-      <c r="M45" s="19" t="s">
+      <c r="M45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="O45" s="3"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="21">
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="13">
         <v>44907</v>
       </c>
-      <c r="X45" s="18">
+      <c r="AJ45" s="10">
         <v>1</v>
       </c>
-      <c r="Y45" s="18">
+      <c r="AK45" s="10">
         <v>50</v>
       </c>
-      <c r="Z45" s="19" t="s">
+      <c r="AL45" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="21">
+    <row r="46" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="26"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="13">
         <v>44928</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="10">
         <v>5</v>
       </c>
-      <c r="L46" s="18">
-        <v>0</v>
-      </c>
-      <c r="M46" s="19" t="s">
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="48"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35">
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="38"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+    </row>
+    <row r="47" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27">
         <f>SUM(B3:B45)</f>
         <v>25</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="27">
         <f>(SUM(C3:C45)/60)</f>
         <v>5.8</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="46" t="s">
         <v>127</v>
       </c>
       <c r="K47" s="47"/>
       <c r="L47" s="47"/>
-      <c r="M47" s="48">
+      <c r="M47" s="38">
         <v>137</v>
       </c>
-      <c r="V47" s="1"/>
-      <c r="W47" s="50" t="s">
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="19">
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="11">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="36"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="19"/>
-    </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="4"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="19"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="4"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="19"/>
-    </row>
-    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="4"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="19"/>
-    </row>
-    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="4"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="19"/>
-    </row>
-    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="35"/>
-    </row>
-    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="35"/>
-    </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="35"/>
-    </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="35"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="37"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="35"/>
-    </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="35"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="42"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="45" t="s">
+    <row r="48" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="28"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="11"/>
+    </row>
+    <row r="49" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="45"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="11"/>
+    </row>
+    <row r="50" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="45"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="11"/>
+    </row>
+    <row r="51" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="45"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="11"/>
+    </row>
+    <row r="52" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="45"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="11"/>
+    </row>
+    <row r="53" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="45"/>
+    </row>
+    <row r="54" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="45"/>
+    </row>
+    <row r="56" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="45"/>
+    </row>
+    <row r="58" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="29"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="29"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="34"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45">
+      <c r="I64" s="37"/>
+      <c r="J64" s="37">
         <f>SUM(K3:K57,B47,C47)+(SUM(L3:L57)/60)</f>
         <v>136.96666666666667</v>
       </c>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45">
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37">
         <f>SUM(Q3:Q57,B47,C47)+(SUM(R3:R57)/60)</f>
-        <v>140.71666666666667</v>
-      </c>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="45"/>
-      <c r="V64" s="45"/>
-      <c r="W64" s="45">
+        <v>30.8</v>
+      </c>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37">
         <f>SUM(X3:X57,B47,C47)+(SUM(Y3:Y57)/60)</f>
-        <v>148.13333333333335</v>
-      </c>
-      <c r="X64" s="45"/>
-      <c r="Y64" s="45"/>
-      <c r="Z64" s="45"/>
+        <v>30.8</v>
+      </c>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="35"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="27"/>
     </row>
     <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="37"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="35"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="27"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="35"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="37"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="35"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="37"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="35"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="37"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="35"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="37"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="35"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="37"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="35"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="37"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="35"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="34"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
     </row>
     <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="34"/>
+      <c r="A75" s="26"/>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="34"/>
+      <c r="A76" s="26"/>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="34"/>
+      <c r="A77" s="26"/>
     </row>
     <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="34"/>
+      <c r="A78" s="26"/>
     </row>
     <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="34"/>
+      <c r="A79" s="26"/>
     </row>
     <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="34"/>
+      <c r="A80" s="26"/>
     </row>
     <row r="81" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="34"/>
+      <c r="A81" s="26"/>
     </row>
     <row r="82" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="34"/>
+      <c r="A82" s="26"/>
     </row>
     <row r="83" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="34"/>
+      <c r="A83" s="26"/>
     </row>
     <row r="84" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="34"/>
+      <c r="A84" s="26"/>
     </row>
     <row r="85" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="34"/>
+      <c r="A85" s="26"/>
     </row>
     <row r="86" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="34"/>
+      <c r="A86" s="26"/>
     </row>
     <row r="87" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="34"/>
+      <c r="A87" s="26"/>
     </row>
     <row r="88" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="34"/>
+      <c r="A88" s="26"/>
     </row>
     <row r="89" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="34"/>
+      <c r="A89" s="26"/>
     </row>
     <row r="90" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="34"/>
+      <c r="A90" s="26"/>
     </row>
     <row r="91" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="34"/>
+      <c r="A91" s="26"/>
     </row>
     <row r="92" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="34"/>
+      <c r="A92" s="26"/>
     </row>
     <row r="93" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="34"/>
+      <c r="A93" s="26"/>
     </row>
     <row r="94" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="34"/>
+      <c r="A94" s="26"/>
     </row>
     <row r="95" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="34"/>
+      <c r="A95" s="26"/>
     </row>
     <row r="96" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="34"/>
+      <c r="A96" s="26"/>
     </row>
     <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="34"/>
+      <c r="A97" s="26"/>
     </row>
     <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="34"/>
+      <c r="A98" s="26"/>
     </row>
     <row r="99" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="34"/>
+      <c r="A99" s="26"/>
     </row>
     <row r="100" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="34"/>
+      <c r="A100" s="26"/>
     </row>
     <row r="101" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="34"/>
+      <c r="A101" s="26"/>
     </row>
     <row r="102" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="34"/>
+      <c r="A102" s="26"/>
     </row>
     <row r="103" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="34"/>
+      <c r="A103" s="26"/>
     </row>
     <row r="104" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="34"/>
+      <c r="A104" s="26"/>
     </row>
     <row r="105" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="34"/>
+      <c r="A105" s="26"/>
     </row>
     <row r="106" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="34"/>
+      <c r="A106" s="26"/>
     </row>
     <row r="107" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="34"/>
+      <c r="A107" s="26"/>
     </row>
     <row r="108" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="34"/>
+      <c r="A108" s="26"/>
     </row>
     <row r="109" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="34"/>
+      <c r="A109" s="26"/>
     </row>
     <row r="110" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="34"/>
+      <c r="A110" s="26"/>
     </row>
     <row r="111" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="34"/>
+      <c r="A111" s="26"/>
     </row>
     <row r="112" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="34"/>
+      <c r="A112" s="26"/>
     </row>
     <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="34"/>
+      <c r="A113" s="26"/>
     </row>
     <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="34"/>
+      <c r="A114" s="26"/>
     </row>
     <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="34"/>
+      <c r="A115" s="26"/>
     </row>
     <row r="116" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="34"/>
+      <c r="A116" s="26"/>
     </row>
     <row r="117" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="34"/>
+      <c r="A117" s="26"/>
     </row>
     <row r="118" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="34"/>
+      <c r="A118" s="26"/>
     </row>
     <row r="119" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="34"/>
+      <c r="A119" s="26"/>
     </row>
     <row r="120" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="34"/>
+      <c r="A120" s="26"/>
     </row>
     <row r="121" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="34"/>
+      <c r="A121" s="26"/>
     </row>
     <row r="122" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="34"/>
+      <c r="A122" s="26"/>
     </row>
     <row r="123" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="34"/>
+      <c r="A123" s="26"/>
     </row>
     <row r="124" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="34"/>
+      <c r="A124" s="26"/>
     </row>
     <row r="125" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="34"/>
+      <c r="A125" s="26"/>
     </row>
     <row r="126" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="34"/>
+      <c r="A126" s="26"/>
     </row>
     <row r="127" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="34"/>
+      <c r="A127" s="26"/>
     </row>
     <row r="128" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="34"/>
+      <c r="A128" s="26"/>
     </row>
     <row r="129" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="34"/>
+      <c r="A129" s="26"/>
     </row>
     <row r="130" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="34"/>
+      <c r="A130" s="26"/>
     </row>
     <row r="131" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="34"/>
+      <c r="A131" s="26"/>
     </row>
     <row r="132" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="34"/>
+      <c r="A132" s="26"/>
     </row>
     <row r="133" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="34"/>
+      <c r="A133" s="26"/>
     </row>
     <row r="134" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="34"/>
+      <c r="A134" s="26"/>
     </row>
     <row r="135" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="34"/>
+      <c r="A135" s="26"/>
     </row>
     <row r="136" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="34"/>
+      <c r="A136" s="26"/>
     </row>
     <row r="137" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="34"/>
+      <c r="A137" s="26"/>
     </row>
     <row r="138" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="34"/>
+      <c r="A138" s="26"/>
     </row>
     <row r="139" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="34"/>
+      <c r="A139" s="26"/>
     </row>
     <row r="140" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="34"/>
+      <c r="A140" s="26"/>
     </row>
     <row r="141" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="34"/>
+      <c r="A141" s="26"/>
     </row>
     <row r="142" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="34"/>
+      <c r="A142" s="26"/>
     </row>
     <row r="143" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="34"/>
+      <c r="A143" s="26"/>
     </row>
     <row r="144" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="34"/>
+      <c r="A144" s="26"/>
     </row>
     <row r="145" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="34"/>
+      <c r="A145" s="26"/>
     </row>
     <row r="146" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="34"/>
+      <c r="A146" s="26"/>
     </row>
     <row r="147" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="34"/>
+      <c r="A147" s="26"/>
     </row>
     <row r="148" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="34"/>
+      <c r="A148" s="26"/>
     </row>
     <row r="149" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="34"/>
+      <c r="A149" s="26"/>
     </row>
     <row r="150" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="34"/>
+      <c r="A150" s="26"/>
     </row>
     <row r="151" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="34"/>
+      <c r="A151" s="26"/>
     </row>
     <row r="152" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="34"/>
+      <c r="A152" s="26"/>
     </row>
     <row r="153" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="34"/>
+      <c r="A153" s="26"/>
     </row>
     <row r="154" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="34"/>
+      <c r="A154" s="26"/>
     </row>
     <row r="155" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="34"/>
+      <c r="A155" s="26"/>
     </row>
     <row r="156" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="34"/>
+      <c r="A156" s="26"/>
     </row>
     <row r="157" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="34"/>
+      <c r="A157" s="26"/>
     </row>
     <row r="158" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="34"/>
+      <c r="A158" s="26"/>
     </row>
     <row r="159" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="34"/>
+      <c r="A159" s="26"/>
     </row>
     <row r="160" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="34"/>
+      <c r="A160" s="26"/>
     </row>
     <row r="161" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="34"/>
+      <c r="A161" s="26"/>
     </row>
     <row r="162" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="34"/>
+      <c r="A162" s="26"/>
     </row>
     <row r="163" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="34"/>
+      <c r="A163" s="26"/>
     </row>
     <row r="164" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="34"/>
+      <c r="A164" s="26"/>
     </row>
     <row r="165" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="34"/>
+      <c r="A165" s="26"/>
     </row>
     <row r="166" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="34"/>
+      <c r="A166" s="26"/>
     </row>
     <row r="167" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="34"/>
+      <c r="A167" s="26"/>
     </row>
     <row r="168" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="34"/>
+      <c r="A168" s="26"/>
     </row>
     <row r="169" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="34"/>
+      <c r="A169" s="26"/>
     </row>
     <row r="170" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="34"/>
+      <c r="A170" s="26"/>
     </row>
     <row r="171" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="34"/>
+      <c r="A171" s="26"/>
     </row>
     <row r="172" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="34"/>
+      <c r="A172" s="26"/>
     </row>
     <row r="173" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="34"/>
+      <c r="A173" s="26"/>
     </row>
     <row r="174" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="34"/>
+      <c r="A174" s="26"/>
     </row>
     <row r="175" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="34"/>
+      <c r="A175" s="26"/>
     </row>
     <row r="176" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="34"/>
+      <c r="A176" s="26"/>
     </row>
     <row r="177" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="34"/>
+      <c r="A177" s="26"/>
     </row>
     <row r="178" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="34"/>
+      <c r="A178" s="26"/>
     </row>
     <row r="179" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="34"/>
+      <c r="A179" s="26"/>
     </row>
     <row r="180" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="34"/>
+      <c r="A180" s="26"/>
     </row>
     <row r="181" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="34"/>
+      <c r="A181" s="26"/>
     </row>
     <row r="182" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="34"/>
+      <c r="A182" s="26"/>
     </row>
     <row r="183" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="34"/>
+      <c r="A183" s="26"/>
     </row>
     <row r="184" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="34"/>
+      <c r="A184" s="26"/>
     </row>
     <row r="185" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="34"/>
+      <c r="A185" s="26"/>
     </row>
     <row r="186" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="34"/>
+      <c r="A186" s="26"/>
     </row>
     <row r="187" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="34"/>
+      <c r="A187" s="26"/>
     </row>
     <row r="188" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="34"/>
+      <c r="A188" s="26"/>
     </row>
     <row r="189" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="34"/>
+      <c r="A189" s="26"/>
     </row>
     <row r="190" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="34"/>
+      <c r="A190" s="26"/>
     </row>
     <row r="191" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="34"/>
+      <c r="A191" s="26"/>
     </row>
     <row r="192" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="34"/>
+      <c r="A192" s="26"/>
     </row>
     <row r="193" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="34"/>
+      <c r="A193" s="26"/>
     </row>
     <row r="194" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="34"/>
+      <c r="A194" s="26"/>
     </row>
     <row r="195" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="34"/>
+      <c r="A195" s="26"/>
     </row>
     <row r="196" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="34"/>
+      <c r="A196" s="26"/>
     </row>
     <row r="197" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="34"/>
+      <c r="A197" s="26"/>
     </row>
     <row r="198" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="34"/>
+      <c r="A198" s="26"/>
     </row>
     <row r="199" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="34"/>
+      <c r="A199" s="26"/>
     </row>
     <row r="200" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="34"/>
+      <c r="A200" s="26"/>
     </row>
     <row r="201" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="34"/>
+      <c r="A201" s="26"/>
     </row>
     <row r="202" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="34"/>
+      <c r="A202" s="26"/>
     </row>
     <row r="203" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="34"/>
+      <c r="A203" s="26"/>
     </row>
     <row r="204" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="34"/>
+      <c r="A204" s="26"/>
     </row>
     <row r="205" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="34"/>
+      <c r="A205" s="26"/>
     </row>
     <row r="206" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="34"/>
+      <c r="A206" s="26"/>
     </row>
     <row r="207" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="34"/>
+      <c r="A207" s="26"/>
     </row>
     <row r="208" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="34"/>
+      <c r="A208" s="26"/>
     </row>
     <row r="209" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="34"/>
+      <c r="A209" s="26"/>
     </row>
     <row r="210" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="34"/>
+      <c r="A210" s="26"/>
     </row>
     <row r="211" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="34"/>
+      <c r="A211" s="26"/>
     </row>
     <row r="212" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="34"/>
+      <c r="A212" s="26"/>
     </row>
     <row r="213" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="34"/>
+      <c r="A213" s="26"/>
     </row>
     <row r="214" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="34"/>
+      <c r="A214" s="26"/>
     </row>
     <row r="215" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="34"/>
+      <c r="A215" s="26"/>
     </row>
     <row r="216" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="34"/>
+      <c r="A216" s="26"/>
     </row>
     <row r="217" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="34"/>
+      <c r="A217" s="26"/>
     </row>
     <row r="218" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="34"/>
+      <c r="A218" s="26"/>
     </row>
     <row r="219" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="34"/>
+      <c r="A219" s="26"/>
     </row>
     <row r="220" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="34"/>
+      <c r="A220" s="26"/>
     </row>
     <row r="221" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="34"/>
+      <c r="A221" s="26"/>
     </row>
     <row r="222" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="34"/>
+      <c r="A222" s="26"/>
     </row>
     <row r="223" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="34"/>
+      <c r="A223" s="26"/>
     </row>
     <row r="224" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="34"/>
+      <c r="A224" s="26"/>
     </row>
     <row r="225" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="34"/>
+      <c r="A225" s="26"/>
     </row>
     <row r="226" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="34"/>
+      <c r="A226" s="26"/>
     </row>
     <row r="227" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="34"/>
+      <c r="A227" s="26"/>
     </row>
     <row r="228" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="34"/>
+      <c r="A228" s="26"/>
     </row>
     <row r="229" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="34"/>
+      <c r="A229" s="26"/>
     </row>
     <row r="230" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="34"/>
+      <c r="A230" s="26"/>
     </row>
     <row r="231" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="34"/>
+      <c r="A231" s="26"/>
     </row>
     <row r="232" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="34"/>
+      <c r="A232" s="26"/>
     </row>
     <row r="233" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="34"/>
+      <c r="A233" s="26"/>
     </row>
     <row r="234" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="34"/>
+      <c r="A234" s="26"/>
     </row>
     <row r="235" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="34"/>
+      <c r="A235" s="26"/>
     </row>
     <row r="236" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="34"/>
+      <c r="A236" s="26"/>
     </row>
     <row r="237" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="34"/>
+      <c r="A237" s="26"/>
     </row>
     <row r="238" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="34"/>
+      <c r="A238" s="26"/>
     </row>
     <row r="239" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="34"/>
+      <c r="A239" s="26"/>
     </row>
     <row r="240" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="34"/>
+      <c r="A240" s="26"/>
     </row>
     <row r="241" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="34"/>
+      <c r="A241" s="26"/>
     </row>
     <row r="242" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="34"/>
+      <c r="A242" s="26"/>
     </row>
     <row r="243" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="34"/>
+      <c r="A243" s="26"/>
     </row>
     <row r="244" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="34"/>
+      <c r="A244" s="26"/>
     </row>
     <row r="245" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="34"/>
+      <c r="A245" s="26"/>
     </row>
     <row r="246" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="34"/>
+      <c r="A246" s="26"/>
     </row>
     <row r="247" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="34"/>
+      <c r="A247" s="26"/>
     </row>
     <row r="248" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="34"/>
+      <c r="A248" s="26"/>
     </row>
     <row r="249" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="34"/>
+      <c r="A249" s="26"/>
     </row>
     <row r="250" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="34"/>
+      <c r="A250" s="26"/>
     </row>
     <row r="251" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="34"/>
+      <c r="A251" s="26"/>
     </row>
     <row r="252" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="34"/>
+      <c r="A252" s="26"/>
     </row>
     <row r="253" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="34"/>
+      <c r="A253" s="26"/>
     </row>
     <row r="254" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="34"/>
+      <c r="A254" s="26"/>
     </row>
     <row r="255" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="34"/>
+      <c r="A255" s="26"/>
     </row>
     <row r="256" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="34"/>
+      <c r="A256" s="26"/>
     </row>
     <row r="257" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="34"/>
+      <c r="A257" s="26"/>
     </row>
     <row r="258" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="34"/>
+      <c r="A258" s="26"/>
     </row>
     <row r="259" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="34"/>
+      <c r="A259" s="26"/>
     </row>
     <row r="260" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="34"/>
+      <c r="A260" s="26"/>
     </row>
     <row r="261" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="34"/>
+      <c r="A261" s="26"/>
     </row>
     <row r="262" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="34"/>
+      <c r="A262" s="26"/>
     </row>
     <row r="263" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="34"/>
+      <c r="A263" s="26"/>
     </row>
     <row r="264" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="34"/>
+      <c r="A264" s="26"/>
     </row>
     <row r="265" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="34"/>
+      <c r="A265" s="26"/>
     </row>
     <row r="266" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="34"/>
+      <c r="A266" s="26"/>
     </row>
     <row r="267" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="34"/>
+      <c r="A267" s="26"/>
     </row>
     <row r="268" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="34"/>
+      <c r="A268" s="26"/>
     </row>
     <row r="269" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="34"/>
+      <c r="A269" s="26"/>
     </row>
     <row r="270" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="34"/>
+      <c r="A270" s="26"/>
     </row>
     <row r="271" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="34"/>
+      <c r="A271" s="26"/>
     </row>
     <row r="272" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="34"/>
+      <c r="A272" s="26"/>
     </row>
     <row r="273" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="34"/>
+      <c r="A273" s="26"/>
     </row>
     <row r="274" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="34"/>
+      <c r="A274" s="26"/>
     </row>
     <row r="275" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="34"/>
+      <c r="A275" s="26"/>
     </row>
     <row r="276" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="34"/>
+      <c r="A276" s="26"/>
     </row>
     <row r="277" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="34"/>
+      <c r="A277" s="26"/>
     </row>
     <row r="278" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="34"/>
+      <c r="A278" s="26"/>
     </row>
     <row r="279" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="34"/>
+      <c r="A279" s="26"/>
     </row>
     <row r="280" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="34"/>
+      <c r="A280" s="26"/>
     </row>
     <row r="281" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="34"/>
+      <c r="A281" s="26"/>
     </row>
     <row r="282" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="34"/>
+      <c r="A282" s="26"/>
     </row>
     <row r="283" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="34"/>
+      <c r="A283" s="26"/>
     </row>
     <row r="284" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="34"/>
+      <c r="A284" s="26"/>
     </row>
     <row r="285" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="34"/>
+      <c r="A285" s="26"/>
     </row>
     <row r="286" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="34"/>
+      <c r="A286" s="26"/>
     </row>
     <row r="287" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="34"/>
+      <c r="A287" s="26"/>
     </row>
     <row r="288" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="34"/>
+      <c r="A288" s="26"/>
     </row>
     <row r="289" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="34"/>
+      <c r="A289" s="26"/>
     </row>
     <row r="290" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="34"/>
+      <c r="A290" s="26"/>
     </row>
     <row r="291" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="34"/>
+      <c r="A291" s="26"/>
     </row>
     <row r="292" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="34"/>
+      <c r="A292" s="26"/>
     </row>
     <row r="293" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="34"/>
+      <c r="A293" s="26"/>
     </row>
     <row r="294" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="34"/>
+      <c r="A294" s="26"/>
     </row>
     <row r="295" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="34"/>
+      <c r="A295" s="26"/>
     </row>
     <row r="296" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="34"/>
+      <c r="A296" s="26"/>
     </row>
     <row r="297" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="34"/>
+      <c r="A297" s="26"/>
     </row>
     <row r="298" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="34"/>
+      <c r="A298" s="26"/>
     </row>
     <row r="299" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="34"/>
+      <c r="A299" s="26"/>
     </row>
     <row r="300" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="34"/>
+      <c r="A300" s="26"/>
     </row>
     <row r="301" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="34"/>
+      <c r="A301" s="26"/>
     </row>
     <row r="302" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="34"/>
+      <c r="A302" s="26"/>
     </row>
     <row r="303" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="34"/>
+      <c r="A303" s="26"/>
     </row>
     <row r="304" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="34"/>
+      <c r="A304" s="26"/>
     </row>
     <row r="305" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="34"/>
+      <c r="A305" s="26"/>
     </row>
     <row r="306" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="34"/>
+      <c r="A306" s="26"/>
     </row>
     <row r="307" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="34"/>
+      <c r="A307" s="26"/>
     </row>
     <row r="308" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="34"/>
+      <c r="A308" s="26"/>
     </row>
     <row r="309" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="34"/>
+      <c r="A309" s="26"/>
     </row>
     <row r="310" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="34"/>
+      <c r="A310" s="26"/>
     </row>
     <row r="311" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="34"/>
+      <c r="A311" s="26"/>
     </row>
     <row r="312" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="34"/>
+      <c r="A312" s="26"/>
     </row>
     <row r="313" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="34"/>
+      <c r="A313" s="26"/>
     </row>
     <row r="314" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="34"/>
+      <c r="A314" s="26"/>
     </row>
     <row r="315" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="34"/>
+      <c r="A315" s="26"/>
     </row>
     <row r="316" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="34"/>
+      <c r="A316" s="26"/>
     </row>
     <row r="317" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="34"/>
+      <c r="A317" s="26"/>
     </row>
     <row r="318" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="34"/>
+      <c r="A318" s="26"/>
     </row>
     <row r="319" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="34"/>
+      <c r="A319" s="26"/>
     </row>
     <row r="320" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="34"/>
+      <c r="A320" s="26"/>
     </row>
     <row r="321" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="34"/>
+      <c r="A321" s="26"/>
     </row>
     <row r="322" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="34"/>
+      <c r="A322" s="26"/>
     </row>
     <row r="323" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="34"/>
+      <c r="A323" s="26"/>
     </row>
     <row r="324" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="34"/>
+      <c r="A324" s="26"/>
     </row>
     <row r="325" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="34"/>
+      <c r="A325" s="26"/>
     </row>
     <row r="326" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="34"/>
+      <c r="A326" s="26"/>
     </row>
     <row r="327" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="34"/>
+      <c r="A327" s="26"/>
     </row>
     <row r="328" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="34"/>
+      <c r="A328" s="26"/>
     </row>
     <row r="329" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="34"/>
+      <c r="A329" s="26"/>
     </row>
     <row r="330" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="34"/>
+      <c r="A330" s="26"/>
     </row>
     <row r="331" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="34"/>
+      <c r="A331" s="26"/>
     </row>
     <row r="332" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A332" s="34"/>
+      <c r="A332" s="26"/>
     </row>
     <row r="333" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="34"/>
+      <c r="A333" s="26"/>
     </row>
     <row r="334" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="34"/>
+      <c r="A334" s="26"/>
     </row>
     <row r="335" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="34"/>
+      <c r="A335" s="26"/>
     </row>
     <row r="336" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="34"/>
+      <c r="A336" s="26"/>
     </row>
     <row r="337" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A337" s="34"/>
+      <c r="A337" s="26"/>
     </row>
     <row r="338" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="34"/>
+      <c r="A338" s="26"/>
     </row>
     <row r="339" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A339" s="34"/>
+      <c r="A339" s="26"/>
     </row>
     <row r="340" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="34"/>
+      <c r="A340" s="26"/>
     </row>
     <row r="341" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A341" s="34"/>
+      <c r="A341" s="26"/>
     </row>
     <row r="342" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="34"/>
+      <c r="A342" s="26"/>
     </row>
     <row r="343" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="34"/>
+      <c r="A343" s="26"/>
     </row>
     <row r="344" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="34"/>
+      <c r="A344" s="26"/>
     </row>
     <row r="345" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="34"/>
+      <c r="A345" s="26"/>
     </row>
     <row r="346" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="34"/>
+      <c r="A346" s="26"/>
     </row>
     <row r="347" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A347" s="34"/>
+      <c r="A347" s="26"/>
     </row>
     <row r="348" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="34"/>
+      <c r="A348" s="26"/>
     </row>
     <row r="349" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="34"/>
+      <c r="A349" s="26"/>
     </row>
     <row r="350" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="34"/>
+      <c r="A350" s="26"/>
     </row>
     <row r="351" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A351" s="34"/>
+      <c r="A351" s="26"/>
     </row>
     <row r="352" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="34"/>
+      <c r="A352" s="26"/>
     </row>
     <row r="353" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A353" s="34"/>
+      <c r="A353" s="26"/>
     </row>
     <row r="354" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A354" s="34"/>
+      <c r="A354" s="26"/>
     </row>
     <row r="355" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A355" s="34"/>
+      <c r="A355" s="26"/>
     </row>
     <row r="356" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="34"/>
+      <c r="A356" s="26"/>
     </row>
     <row r="357" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="34"/>
+      <c r="A357" s="26"/>
     </row>
     <row r="358" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A358" s="34"/>
+      <c r="A358" s="26"/>
     </row>
     <row r="359" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="34"/>
+      <c r="A359" s="26"/>
     </row>
     <row r="360" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A360" s="34"/>
+      <c r="A360" s="26"/>
     </row>
     <row r="361" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="34"/>
+      <c r="A361" s="26"/>
     </row>
     <row r="362" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="34"/>
+      <c r="A362" s="26"/>
     </row>
     <row r="363" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A363" s="34"/>
+      <c r="A363" s="26"/>
     </row>
     <row r="364" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A364" s="34"/>
+      <c r="A364" s="26"/>
     </row>
     <row r="365" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A365" s="34"/>
+      <c r="A365" s="26"/>
     </row>
     <row r="366" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A366" s="34"/>
+      <c r="A366" s="26"/>
     </row>
     <row r="367" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A367" s="34"/>
+      <c r="A367" s="26"/>
     </row>
     <row r="368" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A368" s="34"/>
+      <c r="A368" s="26"/>
     </row>
     <row r="369" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="34"/>
+      <c r="A369" s="26"/>
     </row>
     <row r="370" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A370" s="34"/>
+      <c r="A370" s="26"/>
     </row>
     <row r="371" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A371" s="34"/>
+      <c r="A371" s="26"/>
     </row>
     <row r="372" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="34"/>
+      <c r="A372" s="26"/>
     </row>
     <row r="373" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A373" s="34"/>
+      <c r="A373" s="26"/>
     </row>
     <row r="374" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A374" s="34"/>
+      <c r="A374" s="26"/>
     </row>
     <row r="375" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A375" s="34"/>
+      <c r="A375" s="26"/>
     </row>
     <row r="376" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="34"/>
+      <c r="A376" s="26"/>
     </row>
     <row r="377" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A377" s="34"/>
+      <c r="A377" s="26"/>
     </row>
     <row r="378" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A378" s="34"/>
+      <c r="A378" s="26"/>
     </row>
     <row r="379" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A379" s="34"/>
+      <c r="A379" s="26"/>
     </row>
     <row r="380" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="34"/>
+      <c r="A380" s="26"/>
     </row>
     <row r="381" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A381" s="34"/>
+      <c r="A381" s="26"/>
     </row>
     <row r="382" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A382" s="34"/>
+      <c r="A382" s="26"/>
     </row>
     <row r="383" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="34"/>
+      <c r="A383" s="26"/>
     </row>
     <row r="384" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A384" s="34"/>
+      <c r="A384" s="26"/>
     </row>
     <row r="385" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A385" s="34"/>
+      <c r="A385" s="26"/>
     </row>
     <row r="386" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A386" s="34"/>
+      <c r="A386" s="26"/>
     </row>
     <row r="387" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A387" s="34"/>
+      <c r="A387" s="26"/>
     </row>
     <row r="388" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A388" s="34"/>
+      <c r="A388" s="26"/>
     </row>
     <row r="389" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A389" s="34"/>
+      <c r="A389" s="26"/>
     </row>
     <row r="390" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="34"/>
+      <c r="A390" s="26"/>
     </row>
     <row r="391" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="34"/>
+      <c r="A391" s="26"/>
     </row>
     <row r="392" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="34"/>
+      <c r="A392" s="26"/>
     </row>
     <row r="393" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="34"/>
+      <c r="A393" s="26"/>
     </row>
     <row r="394" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="34"/>
+      <c r="A394" s="26"/>
     </row>
     <row r="395" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="34"/>
+      <c r="A395" s="26"/>
     </row>
     <row r="396" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="34"/>
+      <c r="A396" s="26"/>
     </row>
     <row r="397" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="34"/>
+      <c r="A397" s="26"/>
     </row>
     <row r="398" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="34"/>
+      <c r="A398" s="26"/>
     </row>
     <row r="399" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="34"/>
+      <c r="A399" s="26"/>
     </row>
     <row r="400" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="34"/>
+      <c r="A400" s="26"/>
     </row>
     <row r="401" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="34"/>
+      <c r="A401" s="26"/>
     </row>
     <row r="402" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="34"/>
+      <c r="A402" s="26"/>
     </row>
     <row r="403" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="34"/>
+      <c r="A403" s="26"/>
     </row>
     <row r="404" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="34"/>
+      <c r="A404" s="26"/>
     </row>
     <row r="405" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="34"/>
+      <c r="A405" s="26"/>
     </row>
     <row r="406" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="34"/>
+      <c r="A406" s="26"/>
     </row>
     <row r="407" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="34"/>
+      <c r="A407" s="26"/>
     </row>
     <row r="408" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="34"/>
+      <c r="A408" s="26"/>
     </row>
     <row r="409" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A409" s="34"/>
+      <c r="A409" s="26"/>
     </row>
     <row r="410" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A410" s="34"/>
+      <c r="A410" s="26"/>
     </row>
     <row r="411" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A411" s="34"/>
+      <c r="A411" s="26"/>
     </row>
     <row r="412" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="34"/>
+      <c r="A412" s="26"/>
     </row>
     <row r="413" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="34"/>
+      <c r="A413" s="26"/>
     </row>
     <row r="414" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="34"/>
+      <c r="A414" s="26"/>
     </row>
     <row r="415" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A415" s="34"/>
+      <c r="A415" s="26"/>
     </row>
     <row r="416" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A416" s="34"/>
+      <c r="A416" s="26"/>
     </row>
     <row r="417" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="34"/>
+      <c r="A417" s="26"/>
     </row>
     <row r="418" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="34"/>
+      <c r="A418" s="26"/>
     </row>
     <row r="419" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A419" s="34"/>
+      <c r="A419" s="26"/>
     </row>
     <row r="420" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A420" s="34"/>
+      <c r="A420" s="26"/>
     </row>
     <row r="421" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="34"/>
+      <c r="A421" s="26"/>
     </row>
     <row r="422" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="34"/>
+      <c r="A422" s="26"/>
     </row>
     <row r="423" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="34"/>
+      <c r="A423" s="26"/>
     </row>
     <row r="424" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="34"/>
+      <c r="A424" s="26"/>
     </row>
     <row r="425" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="34"/>
+      <c r="A425" s="26"/>
     </row>
     <row r="426" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="34"/>
+      <c r="A426" s="26"/>
     </row>
     <row r="427" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="34"/>
+      <c r="A427" s="26"/>
     </row>
     <row r="428" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="34"/>
+      <c r="A428" s="26"/>
     </row>
     <row r="429" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="34"/>
+      <c r="A429" s="26"/>
     </row>
     <row r="430" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="34"/>
+      <c r="A430" s="26"/>
     </row>
     <row r="431" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="34"/>
+      <c r="A431" s="26"/>
     </row>
     <row r="432" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="34"/>
+      <c r="A432" s="26"/>
     </row>
     <row r="433" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="34"/>
+      <c r="A433" s="26"/>
     </row>
     <row r="434" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="34"/>
+      <c r="A434" s="26"/>
     </row>
     <row r="435" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="34"/>
+      <c r="A435" s="26"/>
     </row>
     <row r="436" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="34"/>
+      <c r="A436" s="26"/>
     </row>
     <row r="437" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="34"/>
+      <c r="A437" s="26"/>
     </row>
     <row r="438" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="34"/>
+      <c r="A438" s="26"/>
     </row>
     <row r="439" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="34"/>
+      <c r="A439" s="26"/>
     </row>
     <row r="440" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="34"/>
+      <c r="A440" s="26"/>
     </row>
     <row r="441" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="34"/>
+      <c r="A441" s="26"/>
     </row>
     <row r="442" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="34"/>
+      <c r="A442" s="26"/>
     </row>
     <row r="443" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="34"/>
+      <c r="A443" s="26"/>
     </row>
     <row r="444" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="34"/>
+      <c r="A444" s="26"/>
     </row>
     <row r="445" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="34"/>
+      <c r="A445" s="26"/>
     </row>
     <row r="446" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="34"/>
+      <c r="A446" s="26"/>
     </row>
     <row r="447" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="34"/>
+      <c r="A447" s="26"/>
     </row>
     <row r="448" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="34"/>
+      <c r="A448" s="26"/>
     </row>
     <row r="449" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="34"/>
+      <c r="A449" s="26"/>
     </row>
     <row r="450" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="34"/>
+      <c r="A450" s="26"/>
     </row>
     <row r="451" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="34"/>
+      <c r="A451" s="26"/>
     </row>
     <row r="452" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="34"/>
+      <c r="A452" s="26"/>
     </row>
     <row r="453" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="34"/>
+      <c r="A453" s="26"/>
     </row>
     <row r="454" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="34"/>
+      <c r="A454" s="26"/>
     </row>
     <row r="455" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="34"/>
+      <c r="A455" s="26"/>
     </row>
     <row r="456" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="34"/>
+      <c r="A456" s="26"/>
     </row>
     <row r="457" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="34"/>
+      <c r="A457" s="26"/>
     </row>
     <row r="458" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="34"/>
+      <c r="A458" s="26"/>
     </row>
     <row r="459" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="34"/>
+      <c r="A459" s="26"/>
     </row>
     <row r="460" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="34"/>
+      <c r="A460" s="26"/>
     </row>
     <row r="461" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="34"/>
+      <c r="A461" s="26"/>
     </row>
     <row r="462" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="34"/>
+      <c r="A462" s="26"/>
     </row>
     <row r="463" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="34"/>
+      <c r="A463" s="26"/>
     </row>
     <row r="464" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="34"/>
+      <c r="A464" s="26"/>
     </row>
     <row r="465" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="34"/>
+      <c r="A465" s="26"/>
     </row>
     <row r="466" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="34"/>
+      <c r="A466" s="26"/>
     </row>
     <row r="467" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="34"/>
+      <c r="A467" s="26"/>
     </row>
     <row r="468" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="34"/>
+      <c r="A468" s="26"/>
     </row>
     <row r="469" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="34"/>
+      <c r="A469" s="26"/>
     </row>
     <row r="470" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="34"/>
+      <c r="A470" s="26"/>
     </row>
     <row r="471" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="34"/>
+      <c r="A471" s="26"/>
     </row>
     <row r="472" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="34"/>
+      <c r="A472" s="26"/>
     </row>
     <row r="473" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="34"/>
+      <c r="A473" s="26"/>
     </row>
     <row r="474" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="34"/>
+      <c r="A474" s="26"/>
     </row>
     <row r="475" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="34"/>
+      <c r="A475" s="26"/>
     </row>
     <row r="476" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="34"/>
+      <c r="A476" s="26"/>
     </row>
     <row r="477" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="34"/>
+      <c r="A477" s="26"/>
     </row>
     <row r="478" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="34"/>
+      <c r="A478" s="26"/>
     </row>
     <row r="479" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="34"/>
+      <c r="A479" s="26"/>
     </row>
     <row r="480" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="34"/>
+      <c r="A480" s="26"/>
     </row>
     <row r="481" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="34"/>
+      <c r="A481" s="26"/>
     </row>
     <row r="482" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="34"/>
+      <c r="A482" s="26"/>
     </row>
     <row r="483" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="34"/>
+      <c r="A483" s="26"/>
     </row>
     <row r="484" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="34"/>
+      <c r="A484" s="26"/>
     </row>
     <row r="485" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="34"/>
+      <c r="A485" s="26"/>
     </row>
     <row r="486" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="34"/>
+      <c r="A486" s="26"/>
     </row>
     <row r="487" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="34"/>
+      <c r="A487" s="26"/>
     </row>
     <row r="488" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="34"/>
+      <c r="A488" s="26"/>
     </row>
     <row r="489" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="34"/>
+      <c r="A489" s="26"/>
     </row>
     <row r="490" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="34"/>
+      <c r="A490" s="26"/>
     </row>
     <row r="491" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="34"/>
+      <c r="A491" s="26"/>
     </row>
     <row r="492" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="34"/>
+      <c r="A492" s="26"/>
     </row>
     <row r="493" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="34"/>
+      <c r="A493" s="26"/>
     </row>
     <row r="494" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="34"/>
+      <c r="A494" s="26"/>
     </row>
     <row r="495" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="34"/>
+      <c r="A495" s="26"/>
     </row>
     <row r="496" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="34"/>
+      <c r="A496" s="26"/>
     </row>
     <row r="497" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="34"/>
+      <c r="A497" s="26"/>
     </row>
     <row r="498" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="34"/>
+      <c r="A498" s="26"/>
     </row>
     <row r="499" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="34"/>
+      <c r="A499" s="26"/>
     </row>
     <row r="500" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="34"/>
+      <c r="A500" s="26"/>
     </row>
     <row r="501" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="34"/>
+      <c r="A501" s="26"/>
     </row>
     <row r="502" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="34"/>
+      <c r="A502" s="26"/>
     </row>
     <row r="503" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="34"/>
+      <c r="A503" s="26"/>
     </row>
     <row r="504" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="34"/>
+      <c r="A504" s="26"/>
     </row>
     <row r="505" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="34"/>
+      <c r="A505" s="26"/>
     </row>
     <row r="506" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="34"/>
+      <c r="A506" s="26"/>
     </row>
     <row r="507" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="34"/>
+      <c r="A507" s="26"/>
     </row>
     <row r="508" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="34"/>
+      <c r="A508" s="26"/>
     </row>
     <row r="509" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="34"/>
+      <c r="A509" s="26"/>
     </row>
     <row r="510" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="34"/>
+      <c r="A510" s="26"/>
     </row>
     <row r="511" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="34"/>
+      <c r="A511" s="26"/>
     </row>
     <row r="512" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="34"/>
+      <c r="A512" s="26"/>
     </row>
     <row r="513" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="34"/>
+      <c r="A513" s="26"/>
     </row>
     <row r="514" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="34"/>
+      <c r="A514" s="26"/>
     </row>
     <row r="515" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="34"/>
+      <c r="A515" s="26"/>
     </row>
     <row r="516" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="34"/>
+      <c r="A516" s="26"/>
     </row>
     <row r="517" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="34"/>
+      <c r="A517" s="26"/>
     </row>
     <row r="518" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="34"/>
+      <c r="A518" s="26"/>
     </row>
     <row r="519" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="34"/>
+      <c r="A519" s="26"/>
     </row>
     <row r="520" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="34"/>
+      <c r="A520" s="26"/>
     </row>
     <row r="521" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="34"/>
+      <c r="A521" s="26"/>
     </row>
     <row r="522" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="34"/>
+      <c r="A522" s="26"/>
     </row>
     <row r="523" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="34"/>
+      <c r="A523" s="26"/>
     </row>
     <row r="524" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="34"/>
+      <c r="A524" s="26"/>
     </row>
     <row r="525" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="34"/>
+      <c r="A525" s="26"/>
     </row>
     <row r="526" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="34"/>
+      <c r="A526" s="26"/>
     </row>
     <row r="527" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="34"/>
+      <c r="A527" s="26"/>
     </row>
     <row r="528" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="34"/>
+      <c r="A528" s="26"/>
     </row>
     <row r="529" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="34"/>
+      <c r="A529" s="26"/>
     </row>
     <row r="530" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="34"/>
+      <c r="A530" s="26"/>
     </row>
     <row r="531" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="34"/>
+      <c r="A531" s="26"/>
     </row>
     <row r="532" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="34"/>
+      <c r="A532" s="26"/>
     </row>
     <row r="533" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="34"/>
+      <c r="A533" s="26"/>
     </row>
     <row r="534" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="34"/>
+      <c r="A534" s="26"/>
     </row>
     <row r="535" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="34"/>
+      <c r="A535" s="26"/>
     </row>
     <row r="536" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="34"/>
+      <c r="A536" s="26"/>
     </row>
     <row r="537" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="34"/>
+      <c r="A537" s="26"/>
     </row>
     <row r="538" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="34"/>
+      <c r="A538" s="26"/>
     </row>
     <row r="539" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="34"/>
+      <c r="A539" s="26"/>
     </row>
     <row r="540" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="34"/>
+      <c r="A540" s="26"/>
     </row>
     <row r="541" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="34"/>
+      <c r="A541" s="26"/>
     </row>
     <row r="542" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="34"/>
+      <c r="A542" s="26"/>
     </row>
     <row r="543" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="34"/>
+      <c r="A543" s="26"/>
     </row>
     <row r="544" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="34"/>
+      <c r="A544" s="26"/>
     </row>
     <row r="545" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="34"/>
+      <c r="A545" s="26"/>
     </row>
     <row r="546" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="34"/>
+      <c r="A546" s="26"/>
     </row>
     <row r="547" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="34"/>
+      <c r="A547" s="26"/>
     </row>
     <row r="548" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="34"/>
+      <c r="A548" s="26"/>
     </row>
     <row r="549" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="34"/>
+      <c r="A549" s="26"/>
     </row>
     <row r="550" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="34"/>
+      <c r="A550" s="26"/>
     </row>
     <row r="551" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="34"/>
+      <c r="A551" s="26"/>
     </row>
     <row r="552" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A552" s="34"/>
+      <c r="A552" s="26"/>
     </row>
     <row r="553" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A553" s="34"/>
+      <c r="A553" s="26"/>
     </row>
     <row r="554" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A554" s="34"/>
+      <c r="A554" s="26"/>
     </row>
     <row r="555" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A555" s="34"/>
+      <c r="A555" s="26"/>
     </row>
     <row r="556" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A556" s="34"/>
+      <c r="A556" s="26"/>
     </row>
     <row r="557" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A557" s="34"/>
+      <c r="A557" s="26"/>
     </row>
     <row r="558" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A558" s="34"/>
+      <c r="A558" s="26"/>
     </row>
     <row r="559" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A559" s="34"/>
+      <c r="A559" s="26"/>
     </row>
     <row r="560" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A560" s="34"/>
+      <c r="A560" s="26"/>
     </row>
     <row r="561" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A561" s="34"/>
+      <c r="A561" s="26"/>
     </row>
     <row r="562" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A562" s="34"/>
+      <c r="A562" s="26"/>
     </row>
     <row r="563" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A563" s="34"/>
+      <c r="A563" s="26"/>
     </row>
     <row r="564" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A564" s="34"/>
+      <c r="A564" s="26"/>
     </row>
     <row r="565" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A565" s="34"/>
+      <c r="A565" s="26"/>
     </row>
     <row r="566" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A566" s="34"/>
+      <c r="A566" s="26"/>
     </row>
     <row r="567" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A567" s="34"/>
+      <c r="A567" s="26"/>
     </row>
     <row r="568" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A568" s="34"/>
+      <c r="A568" s="26"/>
     </row>
     <row r="569" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A569" s="34"/>
+      <c r="A569" s="26"/>
     </row>
     <row r="570" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A570" s="34"/>
+      <c r="A570" s="26"/>
     </row>
     <row r="571" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A571" s="34"/>
+      <c r="A571" s="26"/>
     </row>
     <row r="572" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A572" s="34"/>
+      <c r="A572" s="26"/>
     </row>
     <row r="573" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A573" s="34"/>
+      <c r="A573" s="26"/>
     </row>
     <row r="574" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A574" s="34"/>
+      <c r="A574" s="26"/>
     </row>
     <row r="575" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A575" s="34"/>
+      <c r="A575" s="26"/>
     </row>
     <row r="576" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A576" s="34"/>
+      <c r="A576" s="26"/>
     </row>
     <row r="577" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A577" s="34"/>
+      <c r="A577" s="26"/>
     </row>
     <row r="578" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A578" s="34"/>
+      <c r="A578" s="26"/>
     </row>
     <row r="579" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A579" s="34"/>
+      <c r="A579" s="26"/>
     </row>
     <row r="580" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A580" s="34"/>
+      <c r="A580" s="26"/>
     </row>
     <row r="581" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A581" s="34"/>
+      <c r="A581" s="26"/>
     </row>
     <row r="582" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A582" s="34"/>
+      <c r="A582" s="26"/>
     </row>
     <row r="583" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A583" s="34"/>
+      <c r="A583" s="26"/>
     </row>
     <row r="584" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A584" s="34"/>
+      <c r="A584" s="26"/>
     </row>
     <row r="585" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="34"/>
+      <c r="A585" s="26"/>
     </row>
     <row r="586" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="34"/>
+      <c r="A586" s="26"/>
     </row>
     <row r="587" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="34"/>
+      <c r="A587" s="26"/>
     </row>
     <row r="588" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="34"/>
+      <c r="A588" s="26"/>
     </row>
     <row r="589" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A589" s="34"/>
+      <c r="A589" s="26"/>
     </row>
     <row r="590" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="34"/>
+      <c r="A590" s="26"/>
     </row>
     <row r="591" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="34"/>
+      <c r="A591" s="26"/>
     </row>
     <row r="592" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A592" s="34"/>
+      <c r="A592" s="26"/>
     </row>
     <row r="593" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A593" s="34"/>
+      <c r="A593" s="26"/>
     </row>
     <row r="594" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A594" s="34"/>
+      <c r="A594" s="26"/>
     </row>
     <row r="595" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A595" s="34"/>
+      <c r="A595" s="26"/>
     </row>
     <row r="596" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="34"/>
+      <c r="A596" s="26"/>
     </row>
     <row r="597" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="34"/>
+      <c r="A597" s="26"/>
     </row>
     <row r="598" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="34"/>
+      <c r="A598" s="26"/>
     </row>
     <row r="599" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="34"/>
+      <c r="A599" s="26"/>
     </row>
     <row r="600" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="34"/>
+      <c r="A600" s="26"/>
     </row>
     <row r="601" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="34"/>
+      <c r="A601" s="26"/>
     </row>
     <row r="602" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="34"/>
+      <c r="A602" s="26"/>
     </row>
     <row r="603" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="34"/>
+      <c r="A603" s="26"/>
     </row>
     <row r="604" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="34"/>
+      <c r="A604" s="26"/>
     </row>
     <row r="605" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="34"/>
+      <c r="A605" s="26"/>
     </row>
     <row r="606" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="34"/>
+      <c r="A606" s="26"/>
     </row>
     <row r="607" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="34"/>
+      <c r="A607" s="26"/>
     </row>
     <row r="608" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="34"/>
+      <c r="A608" s="26"/>
     </row>
     <row r="609" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="34"/>
+      <c r="A609" s="26"/>
     </row>
     <row r="610" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="34"/>
+      <c r="A610" s="26"/>
     </row>
     <row r="611" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="34"/>
+      <c r="A611" s="26"/>
     </row>
     <row r="612" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="34"/>
+      <c r="A612" s="26"/>
     </row>
     <row r="613" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="34"/>
+      <c r="A613" s="26"/>
     </row>
     <row r="614" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="34"/>
+      <c r="A614" s="26"/>
     </row>
     <row r="615" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="34"/>
+      <c r="A615" s="26"/>
     </row>
     <row r="616" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="34"/>
+      <c r="A616" s="26"/>
     </row>
     <row r="617" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="34"/>
+      <c r="A617" s="26"/>
     </row>
     <row r="618" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="34"/>
+      <c r="A618" s="26"/>
     </row>
     <row r="619" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="34"/>
+      <c r="A619" s="26"/>
     </row>
     <row r="620" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="34"/>
+      <c r="A620" s="26"/>
     </row>
     <row r="621" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="34"/>
+      <c r="A621" s="26"/>
     </row>
     <row r="622" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="34"/>
+      <c r="A622" s="26"/>
     </row>
     <row r="623" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="34"/>
+      <c r="A623" s="26"/>
     </row>
     <row r="624" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="34"/>
+      <c r="A624" s="26"/>
     </row>
     <row r="625" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="34"/>
+      <c r="A625" s="26"/>
     </row>
     <row r="626" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A626" s="34"/>
+      <c r="A626" s="26"/>
     </row>
     <row r="627" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A627" s="34"/>
+      <c r="A627" s="26"/>
     </row>
     <row r="628" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A628" s="34"/>
+      <c r="A628" s="26"/>
     </row>
     <row r="629" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A629" s="34"/>
+      <c r="A629" s="26"/>
     </row>
     <row r="630" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A630" s="34"/>
+      <c r="A630" s="26"/>
     </row>
     <row r="631" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A631" s="34"/>
+      <c r="A631" s="26"/>
     </row>
     <row r="632" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A632" s="34"/>
+      <c r="A632" s="26"/>
     </row>
     <row r="633" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="34"/>
+      <c r="A633" s="26"/>
     </row>
     <row r="634" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="34"/>
+      <c r="A634" s="26"/>
     </row>
     <row r="635" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A635" s="34"/>
+      <c r="A635" s="26"/>
     </row>
     <row r="636" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A636" s="34"/>
+      <c r="A636" s="26"/>
     </row>
     <row r="637" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A637" s="34"/>
+      <c r="A637" s="26"/>
     </row>
     <row r="638" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A638" s="34"/>
+      <c r="A638" s="26"/>
     </row>
     <row r="639" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A639" s="34"/>
+      <c r="A639" s="26"/>
     </row>
     <row r="640" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A640" s="34"/>
+      <c r="A640" s="26"/>
     </row>
     <row r="641" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A641" s="34"/>
+      <c r="A641" s="26"/>
     </row>
     <row r="642" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A642" s="34"/>
+      <c r="A642" s="26"/>
     </row>
     <row r="643" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A643" s="34"/>
+      <c r="A643" s="26"/>
     </row>
     <row r="644" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A644" s="34"/>
+      <c r="A644" s="26"/>
     </row>
     <row r="645" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A645" s="34"/>
+      <c r="A645" s="26"/>
     </row>
     <row r="646" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A646" s="34"/>
+      <c r="A646" s="26"/>
     </row>
     <row r="647" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A647" s="34"/>
+      <c r="A647" s="26"/>
     </row>
     <row r="648" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A648" s="34"/>
+      <c r="A648" s="26"/>
     </row>
     <row r="649" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A649" s="34"/>
+      <c r="A649" s="26"/>
     </row>
     <row r="650" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A650" s="34"/>
+      <c r="A650" s="26"/>
     </row>
     <row r="651" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A651" s="34"/>
+      <c r="A651" s="26"/>
     </row>
     <row r="652" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A652" s="34"/>
+      <c r="A652" s="26"/>
     </row>
     <row r="653" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A653" s="34"/>
+      <c r="A653" s="26"/>
     </row>
     <row r="654" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A654" s="34"/>
+      <c r="A654" s="26"/>
     </row>
     <row r="655" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A655" s="34"/>
+      <c r="A655" s="26"/>
     </row>
     <row r="656" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A656" s="34"/>
+      <c r="A656" s="26"/>
     </row>
     <row r="657" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A657" s="34"/>
+      <c r="A657" s="26"/>
     </row>
     <row r="658" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A658" s="34"/>
+      <c r="A658" s="26"/>
     </row>
     <row r="659" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A659" s="34"/>
+      <c r="A659" s="26"/>
     </row>
     <row r="660" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A660" s="34"/>
+      <c r="A660" s="26"/>
     </row>
     <row r="661" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A661" s="34"/>
+      <c r="A661" s="26"/>
     </row>
     <row r="662" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A662" s="34"/>
+      <c r="A662" s="26"/>
     </row>
     <row r="663" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A663" s="34"/>
+      <c r="A663" s="26"/>
     </row>
     <row r="664" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A664" s="34"/>
+      <c r="A664" s="26"/>
     </row>
     <row r="665" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A665" s="34"/>
+      <c r="A665" s="26"/>
     </row>
     <row r="666" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A666" s="34"/>
+      <c r="A666" s="26"/>
     </row>
     <row r="667" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A667" s="34"/>
+      <c r="A667" s="26"/>
     </row>
     <row r="668" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A668" s="34"/>
+      <c r="A668" s="26"/>
     </row>
     <row r="669" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A669" s="34"/>
+      <c r="A669" s="26"/>
     </row>
     <row r="670" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A670" s="34"/>
+      <c r="A670" s="26"/>
     </row>
     <row r="671" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A671" s="34"/>
+      <c r="A671" s="26"/>
     </row>
     <row r="672" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A672" s="34"/>
+      <c r="A672" s="26"/>
     </row>
     <row r="673" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A673" s="34"/>
+      <c r="A673" s="26"/>
     </row>
     <row r="674" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A674" s="34"/>
+      <c r="A674" s="26"/>
     </row>
     <row r="675" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A675" s="34"/>
+      <c r="A675" s="26"/>
     </row>
     <row r="676" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A676" s="34"/>
+      <c r="A676" s="26"/>
     </row>
     <row r="677" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A677" s="34"/>
+      <c r="A677" s="26"/>
     </row>
     <row r="678" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A678" s="34"/>
+      <c r="A678" s="26"/>
     </row>
     <row r="679" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A679" s="34"/>
+      <c r="A679" s="26"/>
     </row>
     <row r="680" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A680" s="34"/>
+      <c r="A680" s="26"/>
     </row>
     <row r="681" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A681" s="34"/>
+      <c r="A681" s="26"/>
     </row>
     <row r="682" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A682" s="34"/>
+      <c r="A682" s="26"/>
     </row>
     <row r="683" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A683" s="34"/>
+      <c r="A683" s="26"/>
     </row>
     <row r="684" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A684" s="34"/>
+      <c r="A684" s="26"/>
     </row>
     <row r="685" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A685" s="34"/>
+      <c r="A685" s="26"/>
     </row>
     <row r="686" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A686" s="34"/>
+      <c r="A686" s="26"/>
     </row>
     <row r="687" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A687" s="34"/>
+      <c r="A687" s="26"/>
     </row>
     <row r="688" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A688" s="34"/>
+      <c r="A688" s="26"/>
     </row>
     <row r="689" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A689" s="34"/>
+      <c r="A689" s="26"/>
     </row>
     <row r="690" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A690" s="34"/>
+      <c r="A690" s="26"/>
     </row>
     <row r="691" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A691" s="34"/>
+      <c r="A691" s="26"/>
     </row>
     <row r="692" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A692" s="34"/>
+      <c r="A692" s="26"/>
     </row>
     <row r="693" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A693" s="34"/>
+      <c r="A693" s="26"/>
     </row>
     <row r="694" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A694" s="34"/>
+      <c r="A694" s="26"/>
     </row>
     <row r="695" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A695" s="34"/>
+      <c r="A695" s="26"/>
     </row>
     <row r="696" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A696" s="34"/>
+      <c r="A696" s="26"/>
     </row>
     <row r="697" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A697" s="34"/>
+      <c r="A697" s="26"/>
     </row>
     <row r="698" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A698" s="34"/>
+      <c r="A698" s="26"/>
     </row>
     <row r="699" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A699" s="34"/>
+      <c r="A699" s="26"/>
     </row>
     <row r="700" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A700" s="34"/>
+      <c r="A700" s="26"/>
     </row>
     <row r="701" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A701" s="34"/>
+      <c r="A701" s="26"/>
     </row>
     <row r="702" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A702" s="34"/>
+      <c r="A702" s="26"/>
     </row>
     <row r="703" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A703" s="34"/>
+      <c r="A703" s="26"/>
     </row>
     <row r="704" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A704" s="34"/>
+      <c r="A704" s="26"/>
     </row>
     <row r="705" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A705" s="34"/>
+      <c r="A705" s="26"/>
     </row>
     <row r="706" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A706" s="34"/>
+      <c r="A706" s="26"/>
     </row>
     <row r="707" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A707" s="34"/>
+      <c r="A707" s="26"/>
     </row>
     <row r="708" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A708" s="34"/>
+      <c r="A708" s="26"/>
     </row>
     <row r="709" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A709" s="34"/>
+      <c r="A709" s="26"/>
     </row>
     <row r="710" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A710" s="34"/>
+      <c r="A710" s="26"/>
     </row>
     <row r="711" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A711" s="34"/>
+      <c r="A711" s="26"/>
     </row>
     <row r="712" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A712" s="34"/>
+      <c r="A712" s="26"/>
     </row>
     <row r="713" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A713" s="34"/>
+      <c r="A713" s="26"/>
     </row>
     <row r="714" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A714" s="34"/>
+      <c r="A714" s="26"/>
     </row>
     <row r="715" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A715" s="34"/>
+      <c r="A715" s="26"/>
     </row>
     <row r="716" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A716" s="34"/>
+      <c r="A716" s="26"/>
     </row>
     <row r="717" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A717" s="34"/>
+      <c r="A717" s="26"/>
     </row>
     <row r="718" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A718" s="34"/>
+      <c r="A718" s="26"/>
     </row>
     <row r="719" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A719" s="34"/>
+      <c r="A719" s="26"/>
     </row>
     <row r="720" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A720" s="34"/>
+      <c r="A720" s="26"/>
     </row>
     <row r="721" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A721" s="34"/>
+      <c r="A721" s="26"/>
     </row>
     <row r="722" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A722" s="34"/>
+      <c r="A722" s="26"/>
     </row>
     <row r="723" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A723" s="34"/>
+      <c r="A723" s="26"/>
     </row>
     <row r="724" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A724" s="34"/>
+      <c r="A724" s="26"/>
     </row>
     <row r="725" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A725" s="34"/>
+      <c r="A725" s="26"/>
     </row>
     <row r="726" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A726" s="34"/>
+      <c r="A726" s="26"/>
     </row>
     <row r="727" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A727" s="34"/>
+      <c r="A727" s="26"/>
     </row>
     <row r="728" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A728" s="34"/>
+      <c r="A728" s="26"/>
     </row>
     <row r="729" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A729" s="34"/>
+      <c r="A729" s="26"/>
     </row>
     <row r="730" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A730" s="34"/>
+      <c r="A730" s="26"/>
     </row>
     <row r="731" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A731" s="34"/>
+      <c r="A731" s="26"/>
     </row>
     <row r="732" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A732" s="34"/>
+      <c r="A732" s="26"/>
     </row>
     <row r="733" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A733" s="34"/>
+      <c r="A733" s="26"/>
     </row>
     <row r="734" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A734" s="34"/>
+      <c r="A734" s="26"/>
     </row>
     <row r="735" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A735" s="34"/>
+      <c r="A735" s="26"/>
     </row>
     <row r="736" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A736" s="34"/>
+      <c r="A736" s="26"/>
     </row>
     <row r="737" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A737" s="34"/>
+      <c r="A737" s="26"/>
     </row>
     <row r="738" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A738" s="34"/>
+      <c r="A738" s="26"/>
     </row>
     <row r="739" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A739" s="34"/>
+      <c r="A739" s="26"/>
     </row>
     <row r="740" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A740" s="34"/>
+      <c r="A740" s="26"/>
     </row>
     <row r="741" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A741" s="34"/>
+      <c r="A741" s="26"/>
     </row>
     <row r="742" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A742" s="34"/>
+      <c r="A742" s="26"/>
     </row>
     <row r="743" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A743" s="34"/>
+      <c r="A743" s="26"/>
     </row>
     <row r="744" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A744" s="34"/>
+      <c r="A744" s="26"/>
     </row>
     <row r="745" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A745" s="34"/>
+      <c r="A745" s="26"/>
     </row>
     <row r="746" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A746" s="34"/>
+      <c r="A746" s="26"/>
     </row>
     <row r="747" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A747" s="34"/>
+      <c r="A747" s="26"/>
     </row>
     <row r="748" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A748" s="34"/>
+      <c r="A748" s="26"/>
     </row>
     <row r="749" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A749" s="34"/>
+      <c r="A749" s="26"/>
     </row>
     <row r="750" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A750" s="34"/>
+      <c r="A750" s="26"/>
     </row>
     <row r="751" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A751" s="34"/>
+      <c r="A751" s="26"/>
     </row>
     <row r="752" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A752" s="34"/>
+      <c r="A752" s="26"/>
     </row>
     <row r="753" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A753" s="34"/>
+      <c r="A753" s="26"/>
     </row>
     <row r="754" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A754" s="34"/>
+      <c r="A754" s="26"/>
     </row>
     <row r="755" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A755" s="34"/>
+      <c r="A755" s="26"/>
     </row>
     <row r="756" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A756" s="34"/>
+      <c r="A756" s="26"/>
     </row>
     <row r="757" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A757" s="34"/>
+      <c r="A757" s="26"/>
     </row>
     <row r="758" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A758" s="34"/>
+      <c r="A758" s="26"/>
     </row>
     <row r="759" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A759" s="34"/>
+      <c r="A759" s="26"/>
     </row>
     <row r="760" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A760" s="34"/>
+      <c r="A760" s="26"/>
     </row>
     <row r="761" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A761" s="34"/>
+      <c r="A761" s="26"/>
     </row>
     <row r="762" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A762" s="34"/>
+      <c r="A762" s="26"/>
     </row>
     <row r="763" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A763" s="34"/>
+      <c r="A763" s="26"/>
     </row>
     <row r="764" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A764" s="34"/>
+      <c r="A764" s="26"/>
     </row>
     <row r="765" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A765" s="34"/>
+      <c r="A765" s="26"/>
     </row>
     <row r="766" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A766" s="34"/>
+      <c r="A766" s="26"/>
     </row>
     <row r="767" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A767" s="34"/>
+      <c r="A767" s="26"/>
     </row>
     <row r="768" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A768" s="34"/>
+      <c r="A768" s="26"/>
     </row>
     <row r="769" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A769" s="34"/>
+      <c r="A769" s="26"/>
     </row>
     <row r="770" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A770" s="34"/>
+      <c r="A770" s="26"/>
     </row>
     <row r="771" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A771" s="34"/>
+      <c r="A771" s="26"/>
     </row>
     <row r="772" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A772" s="34"/>
+      <c r="A772" s="26"/>
     </row>
     <row r="773" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A773" s="34"/>
+      <c r="A773" s="26"/>
     </row>
     <row r="774" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A774" s="34"/>
+      <c r="A774" s="26"/>
     </row>
     <row r="775" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A775" s="34"/>
+      <c r="A775" s="26"/>
     </row>
     <row r="776" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A776" s="34"/>
+      <c r="A776" s="26"/>
     </row>
     <row r="777" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A777" s="34"/>
+      <c r="A777" s="26"/>
     </row>
     <row r="778" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A778" s="34"/>
+      <c r="A778" s="26"/>
     </row>
     <row r="779" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A779" s="34"/>
+      <c r="A779" s="26"/>
     </row>
     <row r="780" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A780" s="34"/>
+      <c r="A780" s="26"/>
     </row>
     <row r="781" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A781" s="34"/>
+      <c r="A781" s="26"/>
     </row>
     <row r="782" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A782" s="34"/>
+      <c r="A782" s="26"/>
     </row>
     <row r="783" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A783" s="34"/>
+      <c r="A783" s="26"/>
     </row>
     <row r="784" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A784" s="34"/>
+      <c r="A784" s="26"/>
     </row>
     <row r="785" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A785" s="34"/>
+      <c r="A785" s="26"/>
     </row>
     <row r="786" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A786" s="34"/>
+      <c r="A786" s="26"/>
     </row>
     <row r="787" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A787" s="34"/>
+      <c r="A787" s="26"/>
     </row>
     <row r="788" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A788" s="34"/>
+      <c r="A788" s="26"/>
     </row>
     <row r="789" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A789" s="34"/>
+      <c r="A789" s="26"/>
     </row>
     <row r="790" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A790" s="34"/>
+      <c r="A790" s="26"/>
     </row>
     <row r="791" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A791" s="34"/>
+      <c r="A791" s="26"/>
     </row>
     <row r="792" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A792" s="34"/>
+      <c r="A792" s="26"/>
     </row>
     <row r="793" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A793" s="34"/>
+      <c r="A793" s="26"/>
     </row>
     <row r="794" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A794" s="34"/>
+      <c r="A794" s="26"/>
     </row>
     <row r="795" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A795" s="34"/>
+      <c r="A795" s="26"/>
     </row>
     <row r="796" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A796" s="34"/>
+      <c r="A796" s="26"/>
     </row>
     <row r="797" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A797" s="34"/>
+      <c r="A797" s="26"/>
     </row>
     <row r="798" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A798" s="34"/>
+      <c r="A798" s="26"/>
     </row>
     <row r="799" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A799" s="34"/>
+      <c r="A799" s="26"/>
     </row>
     <row r="800" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A800" s="34"/>
+      <c r="A800" s="26"/>
     </row>
     <row r="801" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A801" s="34"/>
+      <c r="A801" s="26"/>
     </row>
     <row r="802" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A802" s="34"/>
+      <c r="A802" s="26"/>
     </row>
     <row r="803" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A803" s="34"/>
+      <c r="A803" s="26"/>
     </row>
     <row r="804" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A804" s="34"/>
+      <c r="A804" s="26"/>
     </row>
     <row r="805" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A805" s="34"/>
+      <c r="A805" s="26"/>
     </row>
     <row r="806" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A806" s="34"/>
+      <c r="A806" s="26"/>
     </row>
     <row r="807" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A807" s="34"/>
+      <c r="A807" s="26"/>
     </row>
     <row r="808" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A808" s="34"/>
+      <c r="A808" s="26"/>
     </row>
     <row r="809" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A809" s="34"/>
+      <c r="A809" s="26"/>
     </row>
     <row r="810" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A810" s="34"/>
+      <c r="A810" s="26"/>
     </row>
     <row r="811" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A811" s="34"/>
+      <c r="A811" s="26"/>
     </row>
     <row r="812" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A812" s="34"/>
+      <c r="A812" s="26"/>
     </row>
     <row r="813" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A813" s="34"/>
+      <c r="A813" s="26"/>
     </row>
     <row r="814" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A814" s="34"/>
+      <c r="A814" s="26"/>
     </row>
     <row r="815" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A815" s="34"/>
+      <c r="A815" s="26"/>
     </row>
     <row r="816" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A816" s="34"/>
+      <c r="A816" s="26"/>
     </row>
     <row r="817" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A817" s="34"/>
+      <c r="A817" s="26"/>
     </row>
     <row r="818" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A818" s="34"/>
+      <c r="A818" s="26"/>
     </row>
     <row r="819" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A819" s="34"/>
+      <c r="A819" s="26"/>
     </row>
     <row r="820" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A820" s="34"/>
+      <c r="A820" s="26"/>
     </row>
     <row r="821" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A821" s="34"/>
+      <c r="A821" s="26"/>
     </row>
     <row r="822" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A822" s="34"/>
+      <c r="A822" s="26"/>
     </row>
     <row r="823" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A823" s="34"/>
+      <c r="A823" s="26"/>
     </row>
     <row r="824" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A824" s="34"/>
+      <c r="A824" s="26"/>
     </row>
     <row r="825" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A825" s="34"/>
+      <c r="A825" s="26"/>
     </row>
     <row r="826" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A826" s="34"/>
+      <c r="A826" s="26"/>
     </row>
     <row r="827" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A827" s="34"/>
+      <c r="A827" s="26"/>
     </row>
     <row r="828" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A828" s="34"/>
+      <c r="A828" s="26"/>
     </row>
     <row r="829" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A829" s="34"/>
+      <c r="A829" s="26"/>
     </row>
     <row r="830" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A830" s="34"/>
+      <c r="A830" s="26"/>
     </row>
     <row r="831" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A831" s="34"/>
+      <c r="A831" s="26"/>
     </row>
     <row r="832" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A832" s="34"/>
+      <c r="A832" s="26"/>
     </row>
     <row r="833" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A833" s="34"/>
+      <c r="A833" s="26"/>
     </row>
     <row r="834" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A834" s="34"/>
+      <c r="A834" s="26"/>
     </row>
     <row r="835" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A835" s="34"/>
+      <c r="A835" s="26"/>
     </row>
     <row r="836" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A836" s="34"/>
+      <c r="A836" s="26"/>
     </row>
     <row r="837" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A837" s="34"/>
+      <c r="A837" s="26"/>
     </row>
     <row r="838" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A838" s="34"/>
+      <c r="A838" s="26"/>
     </row>
     <row r="839" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A839" s="34"/>
+      <c r="A839" s="26"/>
     </row>
     <row r="840" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A840" s="34"/>
+      <c r="A840" s="26"/>
     </row>
     <row r="841" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A841" s="34"/>
+      <c r="A841" s="26"/>
     </row>
     <row r="842" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A842" s="34"/>
+      <c r="A842" s="26"/>
     </row>
     <row r="843" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A843" s="34"/>
+      <c r="A843" s="26"/>
     </row>
     <row r="844" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A844" s="34"/>
+      <c r="A844" s="26"/>
     </row>
     <row r="845" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A845" s="34"/>
+      <c r="A845" s="26"/>
     </row>
     <row r="846" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A846" s="34"/>
+      <c r="A846" s="26"/>
     </row>
     <row r="847" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A847" s="34"/>
+      <c r="A847" s="26"/>
     </row>
     <row r="848" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A848" s="34"/>
+      <c r="A848" s="26"/>
     </row>
     <row r="849" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A849" s="34"/>
+      <c r="A849" s="26"/>
     </row>
     <row r="850" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A850" s="34"/>
+      <c r="A850" s="26"/>
     </row>
     <row r="851" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A851" s="34"/>
+      <c r="A851" s="26"/>
     </row>
     <row r="852" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A852" s="34"/>
+      <c r="A852" s="26"/>
     </row>
     <row r="853" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A853" s="34"/>
+      <c r="A853" s="26"/>
     </row>
     <row r="854" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A854" s="34"/>
+      <c r="A854" s="26"/>
     </row>
     <row r="855" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A855" s="34"/>
+      <c r="A855" s="26"/>
     </row>
     <row r="856" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A856" s="34"/>
+      <c r="A856" s="26"/>
     </row>
     <row r="857" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A857" s="34"/>
+      <c r="A857" s="26"/>
     </row>
     <row r="858" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A858" s="34"/>
+      <c r="A858" s="26"/>
     </row>
     <row r="859" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A859" s="34"/>
+      <c r="A859" s="26"/>
     </row>
     <row r="860" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A860" s="34"/>
+      <c r="A860" s="26"/>
     </row>
     <row r="861" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A861" s="34"/>
+      <c r="A861" s="26"/>
     </row>
     <row r="862" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A862" s="34"/>
+      <c r="A862" s="26"/>
     </row>
     <row r="863" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A863" s="34"/>
+      <c r="A863" s="26"/>
     </row>
     <row r="864" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A864" s="34"/>
+      <c r="A864" s="26"/>
     </row>
     <row r="865" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A865" s="34"/>
+      <c r="A865" s="26"/>
     </row>
     <row r="866" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A866" s="34"/>
+      <c r="A866" s="26"/>
     </row>
     <row r="867" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A867" s="34"/>
+      <c r="A867" s="26"/>
     </row>
     <row r="868" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A868" s="34"/>
+      <c r="A868" s="26"/>
     </row>
     <row r="869" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A869" s="34"/>
+      <c r="A869" s="26"/>
     </row>
     <row r="870" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A870" s="34"/>
+      <c r="A870" s="26"/>
     </row>
     <row r="871" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A871" s="34"/>
+      <c r="A871" s="26"/>
     </row>
     <row r="872" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A872" s="34"/>
+      <c r="A872" s="26"/>
     </row>
     <row r="873" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A873" s="34"/>
+      <c r="A873" s="26"/>
     </row>
     <row r="874" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A874" s="34"/>
+      <c r="A874" s="26"/>
     </row>
     <row r="875" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A875" s="34"/>
+      <c r="A875" s="26"/>
     </row>
     <row r="876" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A876" s="34"/>
+      <c r="A876" s="26"/>
     </row>
     <row r="877" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A877" s="34"/>
+      <c r="A877" s="26"/>
     </row>
     <row r="878" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A878" s="34"/>
+      <c r="A878" s="26"/>
     </row>
     <row r="879" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A879" s="34"/>
+      <c r="A879" s="26"/>
     </row>
     <row r="880" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A880" s="34"/>
+      <c r="A880" s="26"/>
     </row>
     <row r="881" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A881" s="34"/>
+      <c r="A881" s="26"/>
     </row>
     <row r="882" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A882" s="34"/>
+      <c r="A882" s="26"/>
     </row>
     <row r="883" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A883" s="34"/>
+      <c r="A883" s="26"/>
     </row>
     <row r="884" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A884" s="34"/>
+      <c r="A884" s="26"/>
     </row>
     <row r="885" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A885" s="34"/>
+      <c r="A885" s="26"/>
     </row>
     <row r="886" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A886" s="34"/>
+      <c r="A886" s="26"/>
     </row>
     <row r="887" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A887" s="34"/>
+      <c r="A887" s="26"/>
     </row>
     <row r="888" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A888" s="34"/>
+      <c r="A888" s="26"/>
     </row>
     <row r="889" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A889" s="34"/>
+      <c r="A889" s="26"/>
     </row>
     <row r="890" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A890" s="34"/>
+      <c r="A890" s="26"/>
     </row>
     <row r="891" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A891" s="34"/>
+      <c r="A891" s="26"/>
     </row>
     <row r="892" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A892" s="34"/>
+      <c r="A892" s="26"/>
     </row>
     <row r="893" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A893" s="34"/>
+      <c r="A893" s="26"/>
     </row>
     <row r="894" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A894" s="34"/>
+      <c r="A894" s="26"/>
     </row>
     <row r="895" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A895" s="34"/>
+      <c r="A895" s="26"/>
     </row>
     <row r="896" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A896" s="34"/>
+      <c r="A896" s="26"/>
     </row>
     <row r="897" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A897" s="34"/>
+      <c r="A897" s="26"/>
     </row>
     <row r="898" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A898" s="34"/>
+      <c r="A898" s="26"/>
     </row>
     <row r="899" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A899" s="34"/>
+      <c r="A899" s="26"/>
     </row>
     <row r="900" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A900" s="34"/>
+      <c r="A900" s="26"/>
     </row>
     <row r="901" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A901" s="34"/>
+      <c r="A901" s="26"/>
     </row>
     <row r="902" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A902" s="34"/>
+      <c r="A902" s="26"/>
     </row>
     <row r="903" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A903" s="34"/>
+      <c r="A903" s="26"/>
     </row>
     <row r="904" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A904" s="34"/>
+      <c r="A904" s="26"/>
     </row>
     <row r="905" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A905" s="34"/>
+      <c r="A905" s="26"/>
     </row>
     <row r="906" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A906" s="34"/>
+      <c r="A906" s="26"/>
     </row>
     <row r="907" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A907" s="34"/>
+      <c r="A907" s="26"/>
     </row>
     <row r="908" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A908" s="34"/>
+      <c r="A908" s="26"/>
     </row>
     <row r="909" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A909" s="34"/>
+      <c r="A909" s="26"/>
     </row>
     <row r="910" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A910" s="34"/>
+      <c r="A910" s="26"/>
     </row>
     <row r="911" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A911" s="34"/>
+      <c r="A911" s="26"/>
     </row>
     <row r="912" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A912" s="34"/>
+      <c r="A912" s="26"/>
     </row>
     <row r="913" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A913" s="34"/>
+      <c r="A913" s="26"/>
     </row>
     <row r="914" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A914" s="34"/>
+      <c r="A914" s="26"/>
     </row>
     <row r="915" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A915" s="34"/>
+      <c r="A915" s="26"/>
     </row>
     <row r="916" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A916" s="34"/>
+      <c r="A916" s="26"/>
     </row>
     <row r="917" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A917" s="34"/>
+      <c r="A917" s="26"/>
     </row>
     <row r="918" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A918" s="34"/>
+      <c r="A918" s="26"/>
     </row>
     <row r="919" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A919" s="34"/>
+      <c r="A919" s="26"/>
     </row>
     <row r="920" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A920" s="34"/>
+      <c r="A920" s="26"/>
     </row>
     <row r="921" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A921" s="34"/>
+      <c r="A921" s="26"/>
     </row>
     <row r="922" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A922" s="34"/>
+      <c r="A922" s="26"/>
     </row>
     <row r="923" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A923" s="34"/>
+      <c r="A923" s="26"/>
     </row>
     <row r="924" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A924" s="34"/>
+      <c r="A924" s="26"/>
     </row>
     <row r="925" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A925" s="34"/>
+      <c r="A925" s="26"/>
     </row>
     <row r="926" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A926" s="34"/>
+      <c r="A926" s="26"/>
     </row>
     <row r="927" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A927" s="34"/>
+      <c r="A927" s="26"/>
     </row>
     <row r="928" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A928" s="34"/>
+      <c r="A928" s="26"/>
     </row>
     <row r="929" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A929" s="34"/>
+      <c r="A929" s="26"/>
     </row>
     <row r="930" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A930" s="34"/>
+      <c r="A930" s="26"/>
     </row>
     <row r="931" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A931" s="34"/>
+      <c r="A931" s="26"/>
     </row>
     <row r="932" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A932" s="34"/>
+      <c r="A932" s="26"/>
     </row>
     <row r="933" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A933" s="34"/>
+      <c r="A933" s="26"/>
     </row>
     <row r="934" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A934" s="34"/>
+      <c r="A934" s="26"/>
     </row>
     <row r="935" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A935" s="34"/>
+      <c r="A935" s="26"/>
     </row>
     <row r="936" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A936" s="34"/>
+      <c r="A936" s="26"/>
     </row>
     <row r="937" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A937" s="34"/>
+      <c r="A937" s="26"/>
     </row>
     <row r="938" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A938" s="34"/>
+      <c r="A938" s="26"/>
     </row>
     <row r="939" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A939" s="34"/>
+      <c r="A939" s="26"/>
     </row>
     <row r="940" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A940" s="34"/>
+      <c r="A940" s="26"/>
     </row>
     <row r="941" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A941" s="34"/>
+      <c r="A941" s="26"/>
     </row>
     <row r="942" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A942" s="34"/>
+      <c r="A942" s="26"/>
     </row>
     <row r="943" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A943" s="34"/>
+      <c r="A943" s="26"/>
     </row>
     <row r="944" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A944" s="34"/>
+      <c r="A944" s="26"/>
     </row>
     <row r="945" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A945" s="34"/>
+      <c r="A945" s="26"/>
     </row>
     <row r="946" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A946" s="34"/>
+      <c r="A946" s="26"/>
     </row>
     <row r="947" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A947" s="34"/>
+      <c r="A947" s="26"/>
     </row>
     <row r="948" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A948" s="34"/>
+      <c r="A948" s="26"/>
     </row>
     <row r="949" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A949" s="34"/>
+      <c r="A949" s="26"/>
     </row>
     <row r="950" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A950" s="34"/>
+      <c r="A950" s="26"/>
     </row>
     <row r="951" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A951" s="34"/>
+      <c r="A951" s="26"/>
     </row>
     <row r="952" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A952" s="34"/>
+      <c r="A952" s="26"/>
     </row>
     <row r="953" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A953" s="34"/>
+      <c r="A953" s="26"/>
     </row>
     <row r="954" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A954" s="34"/>
+      <c r="A954" s="26"/>
     </row>
     <row r="955" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A955" s="34"/>
+      <c r="A955" s="26"/>
     </row>
     <row r="956" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A956" s="34"/>
+      <c r="A956" s="26"/>
     </row>
     <row r="957" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A957" s="34"/>
+      <c r="A957" s="26"/>
     </row>
     <row r="958" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A958" s="34"/>
+      <c r="A958" s="26"/>
     </row>
     <row r="959" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A959" s="34"/>
+      <c r="A959" s="26"/>
     </row>
     <row r="960" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A960" s="34"/>
+      <c r="A960" s="26"/>
     </row>
     <row r="961" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A961" s="34"/>
+      <c r="A961" s="26"/>
     </row>
     <row r="962" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A962" s="34"/>
+      <c r="A962" s="26"/>
     </row>
     <row r="963" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A963" s="34"/>
+      <c r="A963" s="26"/>
     </row>
     <row r="964" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A964" s="34"/>
+      <c r="A964" s="26"/>
     </row>
     <row r="965" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A965" s="34"/>
+      <c r="A965" s="26"/>
     </row>
     <row r="966" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A966" s="34"/>
+      <c r="A966" s="26"/>
     </row>
     <row r="967" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A967" s="34"/>
+      <c r="A967" s="26"/>
     </row>
     <row r="968" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A968" s="34"/>
+      <c r="A968" s="26"/>
     </row>
     <row r="969" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A969" s="34"/>
+      <c r="A969" s="26"/>
     </row>
     <row r="970" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A970" s="34"/>
+      <c r="A970" s="26"/>
     </row>
     <row r="971" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A971" s="34"/>
+      <c r="A971" s="26"/>
     </row>
     <row r="972" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A972" s="34"/>
+      <c r="A972" s="26"/>
     </row>
     <row r="973" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A973" s="34"/>
+      <c r="A973" s="26"/>
     </row>
     <row r="974" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A974" s="34"/>
+      <c r="A974" s="26"/>
     </row>
     <row r="975" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A975" s="34"/>
+      <c r="A975" s="26"/>
     </row>
     <row r="976" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A976" s="34"/>
+      <c r="A976" s="26"/>
     </row>
     <row r="977" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A977" s="34"/>
+      <c r="A977" s="26"/>
     </row>
     <row r="978" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A978" s="34"/>
+      <c r="A978" s="26"/>
     </row>
     <row r="979" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A979" s="34"/>
+      <c r="A979" s="26"/>
     </row>
     <row r="980" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A980" s="34"/>
+      <c r="A980" s="26"/>
     </row>
     <row r="981" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A981" s="34"/>
+      <c r="A981" s="26"/>
     </row>
     <row r="982" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A982" s="34"/>
+      <c r="A982" s="26"/>
     </row>
     <row r="983" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A983" s="34"/>
+      <c r="A983" s="26"/>
     </row>
     <row r="984" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A984" s="34"/>
+      <c r="A984" s="26"/>
     </row>
     <row r="985" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A985" s="34"/>
+      <c r="A985" s="26"/>
     </row>
     <row r="986" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A986" s="34"/>
+      <c r="A986" s="26"/>
     </row>
     <row r="987" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A987" s="34"/>
+      <c r="A987" s="26"/>
     </row>
     <row r="988" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A988" s="34"/>
+      <c r="A988" s="26"/>
     </row>
     <row r="989" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A989" s="34"/>
+      <c r="A989" s="26"/>
     </row>
     <row r="990" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A990" s="34"/>
+      <c r="A990" s="26"/>
     </row>
     <row r="991" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A991" s="34"/>
+      <c r="A991" s="26"/>
     </row>
     <row r="992" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A992" s="34"/>
+      <c r="A992" s="26"/>
     </row>
     <row r="993" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A993" s="34"/>
+      <c r="A993" s="26"/>
     </row>
     <row r="994" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A994" s="34"/>
+      <c r="A994" s="26"/>
     </row>
     <row r="995" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A995" s="34"/>
+      <c r="A995" s="26"/>
     </row>
     <row r="996" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A996" s="34"/>
+      <c r="A996" s="26"/>
     </row>
     <row r="997" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A997" s="34"/>
+      <c r="A997" s="26"/>
     </row>
     <row r="998" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A998" s="34"/>
+      <c r="A998" s="26"/>
     </row>
     <row r="999" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A999" s="34"/>
+      <c r="A999" s="26"/>
     </row>
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1000" s="34"/>
+      <c r="A1000" s="26"/>
     </row>
     <row r="1001" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1001" s="34"/>
+      <c r="A1001" s="26"/>
     </row>
     <row r="1002" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1002" s="34"/>
+      <c r="A1002" s="26"/>
     </row>
     <row r="1003" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1003" s="34"/>
+      <c r="A1003" s="26"/>
     </row>
     <row r="1004" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1004" s="34"/>
+      <c r="A1004" s="26"/>
     </row>
     <row r="1005" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1005" s="34"/>
+      <c r="A1005" s="26"/>
     </row>
     <row r="1006" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1006" s="34"/>
+      <c r="A1006" s="26"/>
     </row>
     <row r="1007" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1007" s="34"/>
+      <c r="A1007" s="26"/>
     </row>
     <row r="1008" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1008" s="34"/>
+      <c r="A1008" s="26"/>
     </row>
     <row r="1009" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1009" s="34"/>
+      <c r="A1009" s="26"/>
     </row>
     <row r="1010" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1010" s="34"/>
+      <c r="A1010" s="26"/>
     </row>
     <row r="1011" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1011" s="34"/>
+      <c r="A1011" s="26"/>
     </row>
     <row r="1012" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1012" s="34"/>
+      <c r="A1012" s="26"/>
     </row>
     <row r="1013" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1013" s="34"/>
+      <c r="A1013" s="26"/>
     </row>
     <row r="1014" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1014" s="34"/>
+      <c r="A1014" s="26"/>
     </row>
     <row r="1015" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1015" s="34"/>
+      <c r="A1015" s="26"/>
     </row>
     <row r="1016" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1016" s="34"/>
+      <c r="A1016" s="26"/>
     </row>
     <row r="1017" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1017" s="34"/>
+      <c r="A1017" s="26"/>
     </row>
     <row r="1018" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1018" s="34"/>
+      <c r="A1018" s="26"/>
     </row>
     <row r="1019" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1019" s="34"/>
+      <c r="A1019" s="26"/>
     </row>
     <row r="1020" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1020" s="34"/>
+      <c r="A1020" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="V1:V52"/>
-    <mergeCell ref="I13:I57"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O45"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:I12"/>
+    <mergeCell ref="I13:I57"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="AA1:AA45"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AH1:AH52"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
